--- a/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.01051673721638529</v>
+        <v>0.01025632642398101</v>
       </c>
       <c r="F2">
         <v>0.5034553472172337</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>116</v>
       </c>
       <c r="E3">
-        <v>0.008246408159290484</v>
+        <v>0.008171322382229767</v>
       </c>
       <c r="F3">
         <v>0.50840203900241</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>121</v>
       </c>
       <c r="E4">
-        <v>0.009694510478376137</v>
+        <v>0.008820054405154952</v>
       </c>
       <c r="F4">
         <v>0.5012400315100555</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.009205155220168586</v>
+        <v>0.009194647856382829</v>
       </c>
       <c r="F5">
         <v>0.5078600568959223</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>137</v>
       </c>
       <c r="E6">
-        <v>0.008074332509219337</v>
+        <v>0.007719637967353261</v>
       </c>
       <c r="F6">
         <v>0.5045670899357618</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>0.01051673721638529</v>
+        <v>0.01025632642398101</v>
       </c>
       <c r="F2">
         <v>0.7004491588581711</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.008246408159290484</v>
+        <v>0.008171322382229767</v>
       </c>
       <c r="F3">
         <v>0.701466577009303</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>154</v>
       </c>
       <c r="E4">
-        <v>0.009694510478376137</v>
+        <v>0.008820054405154952</v>
       </c>
       <c r="F4">
         <v>0.7128820672708698</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.009205155220168586</v>
+        <v>0.009194647856382829</v>
       </c>
       <c r="F5">
         <v>0.7222871762757929</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.008074332509219337</v>
+        <v>0.007719637967353261</v>
       </c>
       <c r="F6">
         <v>0.7192124132129609</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.01051673721638529</v>
+        <v>0.01025632642398101</v>
       </c>
       <c r="F2">
         <v>0.8028187737082295</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3">
-        <v>0.008246408159290484</v>
+        <v>0.008171322382229767</v>
       </c>
       <c r="F3">
         <v>0.8021658615085965</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>163</v>
       </c>
       <c r="E4">
-        <v>0.009694510478376137</v>
+        <v>0.008820054405154952</v>
       </c>
       <c r="F4">
         <v>0.801684968997988</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>159</v>
       </c>
       <c r="E5">
-        <v>0.009205155220168586</v>
+        <v>0.009194647856382829</v>
       </c>
       <c r="F5">
         <v>0.8008591488037248</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.008074332509219337</v>
+        <v>0.007719637967353261</v>
       </c>
       <c r="F6">
         <v>0.8167881019769014</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>172</v>
       </c>
       <c r="E2">
-        <v>0.01051673721638529</v>
+        <v>0.01025632642398101</v>
       </c>
       <c r="F2">
         <v>0.901112931931162</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.008246408159290484</v>
+        <v>0.008171322382229767</v>
       </c>
       <c r="F3">
         <v>0.9107303491174972</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>172</v>
       </c>
       <c r="E4">
-        <v>0.009694510478376137</v>
+        <v>0.008820054405154952</v>
       </c>
       <c r="F4">
         <v>0.9096309223956227</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>172</v>
       </c>
       <c r="E5">
-        <v>0.009205155220168586</v>
+        <v>0.009194647856382829</v>
       </c>
       <c r="F5">
         <v>0.9113394462310519</v>
       </c>
       <c r="G5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>172</v>
       </c>
       <c r="E6">
-        <v>0.008074332509219337</v>
+        <v>0.007719637967353261</v>
       </c>
       <c r="F6">
         <v>0.9126613972630878</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>28</v>

--- a/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.89109524484008E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.985446825415051E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.667664293020688E-07</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.900425315399699E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.302765757822937E-05</v>
+        <v>5.133242865342678E-05</v>
       </c>
       <c r="G2">
-        <v>0.0001363557460227429</v>
+        <v>0.0001049746011849942</v>
       </c>
       <c r="H2">
-        <v>0.0001193048865200865</v>
+        <v>8.782331798824743E-05</v>
       </c>
       <c r="I2">
-        <v>9.497877722963624E-05</v>
+        <v>6.335393628637344E-05</v>
       </c>
       <c r="J2">
-        <v>0.0002289960633205879</v>
+        <v>0.0001981605380677819</v>
       </c>
       <c r="K2">
-        <v>0.0003164252907704312</v>
+        <v>0.0002861046935768598</v>
       </c>
       <c r="L2">
-        <v>0.0003494548298070177</v>
+        <v>0.0003193287652306225</v>
       </c>
       <c r="M2">
-        <v>0.0001901547444535208</v>
+        <v>0.0001590904572005725</v>
       </c>
       <c r="N2">
-        <v>9.764423715188948E-05</v>
+        <v>6.603509485019962E-05</v>
       </c>
       <c r="O2">
-        <v>3.199578906673916E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.718038049887854E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.888584769903867E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.336740144336684E-05</v>
+        <v>2.149748381807581E-05</v>
       </c>
       <c r="S2">
-        <v>7.169317290883634E-05</v>
+        <v>3.993118777031128E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001277800962728795</v>
+        <v>9.634844380957848E-05</v>
       </c>
       <c r="U2">
-        <v>7.956396767925911E-05</v>
+        <v>4.784833881304689E-05</v>
       </c>
       <c r="V2">
-        <v>5.537002838495374E-05</v>
+        <v>2.351190554310619E-05</v>
       </c>
       <c r="W2">
-        <v>9.922214710586462E-05</v>
+        <v>6.762229815073569E-05</v>
       </c>
       <c r="X2">
-        <v>0.0001043983369548843</v>
+        <v>7.282897397648109E-05</v>
       </c>
       <c r="Y2">
-        <v>0.0001237191963913288</v>
+        <v>9.226362662536201E-05</v>
       </c>
       <c r="Z2">
-        <v>9.38849072615425E-05</v>
+        <v>6.225362380064395E-05</v>
       </c>
       <c r="AA2">
-        <v>0.0001001260270795</v>
+        <v>6.85315016663282E-05</v>
       </c>
       <c r="AB2">
-        <v>8.448317153577458E-05</v>
+        <v>5.27965150872389E-05</v>
       </c>
       <c r="AC2">
-        <v>0.0001028622669996887</v>
+        <v>7.128385709791735E-05</v>
       </c>
       <c r="AD2">
-        <v>8.365305755998756E-05</v>
+        <v>5.196151202583413E-05</v>
       </c>
       <c r="AE2">
-        <v>0.0001028622669996887</v>
+        <v>7.128385709791735E-05</v>
       </c>
       <c r="AF2">
-        <v>3.554954896308223E-05</v>
+        <v>3.57469031903792E-06</v>
       </c>
       <c r="AG2">
-        <v>6.921461398113154E-07</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.745336449091608E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.051173569339117E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.745336449091608E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.787702889519374E-05</v>
+        <v>5.915878306902716E-06</v>
       </c>
       <c r="AL2">
-        <v>9.235019730630729E-05</v>
+        <v>6.070987493197227E-05</v>
       </c>
       <c r="AM2">
-        <v>9.409848725531275E-05</v>
+        <v>6.246846170706987E-05</v>
       </c>
       <c r="AN2">
-        <v>0.0001606060953154029</v>
+        <v>0.0001293677766887653</v>
       </c>
       <c r="AO2">
-        <v>0.0001202958264911825</v>
+        <v>8.882009425472223E-05</v>
       </c>
       <c r="AP2">
-        <v>0.0002132910537786754</v>
+        <v>0.0001823630314248478</v>
       </c>
       <c r="AQ2">
-        <v>0.0001707038950208679</v>
+        <v>0.000139525048959144</v>
       </c>
       <c r="AR2">
-        <v>0.0001851936645982268</v>
+        <v>0.0001541001582923816</v>
       </c>
       <c r="AS2">
-        <v>0.0001766695748468595</v>
+        <v>0.0001455258645861076</v>
       </c>
       <c r="AT2">
-        <v>0.0001021686470199204</v>
+        <v>7.058615193519083E-05</v>
       </c>
       <c r="AU2">
-        <v>5.221186647707176E-05</v>
+        <v>2.033514314852877E-05</v>
       </c>
       <c r="AV2">
-        <v>1.860651345728075E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.407704500603258E-05</v>
+        <v>2.09351382047172E-06</v>
       </c>
       <c r="AX2">
-        <v>3.407704500603258E-05</v>
+        <v>2.09351382047172E-06</v>
       </c>
       <c r="AY2">
-        <v>4.846230458643988E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>2.743720819970493E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>5.07546085195774E-05</v>
+        <v>1.886930244320804E-05</v>
       </c>
       <c r="BB2">
-        <v>4.330968173673282E-05</v>
+        <v>1.138052760392682E-05</v>
       </c>
       <c r="BC2">
-        <v>0.0001267587363026708</v>
+        <v>9.532106838066584E-05</v>
       </c>
       <c r="BD2">
-        <v>0.0001588021753680201</v>
+        <v>0.000127553232273746</v>
       </c>
       <c r="BE2">
-        <v>0.000254932522564067</v>
+        <v>0.0002242497541296754</v>
       </c>
       <c r="BF2">
-        <v>0.0003604106194874566</v>
+        <v>0.0003303490807416342</v>
       </c>
       <c r="BG2">
-        <v>0.0003501716897861081</v>
+        <v>0.0003200498472682687</v>
       </c>
       <c r="BH2">
-        <v>0.0004187442877859662</v>
+        <v>0.0003890263142697714</v>
       </c>
       <c r="BI2">
-        <v>0.0004168937078399443</v>
+        <v>0.00038716483504478</v>
       </c>
       <c r="BJ2">
-        <v>0.0003096283709686854</v>
+        <v>0.0002792677422567719</v>
       </c>
       <c r="BK2">
-        <v>0.0002592876524370356</v>
+        <v>0.0002286305342186942</v>
       </c>
       <c r="BL2">
-        <v>0.0002327884232099715</v>
+        <v>0.0002019752336517006</v>
       </c>
       <c r="BM2">
-        <v>0.0001157941406224887</v>
+        <v>8.429189500560337E-05</v>
       </c>
       <c r="BN2">
-        <v>3.980853083885522E-05</v>
+        <v>7.858756132248938E-06</v>
       </c>
       <c r="BO2">
-        <v>2.499867427083267E-07</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.561341654458412E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>6.909289798468178E-05</v>
+        <v>3.731559812178792E-05</v>
       </c>
       <c r="BR2">
-        <v>8.165841161816786E-05</v>
+        <v>4.995511830591277E-05</v>
       </c>
       <c r="BS2">
-        <v>0.0001395458059296945</v>
+        <v>0.0001081834494468775</v>
       </c>
       <c r="BT2">
-        <v>0.0001384783659608298</v>
+        <v>0.0001071097226239762</v>
       </c>
       <c r="BU2">
-        <v>0.000112482996719069</v>
+        <v>8.096124960418614E-05</v>
       </c>
       <c r="BV2">
-        <v>0.000244314572873774</v>
+        <v>0.0002135692683700775</v>
       </c>
       <c r="BW2">
-        <v>0.0002896391615517354</v>
+        <v>0.0002591608032760259</v>
       </c>
       <c r="BX2">
-        <v>0.0002958352513710064</v>
+        <v>0.0002653933859318292</v>
       </c>
       <c r="BY2">
-        <v>0.000286565731641382</v>
+        <v>0.0002560692719212802</v>
       </c>
       <c r="BZ2">
-        <v>0.0002485784327494046</v>
+        <v>0.0002178582409128865</v>
       </c>
       <c r="CA2">
-        <v>0.0001311209561754325</v>
+        <v>9.970898022713649E-05</v>
       </c>
       <c r="CB2">
-        <v>6.248586817739721E-05</v>
+        <v>3.066965518287445E-05</v>
       </c>
       <c r="CC2">
-        <v>4.731682061985163E-05</v>
+        <v>1.541126715593351E-05</v>
       </c>
       <c r="CD2">
-        <v>2.228727634991938E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.296779262175231E-07</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.552648954711963E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>4.330968173673282E-05</v>
+        <v>1.138052760392682E-05</v>
       </c>
       <c r="CH2">
-        <v>6.231185218247295E-05</v>
+        <v>3.049461429363102E-05</v>
       </c>
       <c r="CI2">
-        <v>6.741498303362361E-05</v>
+        <v>3.562780082915462E-05</v>
       </c>
       <c r="CJ2">
-        <v>7.557733779554208E-05</v>
+        <v>4.383822905138988E-05</v>
       </c>
       <c r="CK2">
-        <v>0.0001148219466508459</v>
+        <v>8.331397514606679E-05</v>
       </c>
       <c r="CL2">
-        <v>0.0001680605950979683</v>
+        <v>0.0001368661809094409</v>
       </c>
       <c r="CM2">
-        <v>9.235019730630729E-05</v>
+        <v>6.070987493197227E-05</v>
       </c>
       <c r="CN2">
-        <v>0.02595201924302528</v>
+        <v>0.02607268347122925</v>
       </c>
       <c r="CO2">
-        <v>0.062962558163493</v>
+        <v>0.06330120172805187</v>
       </c>
       <c r="CP2">
-        <v>0.09151227733074795</v>
+        <v>0.09201906891526865</v>
       </c>
       <c r="CQ2">
-        <v>0.0920333833155482</v>
+        <v>0.09254324403497075</v>
       </c>
       <c r="CR2">
-        <v>0.005523054238902229</v>
+        <v>0.005523398894251962</v>
       </c>
       <c r="CS2">
-        <v>0.02193936836006724</v>
+        <v>0.02203639945560134</v>
       </c>
       <c r="CT2">
-        <v>0.01303692261973591</v>
+        <v>0.01308152137380687</v>
       </c>
       <c r="CU2">
-        <v>0.0005656266835016653</v>
+        <v>0.0005367737967438428</v>
       </c>
       <c r="CV2">
-        <v>0.002247981434430339</v>
+        <v>0.002229037038140839</v>
       </c>
       <c r="CW2">
-        <v>0.0008576966749824978</v>
+        <v>0.0008305639799530093</v>
       </c>
       <c r="CX2">
-        <v>0.01456169357526103</v>
+        <v>0.01461527270548087</v>
       </c>
       <c r="CY2">
-        <v>0.03068089210509238</v>
+        <v>0.03082940776692166</v>
       </c>
       <c r="CZ2">
-        <v>0.01524320555538253</v>
+        <v>0.01530079855660986</v>
       </c>
       <c r="DA2">
-        <v>0.0006658921305770987</v>
+        <v>0.0006376297727942743</v>
       </c>
       <c r="DB2">
-        <v>0.01932557943630686</v>
+        <v>0.01940721621466559</v>
       </c>
       <c r="DC2">
-        <v>0.0339608220094226</v>
+        <v>0.03412865532953761</v>
       </c>
       <c r="DD2">
-        <v>0.002370853330846382</v>
+        <v>0.002352632607738053</v>
       </c>
       <c r="DE2">
-        <v>0.001819852446918107</v>
+        <v>0.001798386518240961</v>
       </c>
       <c r="DF2">
-        <v>1.354072860504078E-05</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001011646170492062</v>
+        <v>0.0009854201850064538</v>
       </c>
       <c r="DH2">
-        <v>0.003473581598681739</v>
+        <v>0.003461855565545882</v>
       </c>
       <c r="DI2">
-        <v>0.001227487264196357</v>
+        <v>0.001202532508466816</v>
       </c>
       <c r="DJ2">
-        <v>0.000506759785218709</v>
+        <v>0.0004775601926901719</v>
       </c>
       <c r="DK2">
-        <v>0.006755170802963558</v>
+        <v>0.00676277220081907</v>
       </c>
       <c r="DL2">
-        <v>0.02145364437423496</v>
+        <v>0.02154781472266373</v>
       </c>
       <c r="DM2">
-        <v>0.002980661213059359</v>
+        <v>0.002966032048500189</v>
       </c>
       <c r="DN2">
-        <v>0.02025643940915532</v>
+        <v>0.02034355863238082</v>
       </c>
       <c r="DO2">
-        <v>0.0002235486434794796</v>
+        <v>0.0001926810347986435</v>
       </c>
       <c r="DP2">
-        <v>0.0001565285554343376</v>
+        <v>0.000125266221501164</v>
       </c>
       <c r="DQ2">
-        <v>0.005543257838312925</v>
+        <v>0.005543721485909731</v>
       </c>
       <c r="DR2">
-        <v>2.743720819970493E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.002890292515695255</v>
+        <v>0.00287513111061073</v>
       </c>
       <c r="DT2">
-        <v>0.01090050568205144</v>
+        <v>0.01093252167564829</v>
       </c>
       <c r="DU2">
-        <v>0.02632771923206677</v>
+        <v>0.02645059620390185</v>
       </c>
       <c r="DV2">
-        <v>0.002035750940620729</v>
+        <v>0.002015556579765885</v>
       </c>
       <c r="DW2">
-        <v>0.005325248344671879</v>
+        <v>0.005324427991383287</v>
       </c>
       <c r="DX2">
-        <v>0.000718282049048977</v>
+        <v>0.000690328249854957</v>
       </c>
       <c r="DY2">
-        <v>0.0003673185592859642</v>
+        <v>0.0003372977059280549</v>
       </c>
       <c r="DZ2">
-        <v>6.106272321890784E-05</v>
+        <v>2.923812839038219E-05</v>
       </c>
       <c r="EA2">
-        <v>0.004809253259722547</v>
+        <v>0.004805393872973206</v>
       </c>
       <c r="EB2">
-        <v>0.0006908313798496646</v>
+        <v>0.0006627159056617348</v>
       </c>
       <c r="EC2">
-        <v>0.0002400876329970664</v>
+        <v>0.0002093174332722785</v>
       </c>
       <c r="ED2">
-        <v>0.001139534466761785</v>
+        <v>0.001114061699325996</v>
       </c>
       <c r="EE2">
-        <v>0.00699538679595688</v>
+        <v>0.007004402983336182</v>
       </c>
       <c r="EF2">
-        <v>0.0411275588003815</v>
+        <v>0.04133760173362536</v>
       </c>
       <c r="EG2">
-        <v>0.01472870757038953</v>
+        <v>0.0147832703555596</v>
       </c>
       <c r="EH2">
-        <v>0.002686348921643931</v>
+        <v>0.002669986358981542</v>
       </c>
       <c r="EI2">
-        <v>1.921512843952853E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.000220522253567754</v>
+        <v>0.000189636820491928</v>
       </c>
       <c r="EK2">
-        <v>0.0003032887411536013</v>
+        <v>0.0002728907742039821</v>
       </c>
       <c r="EL2">
-        <v>0.0001716001249947264</v>
+        <v>0.0001404265574190939</v>
       </c>
       <c r="EM2">
-        <v>0.0005591854836895437</v>
+        <v>0.0005302946604816903</v>
       </c>
       <c r="EN2">
-        <v>0.00336115310196108</v>
+        <v>0.003348764903673961</v>
       </c>
       <c r="EO2">
-        <v>0.005890047428197684</v>
+        <v>0.005892553547124623</v>
       </c>
       <c r="EP2">
-        <v>0.006388885813647446</v>
+        <v>0.006394329918979889</v>
       </c>
       <c r="EQ2">
-        <v>0.005272525246209719</v>
+        <v>0.00527139437201685</v>
       </c>
       <c r="ER2">
-        <v>0.01026415420061269</v>
+        <v>0.01029242230299643</v>
       </c>
       <c r="ES2">
-        <v>0.01161771566113168</v>
+        <v>0.01165395577466375</v>
       </c>
       <c r="ET2">
-        <v>0.0003518679197366321</v>
+        <v>0.0003217560674294112</v>
       </c>
       <c r="EU2">
-        <v>0.000419813367754783</v>
+        <v>0.0003901016907516601</v>
       </c>
       <c r="EV2">
-        <v>0.002021790941027917</v>
+        <v>0.002001514360580073</v>
       </c>
       <c r="EW2">
-        <v>0.004300268274568743</v>
+        <v>0.004293411141433789</v>
       </c>
       <c r="EX2">
-        <v>0.01885441045005004</v>
+        <v>0.01893327220524156</v>
       </c>
       <c r="EY2">
-        <v>0.02420657229393689</v>
+        <v>0.02431695644033978</v>
       </c>
       <c r="EZ2">
-        <v>0.02300574932896278</v>
+        <v>0.02310906104138822</v>
       </c>
       <c r="FA2">
-        <v>0.008845421241994632</v>
+        <v>0.008865333495536266</v>
       </c>
       <c r="FB2">
-        <v>5.200835848300773E-06</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.002821380617705293</v>
+        <v>0.002805813345258959</v>
       </c>
       <c r="FD2">
-        <v>0.003652392093466151</v>
+        <v>0.003641719192603514</v>
       </c>
       <c r="FE2">
-        <v>0.006069738822956403</v>
+        <v>0.006073303262354232</v>
       </c>
       <c r="FF2">
-        <v>0.01175146515723045</v>
+        <v>0.01178849300926208</v>
       </c>
       <c r="FG2">
-        <v>0.005751899832227206</v>
+        <v>0.005753592309360024</v>
       </c>
       <c r="FH2">
-        <v>0.00314093140838456</v>
+        <v>0.003127246180115794</v>
       </c>
       <c r="FI2">
-        <v>0.008367470755935606</v>
+        <v>0.008384568045610177</v>
       </c>
       <c r="FJ2">
-        <v>0.004751392461410245</v>
+        <v>0.004747192294472748</v>
       </c>
       <c r="FK2">
-        <v>0.007426563483380216</v>
+        <v>0.007438119153050717</v>
       </c>
       <c r="FL2">
-        <v>0.007961201767785758</v>
+        <v>0.00797590627294539</v>
       </c>
       <c r="FM2">
-        <v>0.003657865693306496</v>
+        <v>0.003647225030063074</v>
       </c>
       <c r="FN2">
-        <v>8.037358765564391E-05</v>
+        <v>4.866272717244635E-05</v>
       </c>
       <c r="FO2">
-        <v>0.01730864049513742</v>
+        <v>0.01737839819730088</v>
       </c>
       <c r="FP2">
-        <v>0.04107249380198765</v>
+        <v>0.04128221242134265</v>
       </c>
       <c r="FQ2">
-        <v>0.02078701939367923</v>
+        <v>0.0208772635504043</v>
       </c>
       <c r="FR2">
-        <v>0.02178644736452768</v>
+        <v>0.02188257780802874</v>
       </c>
       <c r="FS2">
-        <v>0.0176999264837243</v>
+        <v>0.01777198872569196</v>
       </c>
       <c r="FT2">
-        <v>0.001275528162795089</v>
+        <v>0.001250856351424098</v>
       </c>
       <c r="FU2">
-        <v>0.0007707525775185039</v>
+        <v>0.0007431078116784309</v>
       </c>
       <c r="FV2">
-        <v>0.0007091956793140103</v>
+        <v>0.0006811883645294997</v>
       </c>
       <c r="FW2">
-        <v>0.002007256941451848</v>
+        <v>0.001986894760748655</v>
       </c>
       <c r="FX2">
-        <v>0.0002892643915626669</v>
+        <v>0.0002587838260207059</v>
       </c>
       <c r="FY2">
-        <v>0.0006349006814810647</v>
+        <v>0.0006064557947293662</v>
       </c>
       <c r="FZ2">
-        <v>0.00519393184850215</v>
+        <v>0.005192338086246208</v>
       </c>
       <c r="GA2">
-        <v>0.01608542153081657</v>
+        <v>0.01614797489427443</v>
       </c>
       <c r="GB2">
-        <v>0.008980095738066414</v>
+        <v>0.009000801178039102</v>
       </c>
       <c r="GC2">
-        <v>0.001505195256096104</v>
+        <v>0.001481876104860322</v>
       </c>
       <c r="GD2">
-        <v>0.006768247802582125</v>
+        <v>0.00677592621946469</v>
       </c>
       <c r="GE2">
-        <v>0.002596808524255666</v>
+        <v>0.002579918599469706</v>
       </c>
       <c r="GF2">
-        <v>0.0006252574217623416</v>
+        <v>0.0005967557395298125</v>
       </c>
       <c r="GG2">
-        <v>0.0008990789337754501</v>
+        <v>0.0008721899660077543</v>
       </c>
       <c r="GH2">
-        <v>2.049062140232464E-06</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>1.916652344094625E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.000892512373966985</v>
+        <v>0.0008655847314220248</v>
       </c>
       <c r="GK2">
-        <v>5.757658232059244E-05</v>
+        <v>2.573145532199796E-05</v>
       </c>
       <c r="GL2">
-        <v>0.0001062566569006803</v>
+        <v>7.469823878718146E-05</v>
       </c>
       <c r="GM2">
-        <v>0.0003176450907348518</v>
+        <v>0.0002873316777432533</v>
       </c>
       <c r="GN2">
-        <v>0.0002235486434794796</v>
+        <v>0.0001926810347986435</v>
       </c>
       <c r="GO2">
-        <v>0.004056449381680511</v>
+        <v>0.004048156239181392</v>
       </c>
       <c r="GP2">
-        <v>0.001548507454832763</v>
+        <v>0.001525443397540816</v>
       </c>
       <c r="GQ2">
-        <v>0.002156960437085261</v>
+        <v>0.00213747995844802</v>
       </c>
       <c r="GR2">
-        <v>0.001659690751589742</v>
+        <v>0.00163728152564983</v>
       </c>
       <c r="GS2">
-        <v>1.939577243425946E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.161677909238799E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.072359988910473E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.191814900143459E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.932989981769406E-05</v>
+        <v>1.315296689671626E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001880086676794625</v>
+        <v>0.0001820305115799609</v>
       </c>
       <c r="G3">
-        <v>0.0001522538543172458</v>
+        <v>0.0001462335635244291</v>
       </c>
       <c r="H3">
-        <v>6.004846964667937E-05</v>
+        <v>5.391952087918018E-05</v>
       </c>
       <c r="I3">
-        <v>5.294879497905892E-05</v>
+        <v>4.68114797124334E-05</v>
       </c>
       <c r="J3">
-        <v>0.0001408165832417379</v>
+        <v>0.000134782814378032</v>
       </c>
       <c r="K3">
-        <v>0.0001834094472469731</v>
+        <v>0.0001774258712690219</v>
       </c>
       <c r="L3">
-        <v>8.693888817532951E-05</v>
+        <v>8.084162799549932E-05</v>
       </c>
       <c r="M3">
-        <v>8.88372823538457E-05</v>
+        <v>8.274225930655743E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001336998325725117</v>
+        <v>0.0001276576770867359</v>
       </c>
       <c r="O3">
-        <v>7.775447731167014E-05</v>
+        <v>7.164639390837353E-05</v>
       </c>
       <c r="P3">
-        <v>2.805378863804807E-05</v>
+        <v>2.188713624563118E-05</v>
       </c>
       <c r="Q3">
-        <v>1.029613696820093E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.201654771245546E-11</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>6.192414582305925E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4.868171957780295E-05</v>
+        <v>4.253937584377747E-05</v>
       </c>
       <c r="U3">
-        <v>8.998402846168037E-05</v>
+        <v>8.389035677917409E-05</v>
       </c>
       <c r="V3">
-        <v>5.301267198506561E-05</v>
+        <v>4.687543199328577E-05</v>
       </c>
       <c r="W3">
-        <v>0.0002038759791715508</v>
+        <v>0.0001979165216538787</v>
       </c>
       <c r="X3">
-        <v>0.0002067776394444095</v>
+        <v>0.0002008216013423126</v>
       </c>
       <c r="Y3">
-        <v>0.0001446848936054958</v>
+        <v>0.0001386556832908494</v>
       </c>
       <c r="Z3">
-        <v>8.266881777379192E-05</v>
+        <v>7.656652559715114E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0001102184303644296</v>
+        <v>0.0001041486035922561</v>
       </c>
       <c r="AB3">
-        <v>0.0001088056802315812</v>
+        <v>0.0001027341886263969</v>
       </c>
       <c r="AC3">
-        <v>0.0002417953727373146</v>
+        <v>0.0002358806007282033</v>
       </c>
       <c r="AD3">
-        <v>0.0001306963622900793</v>
+        <v>0.0001246506674123355</v>
       </c>
       <c r="AE3">
-        <v>8.681097216330089E-05</v>
+        <v>8.0713561242873E-05</v>
       </c>
       <c r="AF3">
-        <v>0.000115718375881619</v>
+        <v>0.0001096550304331002</v>
       </c>
       <c r="AG3">
-        <v>0.0001121162705428937</v>
+        <v>0.0001060486802504095</v>
       </c>
       <c r="AH3">
-        <v>1.46475593773885E-05</v>
+        <v>8.465108626504821E-06</v>
       </c>
       <c r="AI3">
-        <v>6.170596580254261E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.273220213763078E-05</v>
+        <v>1.655927860591655E-05</v>
       </c>
       <c r="AK3">
-        <v>1.908716679486857E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.81509825278949E-05</v>
+        <v>4.200801335520183E-05</v>
       </c>
       <c r="AM3">
-        <v>7.07760166554481E-05</v>
+        <v>6.465970959575641E-05</v>
       </c>
       <c r="AN3">
-        <v>8.75694082346207E-05</v>
+        <v>8.147289108116457E-05</v>
       </c>
       <c r="AO3">
-        <v>0.0001553230946058629</v>
+        <v>0.0001493064207106359</v>
       </c>
       <c r="AP3">
-        <v>0.0001629866053265039</v>
+        <v>0.0001569789623740666</v>
       </c>
       <c r="AQ3">
-        <v>0.0001528096043695059</v>
+        <v>0.0001467899684915332</v>
       </c>
       <c r="AR3">
-        <v>0.0002056823093414097</v>
+        <v>0.0001997249804649072</v>
       </c>
       <c r="AS3">
-        <v>0.0002965849678894738</v>
+        <v>0.0002907347618106949</v>
       </c>
       <c r="AT3">
-        <v>0.0001889353477666032</v>
+        <v>0.0001829582836985681</v>
       </c>
       <c r="AU3">
-        <v>0.0001834094472469731</v>
+        <v>0.0001774258712690219</v>
       </c>
       <c r="AV3">
-        <v>0.0001144174567592866</v>
+        <v>0.0001083525782632396</v>
       </c>
       <c r="AW3">
-        <v>1.730832062759414E-05</v>
+        <v>1.112900540864923E-05</v>
       </c>
       <c r="AX3">
-        <v>2.088231196367569E-05</v>
+        <v>1.470720845819523E-05</v>
       </c>
       <c r="AY3">
-        <v>6.53291421432493E-06</v>
+        <v>3.409008884155538E-07</v>
       </c>
       <c r="AZ3">
-        <v>5.203429189306329E-05</v>
+        <v>4.589589894476527E-05</v>
       </c>
       <c r="BA3">
-        <v>0.0002417953727373146</v>
+        <v>0.0002358806007282033</v>
       </c>
       <c r="BB3">
-        <v>0.0002283428814723047</v>
+        <v>0.0002224122565880006</v>
       </c>
       <c r="BC3">
-        <v>0.0001377337429518419</v>
+        <v>0.0001316963411638402</v>
       </c>
       <c r="BD3">
-        <v>0.0001088056802315812</v>
+        <v>0.0001027341886263969</v>
       </c>
       <c r="BE3">
-        <v>0.0002750547958648763</v>
+        <v>0.0002691792178959945</v>
       </c>
       <c r="BF3">
-        <v>4.363892810360225E-05</v>
+        <v>3.74906417718609E-05</v>
       </c>
       <c r="BG3">
-        <v>1.787452268083715E-05</v>
+        <v>1.16958746937311E-05</v>
       </c>
       <c r="BH3">
-        <v>2.088231196367569E-05</v>
+        <v>1.470720845819523E-05</v>
       </c>
       <c r="BI3">
-        <v>7.060749663960126E-06</v>
+        <v>8.693583573734594E-07</v>
       </c>
       <c r="BJ3">
-        <v>9.784872920124033E-08</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>5.203429189306329E-05</v>
+        <v>4.589589894476527E-05</v>
       </c>
       <c r="BL3">
-        <v>0.0001906059679237005</v>
+        <v>0.0001846308725715207</v>
       </c>
       <c r="BM3">
-        <v>5.010486471162891E-05</v>
+        <v>4.396419806043837E-05</v>
       </c>
       <c r="BN3">
-        <v>1.791164468432793E-05</v>
+        <v>1.173304044305874E-05</v>
       </c>
       <c r="BO3">
-        <v>2.213436508141296E-05</v>
+        <v>1.596073703809183E-05</v>
       </c>
       <c r="BP3">
-        <v>2.430212228525878E-05</v>
+        <v>1.813104880106904E-05</v>
       </c>
       <c r="BQ3">
-        <v>1.022215096124363E-05</v>
+        <v>4.034485157927179E-06</v>
       </c>
       <c r="BR3">
-        <v>2.497219434826925E-05</v>
+        <v>1.880191049988568E-05</v>
       </c>
       <c r="BS3">
-        <v>2.299965616278091E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1.702863660129395E-05</v>
+        <v>1.08489917931395E-05</v>
       </c>
       <c r="BU3">
-        <v>7.480692103449563E-05</v>
+        <v>6.869536413020465E-05</v>
       </c>
       <c r="BV3">
-        <v>0.0003444884323940932</v>
+        <v>0.0003386946773940875</v>
       </c>
       <c r="BW3">
-        <v>0.0005051444475014392</v>
+        <v>0.000499540015037037</v>
       </c>
       <c r="BX3">
-        <v>0.0002374799323315106</v>
+        <v>0.000231560074860026</v>
       </c>
       <c r="BY3">
-        <v>8.320361782408202E-05</v>
+        <v>7.710195587408725E-05</v>
       </c>
       <c r="BZ3">
-        <v>0.0001392191330915211</v>
+        <v>0.0001331834817379953</v>
       </c>
       <c r="CA3">
-        <v>6.964482654907624E-05</v>
+        <v>6.352718645632604E-05</v>
       </c>
       <c r="CB3">
-        <v>3.525789731548901E-05</v>
+        <v>2.909973449080268E-05</v>
       </c>
       <c r="CC3">
-        <v>2.112520198651594E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.703708454244194E-05</v>
+        <v>2.086923403119202E-05</v>
       </c>
       <c r="CE3">
-        <v>1.470913638317891E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.639200554142812E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.110362704413355E-05</v>
+        <v>4.917000002341059E-06</v>
       </c>
       <c r="CH3">
-        <v>5.804126545793121E-05</v>
+        <v>5.19099513324575E-05</v>
       </c>
       <c r="CI3">
-        <v>1.791164468432793E-05</v>
+        <v>1.173304044305874E-05</v>
       </c>
       <c r="CJ3">
-        <v>1.21780851451706E-05</v>
+        <v>5.992724281503795E-06</v>
       </c>
       <c r="CK3">
-        <v>0.0001962384484533528</v>
+        <v>0.0001902699906086133</v>
       </c>
       <c r="CL3">
-        <v>8.998402846168037E-05</v>
+        <v>8.389035677917409E-05</v>
       </c>
       <c r="CM3">
-        <v>3.45123732453834E-05</v>
+        <v>2.835333186966857E-05</v>
       </c>
       <c r="CN3">
-        <v>4.057340381533457E-05</v>
+        <v>3.442150496506523E-05</v>
       </c>
       <c r="CO3">
-        <v>0.0005297096098114331</v>
+        <v>0.0005241341257733498</v>
       </c>
       <c r="CP3">
-        <v>0.1362968528167234</v>
+        <v>0.1364512699715318</v>
       </c>
       <c r="CQ3">
-        <v>0.006816478640990013</v>
+        <v>0.006818311700310491</v>
       </c>
       <c r="CR3">
-        <v>0.1224436875140361</v>
+        <v>0.1225817796256801</v>
       </c>
       <c r="CS3">
-        <v>0.009780625919724664</v>
+        <v>0.009785952031442448</v>
       </c>
       <c r="CT3">
-        <v>0.02586363543209623</v>
+        <v>0.02588791431155809</v>
       </c>
       <c r="CU3">
-        <v>0.0002978999980131331</v>
+        <v>0.0002920513416107684</v>
       </c>
       <c r="CV3">
-        <v>0.03567376335459513</v>
+        <v>0.03570960282387767</v>
       </c>
       <c r="CW3">
-        <v>0.01725193162229157</v>
+        <v>0.01726606217584077</v>
       </c>
       <c r="CX3">
-        <v>0.003562148734967933</v>
+        <v>0.00356014678077157</v>
       </c>
       <c r="CY3">
-        <v>0.0002076230095239041</v>
+        <v>0.0002016679676347837</v>
       </c>
       <c r="CZ3">
-        <v>0.01252810217808458</v>
+        <v>0.0125366660096686</v>
       </c>
       <c r="DA3">
-        <v>0.04673034739430497</v>
+        <v>0.04677921631987094</v>
       </c>
       <c r="DB3">
-        <v>0.004416436415301182</v>
+        <v>0.004415441182886555</v>
       </c>
       <c r="DC3">
-        <v>0.02761326059662286</v>
+        <v>0.02763960129413917</v>
       </c>
       <c r="DD3">
-        <v>0.02189173005859668</v>
+        <v>0.02191132830910117</v>
       </c>
       <c r="DE3">
-        <v>0.002757622659314036</v>
+        <v>0.002754672624110558</v>
       </c>
       <c r="DF3">
-        <v>0.0003106986092166551</v>
+        <v>0.0003048650351348847</v>
       </c>
       <c r="DG3">
-        <v>0.0005023114472350371</v>
+        <v>0.0004967036762663563</v>
       </c>
       <c r="DH3">
-        <v>3.415705621197103E-09</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>6.908265649621237E-05</v>
+        <v>6.296435392307027E-05</v>
       </c>
       <c r="DJ3">
-        <v>0.003650801143304394</v>
+        <v>0.003648903660134046</v>
       </c>
       <c r="DK3">
-        <v>0.0005469364514313652</v>
+        <v>0.0005413812680918505</v>
       </c>
       <c r="DL3">
-        <v>1.099245203367917E-06</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.02041284191952891</v>
+        <v>0.02043069739773709</v>
       </c>
       <c r="DN3">
-        <v>0.006455432607038919</v>
+        <v>0.006456840197381023</v>
       </c>
       <c r="DO3">
-        <v>0.02861444369076947</v>
+        <v>0.02864196421664054</v>
       </c>
       <c r="DP3">
-        <v>0.002969973779282549</v>
+        <v>0.002967273985891953</v>
       </c>
       <c r="DQ3">
-        <v>0.00117875331084449</v>
+        <v>0.001173942682072579</v>
       </c>
       <c r="DR3">
-        <v>0.00354203403307644</v>
+        <v>0.003540008375028326</v>
       </c>
       <c r="DS3">
-        <v>0.004793490450757593</v>
+        <v>0.004792939551697085</v>
       </c>
       <c r="DT3">
-        <v>0.003083368089945624</v>
+        <v>0.003080801924283833</v>
       </c>
       <c r="DU3">
-        <v>0.0005173541486495828</v>
+        <v>0.0005117641045140507</v>
       </c>
       <c r="DV3">
-        <v>0.02684248452414266</v>
+        <v>0.02686791691280836</v>
       </c>
       <c r="DW3">
-        <v>0.005185987787666221</v>
+        <v>0.005185899420873749</v>
       </c>
       <c r="DX3">
-        <v>0.001420527233579788</v>
+        <v>0.001416001519456509</v>
       </c>
       <c r="DY3">
-        <v>0.001342755526266497</v>
+        <v>0.001338138163306934</v>
       </c>
       <c r="DZ3">
-        <v>0.001327955724874793</v>
+        <v>0.001323320921323764</v>
       </c>
       <c r="EA3">
-        <v>0.0009600608902796701</v>
+        <v>0.0009549925468896605</v>
       </c>
       <c r="EB3">
-        <v>0.003227443303493788</v>
+        <v>0.003225046920984706</v>
       </c>
       <c r="EC3">
-        <v>0.002355214421473433</v>
+        <v>0.002351790174657743</v>
       </c>
       <c r="ED3">
-        <v>0.001242155916806577</v>
+        <v>0.001237420003831125</v>
       </c>
       <c r="EE3">
-        <v>0.0006937205952342649</v>
+        <v>0.0006883383873433981</v>
       </c>
       <c r="EF3">
-        <v>3.687934346796229E-05</v>
+        <v>3.072309141080449E-05</v>
       </c>
       <c r="EG3">
-        <v>0.03641275342408632</v>
+        <v>0.03644946374450785</v>
       </c>
       <c r="EH3">
-        <v>0.02241077810740555</v>
+        <v>0.02243098802185946</v>
       </c>
       <c r="EI3">
-        <v>0.007373568693376176</v>
+        <v>0.007376058246642472</v>
       </c>
       <c r="EJ3">
-        <v>0.0003345386714584639</v>
+        <v>0.0003287331913203255</v>
       </c>
       <c r="EK3">
-        <v>1.019411295860707E-05</v>
+        <v>4.006414114350636E-06</v>
       </c>
       <c r="EL3">
-        <v>1.907257179349613E-05</v>
+        <v>1.289533562838526E-05</v>
       </c>
       <c r="EM3">
-        <v>0.001301847522419699</v>
+        <v>0.00129718195207114</v>
       </c>
       <c r="EN3">
-        <v>0.0005487218115992523</v>
+        <v>0.0005431687321891406</v>
       </c>
       <c r="EO3">
-        <v>0.001010912695061538</v>
+        <v>0.001005904277175188</v>
       </c>
       <c r="EP3">
-        <v>0.004227114797498255</v>
+        <v>0.0042258964620227</v>
       </c>
       <c r="EQ3">
-        <v>0.008226516773583454</v>
+        <v>0.008230011470000942</v>
       </c>
       <c r="ER3">
-        <v>0.009028832849029535</v>
+        <v>0.009033273022114407</v>
       </c>
       <c r="ES3">
-        <v>0.006369650598972378</v>
+        <v>0.006370957100866189</v>
       </c>
       <c r="ET3">
-        <v>0.01178152610788003</v>
+        <v>0.01178921014872271</v>
       </c>
       <c r="EU3">
-        <v>0.004918924062552787</v>
+        <v>0.004918520978744757</v>
       </c>
       <c r="EV3">
-        <v>0.0003854759662483707</v>
+        <v>0.0003797305123582378</v>
       </c>
       <c r="EW3">
-        <v>0.001933736881839641</v>
+        <v>0.00192981595149517</v>
       </c>
       <c r="EX3">
-        <v>0.003573721136056148</v>
+        <v>0.003571732819172497</v>
       </c>
       <c r="EY3">
-        <v>0.01063287199986593</v>
+        <v>0.01063920242747405</v>
       </c>
       <c r="EZ3">
-        <v>0.01787394468078279</v>
+        <v>0.01788880823576573</v>
       </c>
       <c r="FA3">
-        <v>0.0260688834513968</v>
+        <v>0.0260934042021351</v>
       </c>
       <c r="FB3">
-        <v>0.01526359443531758</v>
+        <v>0.01527538186441157</v>
       </c>
       <c r="FC3">
-        <v>0.00185248637419922</v>
+        <v>0.001848469695481336</v>
       </c>
       <c r="FD3">
-        <v>0.002414979027093419</v>
+        <v>0.002411625208930324</v>
       </c>
       <c r="FE3">
-        <v>0.003999140376060599</v>
+        <v>0.003997653387740079</v>
       </c>
       <c r="FF3">
-        <v>0.003384474018260228</v>
+        <v>0.003382262686109001</v>
       </c>
       <c r="FG3">
-        <v>0.007919244744689019</v>
+        <v>0.00792237734125241</v>
       </c>
       <c r="FH3">
-        <v>0.004278470402327498</v>
+        <v>0.004277312586050786</v>
       </c>
       <c r="FI3">
-        <v>0.0009726507914635658</v>
+        <v>0.0009675972844431347</v>
       </c>
       <c r="FJ3">
-        <v>0.003447596324195956</v>
+        <v>0.003445459377526063</v>
       </c>
       <c r="FK3">
-        <v>0.006865590045608222</v>
+        <v>0.00686748097948536</v>
       </c>
       <c r="FL3">
-        <v>0.007111989668778498</v>
+        <v>0.007114170968387659</v>
       </c>
       <c r="FM3">
-        <v>0.005708945936842778</v>
+        <v>0.005709473841795566</v>
       </c>
       <c r="FN3">
-        <v>0.005698750835884078</v>
+        <v>0.00569926672658167</v>
       </c>
       <c r="FO3">
-        <v>0.002992086181361897</v>
+        <v>0.002989412445981187</v>
       </c>
       <c r="FP3">
-        <v>0.004681385440215758</v>
+        <v>0.004680702432781745</v>
       </c>
       <c r="FQ3">
-        <v>0.03315311311756488</v>
+        <v>0.03318598216651224</v>
       </c>
       <c r="FR3">
-        <v>0.02235019010170814</v>
+        <v>0.02237032861718668</v>
       </c>
       <c r="FS3">
-        <v>0.01441402035542757</v>
+        <v>0.01442480661740759</v>
       </c>
       <c r="FT3">
-        <v>0.0218717590567187</v>
+        <v>0.02189133377271244</v>
       </c>
       <c r="FU3">
-        <v>0.003634505341772013</v>
+        <v>0.003632588655072535</v>
       </c>
       <c r="FV3">
-        <v>0.0001321433824261503</v>
+        <v>0.0001260993927663596</v>
       </c>
       <c r="FW3">
-        <v>0.0003866298363568752</v>
+        <v>0.00038088574222669</v>
       </c>
       <c r="FX3">
-        <v>4.962820466680602E-05</v>
+        <v>4.348697630313776E-05</v>
       </c>
       <c r="FY3">
-        <v>0.001362615928134077</v>
+        <v>0.001358021969350431</v>
       </c>
       <c r="FZ3">
-        <v>2.115152898899161E-05</v>
+        <v>1.497674273804922E-05</v>
       </c>
       <c r="GA3">
-        <v>0.0002610574845486341</v>
+        <v>0.0002551654116700021</v>
       </c>
       <c r="GB3">
-        <v>0.01129336206197535</v>
+        <v>0.0113004708336325</v>
       </c>
       <c r="GC3">
-        <v>0.01303427972568317</v>
+        <v>0.01304344005417838</v>
       </c>
       <c r="GD3">
-        <v>0.001697431859618613</v>
+        <v>0.001693232459364672</v>
       </c>
       <c r="GE3">
-        <v>0.004838773055015759</v>
+        <v>0.004838275518522791</v>
       </c>
       <c r="GF3">
-        <v>0.004425412416145243</v>
+        <v>0.004424427761356597</v>
       </c>
       <c r="GG3">
-        <v>0.0002106784298112217</v>
+        <v>0.0002047269885337293</v>
       </c>
       <c r="GH3">
-        <v>0.001091136702605431</v>
+        <v>0.00108622282342972</v>
       </c>
       <c r="GI3">
-        <v>2.364116522310545E-05</v>
+        <v>1.746931284453788E-05</v>
       </c>
       <c r="GJ3">
-        <v>5.449732812467579E-05</v>
+        <v>4.836183770240109E-05</v>
       </c>
       <c r="GK3">
-        <v>0.0006583936619122841</v>
+        <v>0.0006529698235565564</v>
       </c>
       <c r="GL3">
-        <v>0.001318633123998139</v>
+        <v>0.001313987334375812</v>
       </c>
       <c r="GM3">
-        <v>4.100450385587322E-05</v>
+        <v>3.485311302861639E-05</v>
       </c>
       <c r="GN3">
-        <v>1.155803308686378E-05</v>
+        <v>5.371941532672838E-06</v>
       </c>
       <c r="GO3">
-        <v>1.107440404138555E-05</v>
+        <v>4.887742562208479E-06</v>
       </c>
       <c r="GP3">
-        <v>0.003260763306627047</v>
+        <v>0.003258406189547742</v>
       </c>
       <c r="GQ3">
-        <v>0.001557328546443948</v>
+        <v>0.001552964043660364</v>
       </c>
       <c r="GR3">
-        <v>0.001352344727168221</v>
+        <v>0.001347738664450532</v>
       </c>
       <c r="GS3">
-        <v>0.002255826712127474</v>
+        <v>0.002252285343440383</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.018014511117295E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.124336418876238E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.346836012328557E-08</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.590538309542624E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6.998503025780002E-05</v>
+        <v>4.623309533091085E-05</v>
       </c>
       <c r="G4">
-        <v>0.000120404920443529</v>
+        <v>9.686696875650126E-05</v>
       </c>
       <c r="H4">
-        <v>5.756158321203645E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.198741526517611E-08</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.394732008821343E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.856740110523217E-05</v>
+        <v>4.639688753187979E-06</v>
       </c>
       <c r="L4">
-        <v>4.077111615018632E-05</v>
+        <v>1.689519666151501E-05</v>
       </c>
       <c r="M4">
-        <v>0.0001572453905792362</v>
+        <v>0.0001338637907432065</v>
       </c>
       <c r="N4">
-        <v>0.0001331018704903001</v>
+        <v>0.0001096178049679855</v>
       </c>
       <c r="O4">
-        <v>0.0001488721205483921</v>
+        <v>0.0001254549843507631</v>
       </c>
       <c r="P4">
-        <v>0.0003480714812821719</v>
+        <v>0.0003254997520148461</v>
       </c>
       <c r="Q4">
-        <v>0.0001428173705260885</v>
+        <v>0.0001193745378221493</v>
       </c>
       <c r="R4">
-        <v>0.0001245665304588589</v>
+        <v>0.0001010462407459219</v>
       </c>
       <c r="S4">
-        <v>0.0001331018704903001</v>
+        <v>0.0001096178049679855</v>
       </c>
       <c r="T4">
-        <v>9.851722036290248E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.545128005691704E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>7.507695027655685E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.06327700760038E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002234663408231707</v>
+        <v>0.0002003657843100777</v>
       </c>
       <c r="Y4">
-        <v>0.0004787547817635628</v>
+        <v>0.0004567376756009241</v>
       </c>
       <c r="Z4">
-        <v>0.0001585653105840984</v>
+        <v>0.0001351893125206619</v>
       </c>
       <c r="AA4">
-        <v>5.369530519779446E-05</v>
+        <v>2.987423628168095E-05</v>
       </c>
       <c r="AB4">
-        <v>0.0002665906809820255</v>
+        <v>0.0002436731452170953</v>
       </c>
       <c r="AC4">
-        <v>0.0003890560014331443</v>
+        <v>0.0003666582114658401</v>
       </c>
       <c r="AD4">
-        <v>7.609958028032386E-07</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>2.635939609709867E-05</v>
+        <v>2.422312918114347E-06</v>
       </c>
       <c r="AF4">
-        <v>9.378425634546793E-05</v>
+        <v>7.013332591275108E-05</v>
       </c>
       <c r="AG4">
-        <v>2.263951508339594E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.157870007948828E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001223908804508446</v>
+        <v>9.886135722637466E-05</v>
       </c>
       <c r="AJ4">
-        <v>0.0001501564805531232</v>
+        <v>0.0001267447952105824</v>
       </c>
       <c r="AK4">
-        <v>5.732868021117851E-07</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.074951407643385E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.513097716624651E-07</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>2.054333707567437E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>3.346836012328557E-08</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>3.25853031200327E-05</v>
+        <v>8.674642841830913E-06</v>
       </c>
       <c r="AQ4">
-        <v>6.383475023514457E-05</v>
+        <v>4.005671337030084E-05</v>
       </c>
       <c r="AR4">
-        <v>0.000147955890545017</v>
+        <v>0.0001245348658449765</v>
       </c>
       <c r="AS4">
-        <v>0.0003781608213930103</v>
+        <v>0.0003557167920167095</v>
       </c>
       <c r="AT4">
-        <v>0.00064964180239305</v>
+        <v>0.0006283499449009235</v>
       </c>
       <c r="AU4">
-        <v>0.0003169936811676923</v>
+        <v>0.0002942900569610526</v>
       </c>
       <c r="AV4">
-        <v>0.0001086054104000638</v>
+        <v>8.501738130551738E-05</v>
       </c>
       <c r="AW4">
-        <v>0.0001305115704807583</v>
+        <v>0.0001070165116622225</v>
       </c>
       <c r="AX4">
-        <v>2.321690008552282E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>8.010938529509456E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.75899680647952E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>8.113243529886311E-05</v>
+        <v>5.742781023000709E-05</v>
       </c>
       <c r="BB4">
-        <v>5.705283021016239E-05</v>
+        <v>3.324601071183649E-05</v>
       </c>
       <c r="BC4">
-        <v>8.524789031402299E-05</v>
+        <v>6.15607313363148E-05</v>
       </c>
       <c r="BD4">
-        <v>5.876977021648698E-05</v>
+        <v>3.497023745329375E-05</v>
       </c>
       <c r="BE4">
-        <v>0.000193095420711295</v>
+        <v>0.0001698659692748063</v>
       </c>
       <c r="BF4">
-        <v>0.0001223908804508446</v>
+        <v>9.886135722637466E-05</v>
       </c>
       <c r="BG4">
-        <v>3.494335012871891E-05</v>
+        <v>1.104269745935572E-05</v>
       </c>
       <c r="BH4">
-        <v>0.0002123650607822776</v>
+        <v>0.0001892173901667736</v>
       </c>
       <c r="BI4">
-        <v>0.0003188665711745914</v>
+        <v>0.0002961708955586785</v>
       </c>
       <c r="BJ4">
-        <v>3.766171713873241E-05</v>
+        <v>1.377260128505431E-05</v>
       </c>
       <c r="BK4">
-        <v>1.822647606713987E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0002765049310185461</v>
+        <v>0.0002536294715718267</v>
       </c>
       <c r="BM4">
-        <v>0.0001838042206770695</v>
+        <v>0.0001605353371617285</v>
       </c>
       <c r="BN4">
-        <v>3.346836012328557E-08</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.515706505583325E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>2.192947608078041E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>3.565979213135802E-05</v>
+        <v>1.176218005927367E-05</v>
       </c>
       <c r="BR4">
-        <v>7.510887427667445E-05</v>
+        <v>5.137868506838292E-05</v>
       </c>
       <c r="BS4">
-        <v>1.092975304026133E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>4.987324018371533E-05</v>
+        <v>2.603595033075207E-05</v>
       </c>
       <c r="BU4">
-        <v>9.204682033906783E-05</v>
+        <v>6.838851618569566E-05</v>
       </c>
       <c r="BV4">
-        <v>0.0001130921964165915</v>
+        <v>8.952320935099131E-05</v>
       </c>
       <c r="BW4">
-        <v>0.0002196639108091639</v>
+        <v>0.0001965472166906389</v>
       </c>
       <c r="BX4">
-        <v>6.504218023959233E-05</v>
+        <v>4.126926773704503E-05</v>
       </c>
       <c r="BY4">
-        <v>8.086396029787415E-05</v>
+        <v>5.715819581458622E-05</v>
       </c>
       <c r="BZ4">
-        <v>0.0001806940406656127</v>
+        <v>0.000157411957470682</v>
       </c>
       <c r="CA4">
-        <v>0.0001658477406109242</v>
+        <v>0.0001425026493575872</v>
       </c>
       <c r="CB4">
-        <v>5.057027018628293E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.103016211430411E-05</v>
+        <v>7.112901779862186E-06</v>
       </c>
       <c r="CD4">
-        <v>0.0001544288405688611</v>
+        <v>0.0001310352872261055</v>
       </c>
       <c r="CE4">
-        <v>1.68421210620404E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.316451523267567E-07</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>9.385261034571973E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>5.256422819362797E-05</v>
+        <v>2.873835895920768E-05</v>
       </c>
       <c r="CI4">
-        <v>3.022411111133491E-05</v>
+        <v>6.303429876837993E-06</v>
       </c>
       <c r="CJ4">
-        <v>0.0001721010206339591</v>
+        <v>0.0001487824684530826</v>
       </c>
       <c r="CK4">
-        <v>0.0001086550404002466</v>
+        <v>8.506722193662768E-05</v>
       </c>
       <c r="CL4">
-        <v>0.0003571046713154469</v>
+        <v>0.0003345712791262561</v>
       </c>
       <c r="CM4">
-        <v>0.000517351401905739</v>
+        <v>0.0004954981007374252</v>
       </c>
       <c r="CN4">
-        <v>0.00487353101795236</v>
+        <v>0.004870165448991043</v>
       </c>
       <c r="CO4">
-        <v>0.1108330004082695</v>
+        <v>0.1112793294037076</v>
       </c>
       <c r="CP4">
-        <v>0.00232960260858143</v>
+        <v>0.002315440545597467</v>
       </c>
       <c r="CQ4">
-        <v>0.07303651026904059</v>
+        <v>0.07332243004134097</v>
       </c>
       <c r="CR4">
-        <v>0.01834460206757501</v>
+        <v>0.01839840805168498</v>
       </c>
       <c r="CS4">
-        <v>0.008801623032422056</v>
+        <v>0.00881492838147809</v>
       </c>
       <c r="CT4">
-        <v>0.001162076304280677</v>
+        <v>0.001142959231273935</v>
       </c>
       <c r="CU4">
-        <v>0.03981803714667553</v>
+        <v>0.039962976911368</v>
       </c>
       <c r="CV4">
-        <v>0.002791931410284485</v>
+        <v>0.002779731481976049</v>
       </c>
       <c r="CW4">
-        <v>0.05637145820765246</v>
+        <v>0.05658665109380891</v>
       </c>
       <c r="CX4">
-        <v>0.002845422610481528</v>
+        <v>0.002833449700127317</v>
       </c>
       <c r="CY4">
-        <v>0.0004453499616405113</v>
+        <v>0.000423191084609063</v>
       </c>
       <c r="CZ4">
-        <v>0.01914492807052312</v>
+        <v>0.0192021306576488</v>
       </c>
       <c r="DA4">
-        <v>0.03582257013195764</v>
+        <v>0.03595055303749355</v>
       </c>
       <c r="DB4">
-        <v>0.006134293022596559</v>
+        <v>0.00613627815823722</v>
       </c>
       <c r="DC4">
-        <v>0.0513791071892624</v>
+        <v>0.05157311241631238</v>
       </c>
       <c r="DD4">
-        <v>0.002690866109912196</v>
+        <v>0.00267823725801167</v>
       </c>
       <c r="DE4">
-        <v>7.71518102841999E-06</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.000250393820922362</v>
+        <v>0.0002274075452895268</v>
       </c>
       <c r="DG4">
-        <v>0.002859896310534843</v>
+        <v>0.002847984826915573</v>
       </c>
       <c r="DH4">
-        <v>0.0001730890806375988</v>
+        <v>0.0001497747218074015</v>
       </c>
       <c r="DI4">
-        <v>0.0003055782011256417</v>
+        <v>0.0002828261293441466</v>
       </c>
       <c r="DJ4">
-        <v>0.006727191024780586</v>
+        <v>0.006731692433958285</v>
       </c>
       <c r="DK4">
-        <v>0.0008278370030494578</v>
+        <v>0.0008073014103215693</v>
       </c>
       <c r="DL4">
-        <v>0.002530767009322448</v>
+        <v>0.002517458692946357</v>
       </c>
       <c r="DM4">
-        <v>0.01720173506336509</v>
+        <v>0.01725069069212144</v>
       </c>
       <c r="DN4">
-        <v>0.004654127017144153</v>
+        <v>0.004649830292268801</v>
       </c>
       <c r="DO4">
-        <v>0.01313303604837745</v>
+        <v>0.01316472401958751</v>
       </c>
       <c r="DP4">
-        <v>7.884778029044726E-05</v>
+        <v>5.513345909018624E-05</v>
       </c>
       <c r="DQ4">
-        <v>0.0002468363009092574</v>
+        <v>0.0002238349270749888</v>
       </c>
       <c r="DR4">
-        <v>0.00572356162108357</v>
+        <v>0.005723803602669654</v>
       </c>
       <c r="DS4">
-        <v>0.0005639738020774795</v>
+        <v>0.0005423183675090751</v>
       </c>
       <c r="DT4">
-        <v>0.004646963017117763</v>
+        <v>0.004642635888052113</v>
       </c>
       <c r="DU4">
-        <v>0.006195687022822713</v>
+        <v>0.006197932716093073</v>
       </c>
       <c r="DV4">
-        <v>0.012691505046751</v>
+        <v>0.01272131914965475</v>
       </c>
       <c r="DW4">
-        <v>0.002111130607776656</v>
+        <v>0.002096041344309332</v>
       </c>
       <c r="DX4">
-        <v>0.001845887206799594</v>
+        <v>0.001829672243889374</v>
       </c>
       <c r="DY4">
-        <v>0.00161351300594361</v>
+        <v>0.001596311841274992</v>
       </c>
       <c r="DZ4">
-        <v>0.003420111512598478</v>
+        <v>0.003410577595917883</v>
       </c>
       <c r="EA4">
-        <v>0.000372333361371544</v>
+        <v>0.0003498646001132229</v>
       </c>
       <c r="EB4">
-        <v>0.002092523307708114</v>
+        <v>0.002077355074406879</v>
       </c>
       <c r="EC4">
-        <v>0.001191149804387773</v>
+        <v>0.001172156120022381</v>
       </c>
       <c r="ED4">
-        <v>0.0001142119954207165</v>
+        <v>9.064776080931666E-05</v>
       </c>
       <c r="EE4">
-        <v>0.0006926235025513793</v>
+        <v>0.0006715140604397852</v>
       </c>
       <c r="EF4">
-        <v>0.02971553210946148</v>
+        <v>0.02981759659714291</v>
       </c>
       <c r="EG4">
-        <v>0.03269506612043703</v>
+        <v>0.03280977582290567</v>
       </c>
       <c r="EH4">
-        <v>0.005364856719762229</v>
+        <v>0.005363576349025526</v>
       </c>
       <c r="EI4">
-        <v>0.001283730004728806</v>
+        <v>0.001265129232984663</v>
       </c>
       <c r="EJ4">
-        <v>0.0002286717208423455</v>
+        <v>0.0002055932560886179</v>
       </c>
       <c r="EK4">
-        <v>0.0002152278807928232</v>
+        <v>0.0001920923600550508</v>
       </c>
       <c r="EL4">
-        <v>0.0025209268092862</v>
+        <v>0.0025075767308619</v>
       </c>
       <c r="EM4">
-        <v>0.004838924017824879</v>
+        <v>0.004835411575913585</v>
       </c>
       <c r="EN4">
-        <v>3.649426213443192E-06</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002286246508421721</v>
+        <v>0.002271900441094517</v>
       </c>
       <c r="EP4">
-        <v>0.01000934403687087</v>
+        <v>0.01002777498323441</v>
       </c>
       <c r="EQ4">
-        <v>0.009914261036520622</v>
+        <v>0.009932288448318819</v>
       </c>
       <c r="ER4">
-        <v>0.007797192328722091</v>
+        <v>0.007806234849449814</v>
       </c>
       <c r="ES4">
-        <v>0.01386994505109196</v>
+        <v>0.01390476048202681</v>
       </c>
       <c r="ET4">
-        <v>0.00913397403364632</v>
+        <v>0.009148689888432359</v>
       </c>
       <c r="EU4">
-        <v>0.001035807903815549</v>
+        <v>0.001016154944647133</v>
       </c>
       <c r="EV4">
-        <v>0.001227766204522655</v>
+        <v>0.001208927921049729</v>
       </c>
       <c r="EW4">
-        <v>0.006751887524871559</v>
+        <v>0.006756493746596117</v>
       </c>
       <c r="EX4">
-        <v>0.01493421605501235</v>
+        <v>0.01497354827796461</v>
       </c>
       <c r="EY4">
-        <v>0.02026319707464243</v>
+        <v>0.02032514562261127</v>
       </c>
       <c r="EZ4">
-        <v>0.03283119612093848</v>
+        <v>0.03294648356243912</v>
       </c>
       <c r="FA4">
-        <v>0.02044560207531435</v>
+        <v>0.02050832475454104</v>
       </c>
       <c r="FB4">
-        <v>0.007429320027366979</v>
+        <v>0.007436801289103275</v>
       </c>
       <c r="FC4">
-        <v>0.001174071504324863</v>
+        <v>0.00115500533923876</v>
       </c>
       <c r="FD4">
-        <v>0.004155189715306245</v>
+        <v>0.004148775488390691</v>
       </c>
       <c r="FE4">
-        <v>0.001791365206598754</v>
+        <v>0.001774918850994029</v>
       </c>
       <c r="FF4">
-        <v>0.008203014030216994</v>
+        <v>0.008213778868113043</v>
       </c>
       <c r="FG4">
-        <v>0.00995174003665868</v>
+        <v>0.009969926510244731</v>
       </c>
       <c r="FH4">
-        <v>0.002821403010393048</v>
+        <v>0.002809328160272047</v>
       </c>
       <c r="FI4">
-        <v>0.002505845209230645</v>
+        <v>0.002492431124129014</v>
       </c>
       <c r="FJ4">
-        <v>0.005790136021328808</v>
+        <v>0.005790660546288228</v>
       </c>
       <c r="FK4">
-        <v>0.01621093005971531</v>
+        <v>0.01625568068794566</v>
       </c>
       <c r="FL4">
-        <v>0.01224365204510127</v>
+        <v>0.01227156544897688</v>
       </c>
       <c r="FM4">
-        <v>0.009021712533232787</v>
+        <v>0.009035951947481536</v>
       </c>
       <c r="FN4">
-        <v>0.008408635030974427</v>
+        <v>0.008420272529397177</v>
       </c>
       <c r="FO4">
-        <v>0.0002011233007408669</v>
+        <v>0.0001779279198224142</v>
       </c>
       <c r="FP4">
-        <v>0.02666093209820941</v>
+        <v>0.02675003278917331</v>
       </c>
       <c r="FQ4">
-        <v>0.02690298709910106</v>
+        <v>0.02699311507737408</v>
       </c>
       <c r="FR4">
-        <v>0.0178053530655886</v>
+        <v>0.0178568704638228</v>
       </c>
       <c r="FS4">
-        <v>0.02517187209272425</v>
+        <v>0.02525465317681974</v>
       </c>
       <c r="FT4">
-        <v>0.008569880031568399</v>
+        <v>0.008582201857694193</v>
       </c>
       <c r="FU4">
-        <v>0.002898907510678547</v>
+        <v>0.002887161591541209</v>
       </c>
       <c r="FV4">
-        <v>0.0007795151328714572</v>
+        <v>0.0007587744609516315</v>
       </c>
       <c r="FW4">
-        <v>0.0001770695506522614</v>
+        <v>0.0001537720850335878</v>
       </c>
       <c r="FX4">
-        <v>5.480316420187541E-05</v>
+        <v>3.09867970663118E-05</v>
       </c>
       <c r="FY4">
-        <v>9.204682033906783E-05</v>
+        <v>6.838851618569566E-05</v>
       </c>
       <c r="FZ4">
-        <v>0.0004126436315200327</v>
+        <v>0.0003903459480283289</v>
       </c>
       <c r="GA4">
-        <v>0.004174604015377761</v>
+        <v>0.004168272183223752</v>
       </c>
       <c r="GB4">
-        <v>0.01121754804132147</v>
+        <v>0.01124110663485626</v>
       </c>
       <c r="GC4">
-        <v>0.00160145170589918</v>
+        <v>0.001584199352779915</v>
       </c>
       <c r="GD4">
-        <v>0.002026753307465841</v>
+        <v>0.002011305944684441</v>
       </c>
       <c r="GE4">
-        <v>0.006160219022692062</v>
+        <v>0.006162314188907495</v>
       </c>
       <c r="GF4">
-        <v>0.0006182045322772462</v>
+        <v>0.00059677925424638</v>
       </c>
       <c r="GG4">
-        <v>0.0008330312030685915</v>
+        <v>0.0008125176546518765</v>
       </c>
       <c r="GH4">
-        <v>0.0002740094010093535</v>
+        <v>0.0002511233504725985</v>
       </c>
       <c r="GI4">
-        <v>4.308445615870786E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>8.706524032071746E-05</v>
+        <v>6.338579422062489E-05</v>
       </c>
       <c r="GK4">
-        <v>0.002109760207771608</v>
+        <v>0.002094665128293342</v>
       </c>
       <c r="GL4">
-        <v>2.762361210175559E-06</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>1.141957204206565E-05</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>1.111286904093587E-07</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0007258764026738712</v>
+        <v>0.0007049080866789107</v>
       </c>
       <c r="GP4">
-        <v>0.0009643178035522047</v>
+        <v>0.0009443614386600549</v>
       </c>
       <c r="GQ4">
-        <v>0.0007097568026144923</v>
+        <v>0.0006887200746449465</v>
       </c>
       <c r="GR4">
-        <v>0.001454320905357202</v>
+        <v>0.001436444125543087</v>
       </c>
       <c r="GS4">
-        <v>0.001431466505273015</v>
+        <v>0.001413492730829259</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002017737058858714</v>
+        <v>0.0001991033387541061</v>
       </c>
       <c r="C5">
-        <v>0.0003357786531535353</v>
+        <v>0.0003331784902650113</v>
       </c>
       <c r="D5">
-        <v>0.0001663856366074276</v>
+        <v>0.0001636967299166824</v>
       </c>
       <c r="E5">
-        <v>0.0001155459736440389</v>
+        <v>0.0001128304324137655</v>
       </c>
       <c r="F5">
-        <v>0.0001407435271302655</v>
+        <v>0.0001380411867198878</v>
       </c>
       <c r="G5">
-        <v>0.0003345422931787445</v>
+        <v>0.000331941482569982</v>
       </c>
       <c r="H5">
-        <v>0.000186716846192878</v>
+        <v>0.0001840385908789083</v>
       </c>
       <c r="I5">
-        <v>8.854456819459261E-05</v>
+        <v>8.581488111914935E-05</v>
       </c>
       <c r="J5">
-        <v>0.000107231917813561</v>
+        <v>0.0001045120209082938</v>
       </c>
       <c r="K5">
-        <v>7.589831345244741E-05</v>
+        <v>7.316200109366863E-05</v>
       </c>
       <c r="L5">
-        <v>2.69252464509992E-05</v>
+        <v>2.416327744910278E-05</v>
       </c>
       <c r="M5">
-        <v>2.774621343425984E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7.221399452756999E-05</v>
+        <v>6.947575198018807E-05</v>
       </c>
       <c r="O5">
-        <v>6.696022863469332E-08</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.735310164617346E-07</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.652323205139989E-05</v>
+        <v>4.377153029542375E-05</v>
       </c>
       <c r="R5">
-        <v>7.221399452756999E-05</v>
+        <v>6.947575198018807E-05</v>
       </c>
       <c r="S5">
-        <v>0.000100122733958516</v>
+        <v>9.739911260215363E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001669610465956951</v>
+        <v>0.0001642724413581694</v>
       </c>
       <c r="U5">
-        <v>0.0001469475470037667</v>
+        <v>0.000144248456835482</v>
       </c>
       <c r="V5">
-        <v>0.0001249190674529233</v>
+        <v>0.0001222084367201433</v>
       </c>
       <c r="W5">
-        <v>0.0003567119927267084</v>
+        <v>0.000354122796666598</v>
       </c>
       <c r="X5">
-        <v>0.0003304293732626061</v>
+        <v>0.0003278264079242153</v>
       </c>
       <c r="Y5">
-        <v>0.0002111469056947536</v>
+        <v>0.0002084814491160145</v>
       </c>
       <c r="Z5">
-        <v>0.0001995351859315144</v>
+        <v>0.0001968636460549917</v>
       </c>
       <c r="AA5">
-        <v>0.0001372878472007262</v>
+        <v>0.0001345836963840965</v>
       </c>
       <c r="AB5">
-        <v>2.554197847920378E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>3.747532323588508E-06</v>
+        <v>9.734206813377138E-07</v>
       </c>
       <c r="AD5">
-        <v>7.854214839854011E-06</v>
+        <v>5.082254659501939E-06</v>
       </c>
       <c r="AE5">
-        <v>0.0001155459736440389</v>
+        <v>0.0001128304324137655</v>
       </c>
       <c r="AF5">
-        <v>0.0005113322295740303</v>
+        <v>0.0005088240379614346</v>
       </c>
       <c r="AG5">
-        <v>0.0003012404738577624</v>
+        <v>0.000298622216661604</v>
       </c>
       <c r="AH5">
-        <v>0.0001259325474322586</v>
+        <v>0.0001232224476544653</v>
       </c>
       <c r="AI5">
-        <v>0.0003024137938338386</v>
+        <v>0.0002997961513317097</v>
       </c>
       <c r="AJ5">
-        <v>0.0004876872600561469</v>
+        <v>0.0004851666810114056</v>
       </c>
       <c r="AK5">
-        <v>2.01700305887368E-05</v>
+        <v>1.740452257707088E-05</v>
       </c>
       <c r="AL5">
-        <v>1.25715167436691E-05</v>
+        <v>9.80202792439026E-06</v>
       </c>
       <c r="AM5">
-        <v>8.250814231767422E-05</v>
+        <v>7.977529280144641E-05</v>
       </c>
       <c r="AN5">
-        <v>5.287099192197025E-05</v>
+        <v>5.012261571245398E-05</v>
       </c>
       <c r="AO5">
-        <v>4.485258908546399E-05</v>
+        <v>4.210001209146462E-05</v>
       </c>
       <c r="AP5">
-        <v>9.30487981027522E-05</v>
+        <v>9.0321470761472E-05</v>
       </c>
       <c r="AQ5">
-        <v>4.306168112198028E-05</v>
+        <v>4.030816588397683E-05</v>
       </c>
       <c r="AR5">
-        <v>2.331706252456941E-05</v>
+        <v>2.055320322065657E-05</v>
       </c>
       <c r="AS5">
-        <v>2.797369942962144E-07</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.423209370981024E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.828426962718712E-07</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>3.165958935446683E-07</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.578569567813258E-05</v>
+        <v>1.301789074444407E-05</v>
       </c>
       <c r="AX5">
-        <v>3.116626936452552E-05</v>
+        <v>2.840652220451095E-05</v>
       </c>
       <c r="AY5">
-        <v>4.001254218415166E-05</v>
+        <v>3.725742952384379E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0002121293756747212</v>
+        <v>0.0002094644338050496</v>
       </c>
       <c r="BA5">
-        <v>0.0004354654911209391</v>
+        <v>0.0004329175534611348</v>
       </c>
       <c r="BB5">
-        <v>0.0001985823559509425</v>
+        <v>0.0001959103168935381</v>
       </c>
       <c r="BC5">
-        <v>5.669936484391043E-05</v>
+        <v>5.39529942918666E-05</v>
       </c>
       <c r="BD5">
-        <v>5.368928290528544E-05</v>
+        <v>5.094133539262258E-05</v>
       </c>
       <c r="BE5">
-        <v>7.452780848039176E-05</v>
+        <v>7.179077812376005E-05</v>
       </c>
       <c r="BF5">
-        <v>3.004547338737835E-05</v>
+        <v>2.728513905028556E-05</v>
       </c>
       <c r="BG5">
-        <v>4.868354900735143E-07</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.354256890827692E-07</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.759667862171621E-06</v>
+        <v>3.987134256406332E-06</v>
       </c>
       <c r="BJ5">
-        <v>3.657006925434304E-08</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>1.170886376125843E-05</v>
+        <v>8.938923004188905E-06</v>
       </c>
       <c r="BL5">
-        <v>1.781659363672295E-05</v>
+        <v>1.504985267609804E-05</v>
       </c>
       <c r="BM5">
-        <v>5.04442289714515E-05</v>
+        <v>4.769458139800471E-05</v>
       </c>
       <c r="BN5">
-        <v>9.304855810275708E-06</v>
+        <v>6.533655610458832E-06</v>
       </c>
       <c r="BO5">
-        <v>3.205473634640985E-05</v>
+        <v>2.929545464795755E-05</v>
       </c>
       <c r="BP5">
-        <v>7.826996240408994E-05</v>
+        <v>7.553489253540783E-05</v>
       </c>
       <c r="BQ5">
-        <v>5.640855884983992E-06</v>
+        <v>2.867736141544016E-06</v>
       </c>
       <c r="BR5">
-        <v>3.639860625783914E-05</v>
+        <v>3.364160028208283E-05</v>
       </c>
       <c r="BS5">
-        <v>0.0001502459269365133</v>
+        <v>0.0001475485647661259</v>
       </c>
       <c r="BT5">
-        <v>0.000238480875137419</v>
+        <v>0.0002358297386317715</v>
       </c>
       <c r="BU5">
-        <v>5.892783379847236E-05</v>
+        <v>5.61826307255383E-05</v>
       </c>
       <c r="BV5">
-        <v>9.567280804924914E-05</v>
+        <v>9.294685540820433E-05</v>
       </c>
       <c r="BW5">
-        <v>0.0002919364140474705</v>
+        <v>0.0002893132825202417</v>
       </c>
       <c r="BX5">
-        <v>0.000135977447227445</v>
+        <v>0.0001332726099015457</v>
       </c>
       <c r="BY5">
-        <v>3.974386318962997E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.669460665960006E-05</v>
+        <v>1.392727789794048E-05</v>
       </c>
       <c r="CA5">
-        <v>1.675171065843572E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>2.554197847920378E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>2.657363345816852E-05</v>
+        <v>2.381148024871426E-05</v>
       </c>
       <c r="CD5">
-        <v>8.168818833439293E-05</v>
+        <v>7.895490925007779E-05</v>
       </c>
       <c r="CE5">
-        <v>3.790510922712182E-05</v>
+        <v>3.514889249760646E-05</v>
       </c>
       <c r="CF5">
-        <v>4.560652707009134E-05</v>
+        <v>4.285434505886493E-05</v>
       </c>
       <c r="CG5">
-        <v>0.0001549677668402359</v>
+        <v>0.0001522728784083477</v>
       </c>
       <c r="CH5">
-        <v>0.0001660895766134642</v>
+        <v>0.000163400514818984</v>
       </c>
       <c r="CI5">
-        <v>5.927048479148577E-05</v>
+        <v>5.65254612309813E-05</v>
       </c>
       <c r="CJ5">
-        <v>3.505047728532725E-05</v>
+        <v>3.229276503434575E-05</v>
       </c>
       <c r="CK5">
-        <v>7.74713984203725E-05</v>
+        <v>7.473591018967242E-05</v>
       </c>
       <c r="CL5">
-        <v>0.0001388749771683649</v>
+        <v>0.0001361716578378898</v>
       </c>
       <c r="CM5">
-        <v>1.050736378575679E-05</v>
+        <v>7.736793571355618E-06</v>
       </c>
       <c r="CN5">
-        <v>0.00372989842394806</v>
+        <v>0.003729076416380199</v>
       </c>
       <c r="CO5">
-        <v>0.05058447896859183</v>
+        <v>0.05060820374408382</v>
       </c>
       <c r="CP5">
-        <v>0.02030518958598094</v>
+        <v>0.020313051256115</v>
       </c>
       <c r="CQ5">
-        <v>0.09806530800046649</v>
+        <v>0.09811390764616754</v>
       </c>
       <c r="CR5">
-        <v>0.06546571866516609</v>
+        <v>0.06549723961678958</v>
       </c>
       <c r="CS5">
-        <v>0.009597932804299924</v>
+        <v>0.009600185018403625</v>
       </c>
       <c r="CT5">
-        <v>0.0234634595215844</v>
+        <v>0.02347297578698006</v>
       </c>
       <c r="CU5">
-        <v>0.02644562446077861</v>
+        <v>0.02645670306127492</v>
       </c>
       <c r="CV5">
-        <v>0.001190929675717164</v>
+        <v>0.001188777520395676</v>
       </c>
       <c r="CW5">
-        <v>0.01407411171303146</v>
+        <v>0.01407870896557821</v>
       </c>
       <c r="CX5">
-        <v>4.001538918409361E-05</v>
+        <v>3.726027801530885E-05</v>
       </c>
       <c r="CY5">
-        <v>0.005280406592333486</v>
+        <v>0.005280396885018864</v>
       </c>
       <c r="CZ5">
-        <v>0.04628040205635115</v>
+        <v>0.04630187195641775</v>
       </c>
       <c r="DA5">
-        <v>0.02766007343601622</v>
+        <v>0.02767178827773347</v>
       </c>
       <c r="DB5">
-        <v>0.003619368326201749</v>
+        <v>0.00361848841269813</v>
       </c>
       <c r="DC5">
-        <v>0.03375502631174125</v>
+        <v>0.03376993425612342</v>
       </c>
       <c r="DD5">
-        <v>0.008994579816602181</v>
+        <v>0.008996515938346814</v>
       </c>
       <c r="DE5">
-        <v>0.0002444202750163157</v>
+        <v>0.0002417722501202192</v>
       </c>
       <c r="DF5">
-        <v>0.002515540148708602</v>
+        <v>0.002514081947436885</v>
       </c>
       <c r="DG5">
-        <v>8.107894834681522E-05</v>
+        <v>7.834535008598346E-05</v>
       </c>
       <c r="DH5">
-        <v>6.137323374861111E-08</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0004694571204278561</v>
+        <v>0.0004669269907420161</v>
       </c>
       <c r="DJ5">
-        <v>0.005849471880730349</v>
+        <v>0.005849760302691858</v>
       </c>
       <c r="DK5">
-        <v>7.628711844451976E-05</v>
+        <v>7.355100977792394E-05</v>
       </c>
       <c r="DL5">
-        <v>0.003639711725786951</v>
+        <v>0.003638842470046362</v>
       </c>
       <c r="DM5">
-        <v>0.02763379943655194</v>
+        <v>0.02764550051350687</v>
       </c>
       <c r="DN5">
-        <v>0.003833750221830542</v>
+        <v>0.003832982621484415</v>
       </c>
       <c r="DO5">
-        <v>0.01575879967868099</v>
+        <v>0.01576427952732689</v>
       </c>
       <c r="DP5">
-        <v>0.0009678585802655425</v>
+        <v>0.0009655895595762859</v>
       </c>
       <c r="DQ5">
-        <v>0.0002985039239135602</v>
+        <v>0.0002958842330582583</v>
       </c>
       <c r="DR5">
-        <v>0.004912449399836065</v>
+        <v>0.004912246922353094</v>
       </c>
       <c r="DS5">
-        <v>1.447260370490629E-05</v>
+        <v>1.170411085162849E-05</v>
       </c>
       <c r="DT5">
-        <v>0.007810853240738146</v>
+        <v>0.007812169216509381</v>
       </c>
       <c r="DU5">
-        <v>0.01259807974312748</v>
+        <v>0.01260190371297414</v>
       </c>
       <c r="DV5">
-        <v>0.01743451064451355</v>
+        <v>0.01744086838627195</v>
       </c>
       <c r="DW5">
-        <v>0.0002816437242573365</v>
+        <v>0.0002790152004627895</v>
       </c>
       <c r="DX5">
-        <v>0.002228424154562844</v>
+        <v>0.002226815535254313</v>
       </c>
       <c r="DY5">
-        <v>0.0002500908649006935</v>
+        <v>0.0002474458107864949</v>
       </c>
       <c r="DZ5">
-        <v>0.001487018069679976</v>
+        <v>0.001485021032972051</v>
       </c>
       <c r="EA5">
-        <v>0.00144049417062859</v>
+        <v>0.001438472760379298</v>
       </c>
       <c r="EB5">
-        <v>0.004162458115128248</v>
+        <v>0.004161862722520469</v>
       </c>
       <c r="EC5">
-        <v>0.001583125567720362</v>
+        <v>0.001581178881050307</v>
       </c>
       <c r="ED5">
-        <v>6.759667862171621E-06</v>
+        <v>3.987134256406332E-06</v>
       </c>
       <c r="EE5">
-        <v>0.003584268426917429</v>
+        <v>0.00358337012482505</v>
       </c>
       <c r="EF5">
-        <v>0.01646447666429237</v>
+        <v>0.01647032621211548</v>
       </c>
       <c r="EG5">
-        <v>0.03081914537160332</v>
+        <v>0.0308325152287443</v>
       </c>
       <c r="EH5">
-        <v>0.008114159834553781</v>
+        <v>0.008115634710502384</v>
       </c>
       <c r="EI5">
-        <v>0.0002111469056947536</v>
+        <v>0.0002084814491160145</v>
       </c>
       <c r="EJ5">
-        <v>0.0009918305797767578</v>
+        <v>0.0009895741178483455</v>
       </c>
       <c r="EK5">
-        <v>0.0007842295840097038</v>
+        <v>0.0007818643613892338</v>
       </c>
       <c r="EL5">
-        <v>0.002429353950465922</v>
+        <v>0.002427850596855065</v>
       </c>
       <c r="EM5">
-        <v>0.002119276956788335</v>
+        <v>0.002117611156035552</v>
       </c>
       <c r="EN5">
-        <v>0.001790135563499467</v>
+        <v>0.001788297327900759</v>
       </c>
       <c r="EO5">
-        <v>0.004365325310991824</v>
+        <v>0.004364836199071844</v>
       </c>
       <c r="EP5">
-        <v>0.009584704804569641</v>
+        <v>0.009586950088617926</v>
       </c>
       <c r="EQ5">
-        <v>0.009090951814637172</v>
+        <v>0.009092938424989349</v>
       </c>
       <c r="ER5">
-        <v>0.005506889887715533</v>
+        <v>0.005506998833396068</v>
       </c>
       <c r="ES5">
-        <v>0.01080004577978906</v>
+        <v>0.01080292777237076</v>
       </c>
       <c r="ET5">
-        <v>0.008606076824523684</v>
+        <v>0.008607809412301012</v>
       </c>
       <c r="EU5">
-        <v>0.000188567036155153</v>
+        <v>0.0001858897501426069</v>
       </c>
       <c r="EV5">
-        <v>0.001325820872966757</v>
+        <v>0.001323739386188602</v>
       </c>
       <c r="EW5">
-        <v>0.003965862519136796</v>
+        <v>0.003965164131487994</v>
       </c>
       <c r="EX5">
-        <v>0.01186123175815168</v>
+        <v>0.01186466969855522</v>
       </c>
       <c r="EY5">
-        <v>0.02634687646279206</v>
+        <v>0.02635790332991128</v>
       </c>
       <c r="EZ5">
-        <v>0.03478431629075422</v>
+        <v>0.03479976347286997</v>
       </c>
       <c r="FA5">
-        <v>0.02767872343563594</v>
+        <v>0.02769044804795598</v>
       </c>
       <c r="FB5">
-        <v>0.01391427971629041</v>
+        <v>0.01391879323398552</v>
       </c>
       <c r="FC5">
-        <v>6.603912865347437E-05</v>
+        <v>6.32976511375734E-05</v>
       </c>
       <c r="FD5">
-        <v>0.002128613956597955</v>
+        <v>0.002126953047433275</v>
       </c>
       <c r="FE5">
-        <v>0.001839040162502311</v>
+        <v>0.001837227547676821</v>
       </c>
       <c r="FF5">
-        <v>0.004580604906602313</v>
+        <v>0.004580228578138491</v>
       </c>
       <c r="FG5">
-        <v>0.005809973381535717</v>
+        <v>0.005810241110513112</v>
       </c>
       <c r="FH5">
-        <v>0.002880137841274522</v>
+        <v>0.002878870650152924</v>
       </c>
       <c r="FI5">
-        <v>0.002964100539562538</v>
+        <v>0.002962877335904194</v>
       </c>
       <c r="FJ5">
-        <v>0.007396742549181786</v>
+        <v>0.00739784157529324</v>
       </c>
       <c r="FK5">
-        <v>0.009350339809348299</v>
+        <v>0.009352462311234676</v>
       </c>
       <c r="FL5">
-        <v>0.01084922877878623</v>
+        <v>0.01085213653799294</v>
       </c>
       <c r="FM5">
-        <v>0.01073230678117025</v>
+        <v>0.0107351532857701</v>
       </c>
       <c r="FN5">
-        <v>0.008520666826265179</v>
+        <v>0.008522354668349044</v>
       </c>
       <c r="FO5">
-        <v>0.0001848757762304171</v>
+        <v>0.0001821965563929271</v>
       </c>
       <c r="FP5">
-        <v>0.01759234564129532</v>
+        <v>0.01759878607169121</v>
       </c>
       <c r="FQ5">
-        <v>0.02777993443357227</v>
+        <v>0.02779171206961764</v>
       </c>
       <c r="FR5">
-        <v>0.01411147271226968</v>
+        <v>0.01411608953797944</v>
       </c>
       <c r="FS5">
-        <v>0.01768802063934453</v>
+        <v>0.01769451119319461</v>
       </c>
       <c r="FT5">
-        <v>0.006447687568532843</v>
+        <v>0.006448289391458373</v>
       </c>
       <c r="FU5">
-        <v>0.0001749070464336776</v>
+        <v>0.0001722226040492167</v>
       </c>
       <c r="FV5">
-        <v>2.680622945342594E-05</v>
+        <v>2.404419809936702E-05</v>
       </c>
       <c r="FW5">
-        <v>5.271773592509511E-06</v>
+        <v>2.498460489469272E-06</v>
       </c>
       <c r="FX5">
-        <v>0.001902324661211952</v>
+        <v>0.00190054520068734</v>
       </c>
       <c r="FY5">
-        <v>0.0003866604721160644</v>
+        <v>0.0003840869658522983</v>
       </c>
       <c r="FZ5">
-        <v>0.0001803069963235737</v>
+        <v>0.0001776253829346333</v>
       </c>
       <c r="GA5">
-        <v>0.005676905484248946</v>
+        <v>0.00567710349989695</v>
       </c>
       <c r="GB5">
-        <v>0.01628593166793286</v>
+        <v>0.01629168767729632</v>
       </c>
       <c r="GC5">
-        <v>0.004163938515098063</v>
+        <v>0.004163343898061349</v>
       </c>
       <c r="GD5">
-        <v>0.001471433669997739</v>
+        <v>0.001469428468733143</v>
       </c>
       <c r="GE5">
-        <v>0.00570237588372961</v>
+        <v>0.005702587243139596</v>
       </c>
       <c r="GF5">
-        <v>2.68190514531645E-07</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>5.324625291431874E-06</v>
+        <v>2.55133987702256E-06</v>
       </c>
       <c r="GH5">
-        <v>7.296679851222047E-06</v>
+        <v>4.524427582236268E-06</v>
       </c>
       <c r="GI5">
-        <v>0.0005780126882144281</v>
+        <v>0.0005755394300220775</v>
       </c>
       <c r="GJ5">
-        <v>0.0009953643797047042</v>
+        <v>0.000993109769109058</v>
       </c>
       <c r="GK5">
-        <v>0.004292721912472194</v>
+        <v>0.004292194764145696</v>
       </c>
       <c r="GL5">
-        <v>0.0003055457937699778</v>
+        <v>0.0003029297921004437</v>
       </c>
       <c r="GM5">
-        <v>0.0002572542947546325</v>
+        <v>0.0002546129935106238</v>
       </c>
       <c r="GN5">
-        <v>2.075997057670804E-06</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001234815174822347</v>
+        <v>0.001232686010803171</v>
       </c>
       <c r="GP5">
-        <v>0.003029388338231332</v>
+        <v>0.003028199338388533</v>
       </c>
       <c r="GQ5">
-        <v>0.0008742906321733756</v>
+        <v>0.0008719725918984889</v>
       </c>
       <c r="GR5">
-        <v>0.002143158556301393</v>
+        <v>0.002141505266949535</v>
       </c>
       <c r="GS5">
-        <v>0.0007109931855029803</v>
+        <v>0.0007085895948517792</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.084526179290902E-05</v>
+        <v>7.637175159106139E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002006614544500782</v>
+        <v>0.0001962917603713752</v>
       </c>
       <c r="D6">
-        <v>0.0001759630739023411</v>
+        <v>0.0001715719796267235</v>
       </c>
       <c r="E6">
-        <v>0.0001601841835524119</v>
+        <v>0.0001557794174751177</v>
       </c>
       <c r="F6">
-        <v>0.0001373103230451372</v>
+        <v>0.0001328857376473777</v>
       </c>
       <c r="G6">
-        <v>0.0001251114027746012</v>
+        <v>0.0001206762474815633</v>
       </c>
       <c r="H6">
-        <v>2.932418565032379E-05</v>
+        <v>2.480603441735383E-05</v>
       </c>
       <c r="I6">
-        <v>3.388100275138053E-05</v>
+        <v>2.936679982518631E-05</v>
       </c>
       <c r="J6">
-        <v>4.281859094958984E-05</v>
+        <v>3.831213209985493E-05</v>
       </c>
       <c r="K6">
-        <v>1.971215043715725E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.539626100675493E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.525538033831926E-05</v>
+        <v>1.072503902659301E-05</v>
       </c>
       <c r="N6">
-        <v>3.401548675436299E-07</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.127855669366597E-05</v>
+        <v>2.676209884804547E-05</v>
       </c>
       <c r="P6">
-        <v>7.112236157728383E-05</v>
+        <v>6.664042685631467E-05</v>
       </c>
       <c r="Q6">
-        <v>3.127855669366597E-05</v>
+        <v>2.676209884804547E-05</v>
       </c>
       <c r="R6">
-        <v>7.217218660056585E-07</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>5.280121417097492E-05</v>
+        <v>4.830340488035783E-05</v>
       </c>
       <c r="T6">
-        <v>2.650821458787388E-05</v>
+        <v>2.198762342427261E-05</v>
       </c>
       <c r="U6">
-        <v>1.858027841205568E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>7.767959172270382E-05</v>
+        <v>7.320333858948309E-05</v>
       </c>
       <c r="W6">
-        <v>6.546023145171452E-05</v>
+        <v>6.09733907127411E-05</v>
       </c>
       <c r="X6">
-        <v>6.496788644079576E-06</v>
+        <v>1.958858349480993E-06</v>
       </c>
       <c r="Y6">
-        <v>0.0001525663733834714</v>
+        <v>0.0001481550067666253</v>
       </c>
       <c r="Z6">
-        <v>0.0002296563050930983</v>
+        <v>0.0002253117339374174</v>
       </c>
       <c r="AA6">
-        <v>2.973490265943228E-05</v>
+        <v>2.52171072969557E-05</v>
       </c>
       <c r="AB6">
-        <v>1.112485574671643E-05</v>
+        <v>6.590935494279878E-06</v>
       </c>
       <c r="AC6">
-        <v>6.794589150683911E-05</v>
+        <v>6.346120449671198E-05</v>
       </c>
       <c r="AD6">
-        <v>3.477259077115332E-05</v>
+        <v>3.025916037169027E-05</v>
       </c>
       <c r="AE6">
-        <v>8.957991198661776E-06</v>
+        <v>4.422193441425831E-06</v>
       </c>
       <c r="AF6">
-        <v>1.031845472883284E-08</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>8.730204193610135E-06</v>
+        <v>4.194209067694359E-06</v>
       </c>
       <c r="AH6">
-        <v>1.54561483427717E-05</v>
+        <v>1.092598098880034E-05</v>
       </c>
       <c r="AI6">
-        <v>7.855497174211717E-06</v>
+        <v>3.318744148302397E-06</v>
       </c>
       <c r="AJ6">
-        <v>1.647863136544735E-07</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>6.485015143818475E-05</v>
+        <v>6.036278208834156E-05</v>
       </c>
       <c r="AL6">
-        <v>1.29723052876874E-05</v>
+        <v>8.439985779230406E-06</v>
       </c>
       <c r="AM6">
-        <v>8.291074683871539E-05</v>
+        <v>7.843902630022721E-05</v>
       </c>
       <c r="AN6">
-        <v>0.0001650354736599992</v>
+        <v>0.0001606349110390163</v>
       </c>
       <c r="AO6">
-        <v>0.0001820711940378011</v>
+        <v>0.0001776853922133799</v>
       </c>
       <c r="AP6">
-        <v>5.712904526695343E-05</v>
+        <v>5.263498587554483E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.0002194032048657148</v>
+        <v>0.0002150497497929922</v>
       </c>
       <c r="AR6">
-        <v>0.0003888805586242218</v>
+        <v>0.00038467394916091</v>
       </c>
       <c r="AS6">
-        <v>8.998387199557641E-05</v>
+        <v>8.551828004802422E-05</v>
       </c>
       <c r="AT6">
-        <v>6.921030753488011E-05</v>
+        <v>6.472671609261541E-05</v>
       </c>
       <c r="AU6">
-        <v>0.0001573081434886298</v>
+        <v>0.0001529008854332248</v>
       </c>
       <c r="AV6">
-        <v>8.854608196369046E-05</v>
+        <v>8.407924422636899E-05</v>
       </c>
       <c r="AW6">
-        <v>6.003687133144042E-05</v>
+        <v>5.554533145948991E-05</v>
       </c>
       <c r="AX6">
-        <v>2.611790757921802E-05</v>
+        <v>2.159697822960386E-05</v>
       </c>
       <c r="AY6">
-        <v>9.187174203744378E-06</v>
+        <v>4.651575024768606E-06</v>
       </c>
       <c r="AZ6">
-        <v>1.525538033831926E-05</v>
+        <v>1.072503902659301E-05</v>
       </c>
       <c r="BA6">
-        <v>2.383684152863072E-05</v>
+        <v>1.931393572300708E-05</v>
       </c>
       <c r="BB6">
-        <v>4.085339690600764E-05</v>
+        <v>3.634523529120979E-05</v>
       </c>
       <c r="BC6">
-        <v>1.575914134949119E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002115773046921595</v>
+        <v>0.0002072170687778985</v>
       </c>
       <c r="BE6">
-        <v>1.037488023008419E-05</v>
+        <v>5.840310152704417E-06</v>
       </c>
       <c r="BF6">
-        <v>1.646730736519622E-05</v>
+        <v>1.193801614163147E-05</v>
       </c>
       <c r="BG6">
-        <v>0.0002853328563278397</v>
+        <v>0.0002810365267626406</v>
       </c>
       <c r="BH6">
-        <v>0.0004204985593254156</v>
+        <v>0.0004163193456437723</v>
       </c>
       <c r="BI6">
-        <v>0.0001601777535522693</v>
+        <v>0.0001557729819036273</v>
       </c>
       <c r="BJ6">
-        <v>0.0003005249366647551</v>
+        <v>0.0002962417704529234</v>
       </c>
       <c r="BK6">
-        <v>0.0002639011758525483</v>
+        <v>0.0002595862765604194</v>
       </c>
       <c r="BL6">
-        <v>3.271023072541627E-05</v>
+        <v>2.819501337028614E-05</v>
       </c>
       <c r="BM6">
-        <v>6.58527714604199E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>4.085014790593558E-05</v>
+        <v>3.634198347600412E-05</v>
       </c>
       <c r="BO6">
-        <v>1.32459572937562E-05</v>
+        <v>8.713874894238573E-06</v>
       </c>
       <c r="BP6">
-        <v>3.475710477080989E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>5.0390121117504E-06</v>
+        <v>4.998187098485259E-07</v>
       </c>
       <c r="BR6">
-        <v>2.931444465010777E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.000317926437050669</v>
+        <v>0.0003136583485697091</v>
       </c>
       <c r="BT6">
-        <v>0.0001669962537034835</v>
+        <v>0.0001625973900230023</v>
       </c>
       <c r="BU6">
-        <v>4.483675099434666E-05</v>
+        <v>4.03320408026778E-05</v>
       </c>
       <c r="BV6">
-        <v>8.711988193206156E-05</v>
+        <v>8.265180844726031E-05</v>
       </c>
       <c r="BW6">
-        <v>0.0001669962537034835</v>
+        <v>0.0001625973900230023</v>
       </c>
       <c r="BX6">
-        <v>3.344248874165559E-05</v>
+        <v>2.892790585993595E-05</v>
       </c>
       <c r="BY6">
-        <v>0.000101136332242905</v>
+        <v>9.668040347326499E-05</v>
       </c>
       <c r="BZ6">
-        <v>0.0003233764771715348</v>
+        <v>0.0003191131109407465</v>
       </c>
       <c r="CA6">
-        <v>0.0004081190390508744</v>
+        <v>0.0004039290989909947</v>
       </c>
       <c r="CB6">
-        <v>0.0001650354736599992</v>
+        <v>0.0001606349110390163</v>
       </c>
       <c r="CC6">
-        <v>1.496160033180409E-05</v>
+        <v>1.043100447100014E-05</v>
       </c>
       <c r="CD6">
-        <v>9.216225204388643E-05</v>
+        <v>8.769854757887176E-05</v>
       </c>
       <c r="CE6">
-        <v>2.534852956215549E-05</v>
+        <v>2.082693357607765E-05</v>
       </c>
       <c r="CF6">
-        <v>1.772742839314198E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>2.309964551228189E-05</v>
+        <v>1.857610095466057E-05</v>
       </c>
       <c r="CH6">
-        <v>1.013124322468104E-05</v>
+        <v>5.596462045205679E-06</v>
       </c>
       <c r="CI6">
-        <v>3.845472785281224E-05</v>
+        <v>3.394448788352584E-05</v>
       </c>
       <c r="CJ6">
-        <v>0.0001924759742685484</v>
+        <v>0.0001880991877860587</v>
       </c>
       <c r="CK6">
-        <v>4.637482102845651E-05</v>
+        <v>4.187144351532237E-05</v>
       </c>
       <c r="CL6">
-        <v>0.0001042151363111838</v>
+        <v>9.97618752068668E-05</v>
       </c>
       <c r="CM6">
-        <v>0.0002504794055548931</v>
+        <v>0.0002461528768149647</v>
       </c>
       <c r="CN6">
-        <v>0.0134409922980815</v>
+        <v>0.01344809484149303</v>
       </c>
       <c r="CO6">
-        <v>0.08730211193610289</v>
+        <v>0.0873732122991905</v>
       </c>
       <c r="CP6">
-        <v>0.0002409460353434711</v>
+        <v>0.000236611246304881</v>
       </c>
       <c r="CQ6">
-        <v>0.05599201624173748</v>
+        <v>0.05603598761100387</v>
       </c>
       <c r="CR6">
-        <v>0.02007293744515844</v>
+        <v>0.02008578631399402</v>
       </c>
       <c r="CS6">
-        <v>0.0005660048425523151</v>
+        <v>0.0005619517044693268</v>
       </c>
       <c r="CT6">
-        <v>0.002773803761514771</v>
+        <v>0.002771663596289347</v>
       </c>
       <c r="CU6">
-        <v>0.01746832038739573</v>
+        <v>0.01747891245571698</v>
       </c>
       <c r="CV6">
-        <v>0.01105509924516944</v>
+        <v>0.01106013450400534</v>
       </c>
       <c r="CW6">
-        <v>0.0275021576099166</v>
+        <v>0.02752144361231809</v>
       </c>
       <c r="CX6">
-        <v>0.01526638133856323</v>
+        <v>0.01527506551137903</v>
       </c>
       <c r="CY6">
-        <v>0.007851136174115002</v>
+        <v>0.007853395322165216</v>
       </c>
       <c r="CZ6">
-        <v>0.0069800461547968</v>
+        <v>0.006981550536844939</v>
       </c>
       <c r="DA6">
-        <v>0.04596007301925862</v>
+        <v>0.04599535209552295</v>
       </c>
       <c r="DB6">
-        <v>1.762106139078308E-05</v>
+        <v>1.309276985071137E-05</v>
       </c>
       <c r="DC6">
-        <v>0.05013418711182813</v>
+        <v>0.05017308289742903</v>
       </c>
       <c r="DD6">
-        <v>0.006688570148332722</v>
+        <v>0.006689821977630605</v>
       </c>
       <c r="DE6">
-        <v>0.002552646456610156</v>
+        <v>0.002550314667085117</v>
       </c>
       <c r="DF6">
-        <v>0.0008791087194960339</v>
+        <v>0.0008753268738813256</v>
       </c>
       <c r="DG6">
-        <v>0.001918633442549621</v>
+        <v>0.00191575230513025</v>
       </c>
       <c r="DH6">
-        <v>0.0004620557402470311</v>
+        <v>0.0004579125342644845</v>
       </c>
       <c r="DI6">
-        <v>0.004826090107028419</v>
+        <v>0.004825728168996239</v>
       </c>
       <c r="DJ6">
-        <v>0.003034782167302501</v>
+        <v>0.003032868129829198</v>
       </c>
       <c r="DK6">
-        <v>0.008334758184840309</v>
+        <v>0.008337436372764077</v>
       </c>
       <c r="DL6">
-        <v>0.00360416407992971</v>
+        <v>0.003602743389986876</v>
       </c>
       <c r="DM6">
-        <v>0.007639046169411473</v>
+        <v>0.007641121549628994</v>
       </c>
       <c r="DN6">
-        <v>2.090430446359571E-06</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.004247259094191657</v>
+        <v>0.004246395621347062</v>
       </c>
       <c r="DP6">
-        <v>0.002564192556866214</v>
+        <v>0.002561870771593017</v>
       </c>
       <c r="DQ6">
-        <v>0.0006292134739540957</v>
+        <v>0.0006252151037193915</v>
       </c>
       <c r="DR6">
-        <v>2.676680459360864E-06</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0009732481215837677</v>
+        <v>0.0009695478441406327</v>
       </c>
       <c r="DT6">
-        <v>0.003314818073512871</v>
+        <v>0.003313146676382908</v>
       </c>
       <c r="DU6">
-        <v>0.0007045186156241413</v>
+        <v>0.0007005854943986709</v>
       </c>
       <c r="DV6">
-        <v>0.006967338154514974</v>
+        <v>0.006968831525569583</v>
       </c>
       <c r="DW6">
-        <v>0.001338580529685761</v>
+        <v>0.001335196798724593</v>
       </c>
       <c r="DX6">
-        <v>0.001281665428423552</v>
+        <v>0.001278232382715934</v>
       </c>
       <c r="DY6">
-        <v>0.001763075139099797</v>
+        <v>0.001760059216392821</v>
       </c>
       <c r="DZ6">
-        <v>0.002660114358993477</v>
+        <v>0.002657875686272941</v>
       </c>
       <c r="EA6">
-        <v>0.0006891064852823457</v>
+        <v>0.0006851600100386411</v>
       </c>
       <c r="EB6">
-        <v>0.003585915079525001</v>
+        <v>0.003584478577525122</v>
       </c>
       <c r="EC6">
-        <v>0.001878847041667276</v>
+        <v>0.001875931430861614</v>
       </c>
       <c r="ED6">
-        <v>2.346925452047872E-05</v>
+        <v>1.894603021484888E-05</v>
       </c>
       <c r="EE6">
-        <v>0.0006971326854603432</v>
+        <v>0.0006931931646104279</v>
       </c>
       <c r="EF6">
-        <v>0.01886279141832098</v>
+        <v>0.0188745917421631</v>
       </c>
       <c r="EG6">
-        <v>0.03520296078069766</v>
+        <v>0.03522891923289547</v>
       </c>
       <c r="EH6">
-        <v>0.006540054145039077</v>
+        <v>0.006541177290931613</v>
       </c>
       <c r="EI6">
-        <v>0.0003413995475712332</v>
+        <v>0.0003371517976378298</v>
       </c>
       <c r="EJ6">
-        <v>0.0002433140253959862</v>
+        <v>0.0002389812881297103</v>
       </c>
       <c r="EK6">
-        <v>2.130965747258524E-05</v>
+        <v>1.678456195916541E-05</v>
       </c>
       <c r="EL6">
-        <v>0.00410954609113759</v>
+        <v>0.004108563295271902</v>
       </c>
       <c r="EM6">
-        <v>0.01355597530063148</v>
+        <v>0.0135631774723928</v>
       </c>
       <c r="EN6">
-        <v>0.00293916566518201</v>
+        <v>0.00293716877968676</v>
       </c>
       <c r="EO6">
-        <v>0.0050650841123286</v>
+        <v>0.005064929253410977</v>
       </c>
       <c r="EP6">
-        <v>0.01325059629385907</v>
+        <v>0.01325753386645504</v>
       </c>
       <c r="EQ6">
-        <v>0.01344987229827843</v>
+        <v>0.01345698253586863</v>
       </c>
       <c r="ER6">
-        <v>0.01202768826673859</v>
+        <v>0.01203356623655865</v>
       </c>
       <c r="ES6">
-        <v>0.01544553134253625</v>
+        <v>0.01545437074194089</v>
       </c>
       <c r="ET6">
-        <v>0.009933116220287169</v>
+        <v>0.009937179323980312</v>
       </c>
       <c r="EU6">
-        <v>0.001577597234986445</v>
+        <v>0.001574420602808512</v>
       </c>
       <c r="EV6">
-        <v>0.001035112022955726</v>
+        <v>0.001031465348204019</v>
       </c>
       <c r="EW6">
-        <v>0.009495622710584855</v>
+        <v>0.009499306742976606</v>
       </c>
       <c r="EX6">
-        <v>0.02714153060191896</v>
+        <v>0.02716050413488671</v>
       </c>
       <c r="EY6">
-        <v>0.03389712475173808</v>
+        <v>0.03392195174723556</v>
       </c>
       <c r="EZ6">
-        <v>0.05111573713359602</v>
+        <v>0.05115548339454313</v>
       </c>
       <c r="FA6">
-        <v>0.0334967207428583</v>
+        <v>0.0335212008036805</v>
       </c>
       <c r="FB6">
-        <v>0.01740134138591034</v>
+        <v>0.01741187541950262</v>
       </c>
       <c r="FC6">
-        <v>1.216140026970393E-05</v>
+        <v>7.628378143233964E-06</v>
       </c>
       <c r="FD6">
-        <v>0.004028651489343587</v>
+        <v>0.004027598601416423</v>
       </c>
       <c r="FE6">
-        <v>0.001335798029624053</v>
+        <v>0.001332411887733589</v>
       </c>
       <c r="FF6">
-        <v>0.003301716973222327</v>
+        <v>0.003300034224492794</v>
       </c>
       <c r="FG6">
-        <v>0.005543390122936013</v>
+        <v>0.005543649697782283</v>
       </c>
       <c r="FH6">
-        <v>0.003233575071711141</v>
+        <v>0.003231833280644494</v>
       </c>
       <c r="FI6">
-        <v>0.002899424464300668</v>
+        <v>0.002897393144583189</v>
       </c>
       <c r="FJ6">
-        <v>0.00434534259636686</v>
+        <v>0.004344564109104885</v>
       </c>
       <c r="FK6">
-        <v>0.02197756648739749</v>
+        <v>0.0219920656440515</v>
       </c>
       <c r="FL6">
-        <v>0.02119135346996161</v>
+        <v>0.02120517140327155</v>
       </c>
       <c r="FM6">
-        <v>0.01394558330927183</v>
+        <v>0.01395312306138942</v>
       </c>
       <c r="FN6">
-        <v>0.01090366824181114</v>
+        <v>0.01090857229150624</v>
       </c>
       <c r="FO6">
-        <v>0.0001225711627182662</v>
+        <v>0.00011813380640491</v>
       </c>
       <c r="FP6">
-        <v>0.02125779247143503</v>
+        <v>0.02127166797158469</v>
       </c>
       <c r="FQ6">
-        <v>0.02845232663098854</v>
+        <v>0.02847243591830597</v>
       </c>
       <c r="FR6">
-        <v>0.01783223539546629</v>
+        <v>0.01784314278214689</v>
       </c>
       <c r="FS6">
-        <v>0.01916355642499106</v>
+        <v>0.01917561735014489</v>
       </c>
       <c r="FT6">
-        <v>0.005892367130675293</v>
+        <v>0.005892929080678097</v>
       </c>
       <c r="FU6">
-        <v>0.002126156447151868</v>
+        <v>0.002123455120435236</v>
       </c>
       <c r="FV6">
-        <v>0.0001851574341062448</v>
+        <v>0.0001807743063901548</v>
       </c>
       <c r="FW6">
-        <v>0.0007517358166712792</v>
+        <v>0.0007478436073346758</v>
       </c>
       <c r="FX6">
-        <v>9.809864617553812E-05</v>
+        <v>9.364008536774155E-05</v>
       </c>
       <c r="FY6">
-        <v>7.634856769318564E-05</v>
+        <v>7.187116127883076E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.001403375131122714</v>
+        <v>0.001400047542191873</v>
       </c>
       <c r="GA6">
-        <v>0.003526955178217445</v>
+        <v>0.003525467589730514</v>
       </c>
       <c r="GB6">
-        <v>0.01373076430450778</v>
+        <v>0.01373811792421907</v>
       </c>
       <c r="GC6">
-        <v>0.003994915688595426</v>
+        <v>0.003993833569894297</v>
       </c>
       <c r="GD6">
-        <v>0.001013213022470071</v>
+        <v>0.001009547373076617</v>
       </c>
       <c r="GE6">
-        <v>0.003829933584936611</v>
+        <v>0.003828708515587408</v>
       </c>
       <c r="GF6">
-        <v>0.0003058332467824778</v>
+        <v>0.0003015546800172205</v>
       </c>
       <c r="GG6">
-        <v>6.423885142462791E-05</v>
+        <v>5.975095240683184E-05</v>
       </c>
       <c r="GH6">
-        <v>0.0001381974130648103</v>
+        <v>0.0001337735962964378</v>
       </c>
       <c r="GI6">
-        <v>0.0002939657765192923</v>
+        <v>0.0002896769270474414</v>
       </c>
       <c r="GJ6">
-        <v>0.000821415468216568</v>
+        <v>0.0008175836336183457</v>
       </c>
       <c r="GK6">
-        <v>0.00542689112035241</v>
+        <v>0.005427049753293164</v>
       </c>
       <c r="GL6">
-        <v>0.0007413270864404444</v>
+        <v>0.0007374258583393863</v>
       </c>
       <c r="GM6">
-        <v>6.546023145171452E-05</v>
+        <v>6.09733907127411E-05</v>
       </c>
       <c r="GN6">
-        <v>0.0001259582427933817</v>
+        <v>0.000121523821254653</v>
       </c>
       <c r="GO6">
-        <v>0.001620171235930611</v>
+        <v>0.00161703149248722</v>
       </c>
       <c r="GP6">
-        <v>0.001830785240601407</v>
+        <v>0.001827827986093443</v>
       </c>
       <c r="GQ6">
-        <v>0.0005539889122858372</v>
+        <v>0.0005499253628613719</v>
       </c>
       <c r="GR6">
-        <v>0.000787605417466761</v>
+        <v>0.0007837442877598031</v>
       </c>
       <c r="GS6">
-        <v>0.0009379517208009979</v>
+        <v>0.0009342208603839846</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.89109524484008E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.876542070255132E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.243308499557201E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.11437338149569E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.417139139318627E-05</v>
+        <v>5.133242865342678E-05</v>
       </c>
       <c r="G2">
-        <v>0.0002305271374159292</v>
+        <v>0.000156307029838421</v>
       </c>
       <c r="H2">
-        <v>0.0003498320239360156</v>
+        <v>0.0002441303478266685</v>
       </c>
       <c r="I2">
-        <v>0.0004448108011656519</v>
+        <v>0.0003074842841130419</v>
       </c>
       <c r="J2">
-        <v>0.0006738068644862397</v>
+        <v>0.0005056448221808238</v>
       </c>
       <c r="K2">
-        <v>0.000990232155256671</v>
+        <v>0.0007917495157576835</v>
       </c>
       <c r="L2">
-        <v>0.001339686985063689</v>
+        <v>0.001111078280988306</v>
       </c>
       <c r="M2">
-        <v>0.00152984172951721</v>
+        <v>0.001270168738188879</v>
       </c>
       <c r="N2">
-        <v>0.001627485966669099</v>
+        <v>0.001336203833039078</v>
       </c>
       <c r="O2">
-        <v>0.001659481755735838</v>
+        <v>0.001336203833039078</v>
       </c>
       <c r="P2">
-        <v>0.001661199793785726</v>
+        <v>0.001336203833039078</v>
       </c>
       <c r="Q2">
-        <v>0.00166908837855563</v>
+        <v>0.001336203833039078</v>
       </c>
       <c r="R2">
-        <v>0.001722455779998997</v>
+        <v>0.001357701316857154</v>
       </c>
       <c r="S2">
-        <v>0.001794148952907833</v>
+        <v>0.001397632504627465</v>
       </c>
       <c r="T2">
-        <v>0.001921929049180713</v>
+        <v>0.001493980948437044</v>
       </c>
       <c r="U2">
-        <v>0.002001493016859972</v>
+        <v>0.001541829287250091</v>
       </c>
       <c r="V2">
-        <v>0.002056863045244925</v>
+        <v>0.001565341192793197</v>
       </c>
       <c r="W2">
-        <v>0.00215608519235079</v>
+        <v>0.001632963490943933</v>
       </c>
       <c r="X2">
-        <v>0.002260483529305675</v>
+        <v>0.001705792464920414</v>
       </c>
       <c r="Y2">
-        <v>0.002384202725697004</v>
+        <v>0.001798056091545776</v>
       </c>
       <c r="Z2">
-        <v>0.002478087632958546</v>
+        <v>0.00186030971534642</v>
       </c>
       <c r="AA2">
-        <v>0.002578213660038046</v>
+        <v>0.001928841217012748</v>
       </c>
       <c r="AB2">
-        <v>0.002662696831573821</v>
+        <v>0.001981637732099987</v>
       </c>
       <c r="AC2">
-        <v>0.002765559098573509</v>
+        <v>0.002052921589197904</v>
       </c>
       <c r="AD2">
-        <v>0.002849212156133497</v>
+        <v>0.002104883101223738</v>
       </c>
       <c r="AE2">
-        <v>0.002952074423133186</v>
+        <v>0.002176166958321656</v>
       </c>
       <c r="AF2">
-        <v>0.002987623972096268</v>
+        <v>0.002179741648640693</v>
       </c>
       <c r="AG2">
-        <v>0.002988316118236079</v>
+        <v>0.002179741648640693</v>
       </c>
       <c r="AH2">
-        <v>0.003005769482726995</v>
+        <v>0.002179741648640693</v>
       </c>
       <c r="AI2">
-        <v>0.003016281218420386</v>
+        <v>0.002179741648640693</v>
       </c>
       <c r="AJ2">
-        <v>0.003033734582911302</v>
+        <v>0.002179741648640693</v>
       </c>
       <c r="AK2">
-        <v>0.003071611611806496</v>
+        <v>0.002185657526947596</v>
       </c>
       <c r="AL2">
-        <v>0.003163961809112804</v>
+        <v>0.002246367401879569</v>
       </c>
       <c r="AM2">
-        <v>0.003258060296368116</v>
+        <v>0.002308835863586638</v>
       </c>
       <c r="AN2">
-        <v>0.003418666391683519</v>
+        <v>0.002438203640275404</v>
       </c>
       <c r="AO2">
-        <v>0.003538962218174702</v>
+        <v>0.002527023734530126</v>
       </c>
       <c r="AP2">
-        <v>0.003752253271953377</v>
+        <v>0.002709386765954974</v>
       </c>
       <c r="AQ2">
-        <v>0.003922957166974246</v>
+        <v>0.002848911814914118</v>
       </c>
       <c r="AR2">
-        <v>0.004108150831572472</v>
+        <v>0.0030030119732065</v>
       </c>
       <c r="AS2">
-        <v>0.004284820406419331</v>
+        <v>0.003148537837792607</v>
       </c>
       <c r="AT2">
-        <v>0.004386989053439251</v>
+        <v>0.003219123989727798</v>
       </c>
       <c r="AU2">
-        <v>0.004439200919916323</v>
+        <v>0.003239459132876327</v>
       </c>
       <c r="AV2">
-        <v>0.004457807433373604</v>
+        <v>0.003239459132876327</v>
       </c>
       <c r="AW2">
-        <v>0.004491884478379636</v>
+        <v>0.003241552646696799</v>
       </c>
       <c r="AX2">
-        <v>0.004525961523385668</v>
+        <v>0.00324364616051727</v>
       </c>
       <c r="AY2">
-        <v>0.004526446146431533</v>
+        <v>0.00324364616051727</v>
       </c>
       <c r="AZ2">
-        <v>0.004553883354631237</v>
+        <v>0.00324364616051727</v>
       </c>
       <c r="BA2">
-        <v>0.004604637963150815</v>
+        <v>0.003262515462960478</v>
       </c>
       <c r="BB2">
-        <v>0.004647947644887548</v>
+        <v>0.003273895990564405</v>
       </c>
       <c r="BC2">
-        <v>0.004774706381190219</v>
+        <v>0.003369217058945071</v>
       </c>
       <c r="BD2">
-        <v>0.004933508556558239</v>
+        <v>0.003496770291218817</v>
       </c>
       <c r="BE2">
-        <v>0.005188441079122306</v>
+        <v>0.003721020045348493</v>
       </c>
       <c r="BF2">
-        <v>0.005548851698609763</v>
+        <v>0.004051369126090127</v>
       </c>
       <c r="BG2">
-        <v>0.005899023388395871</v>
+        <v>0.004371418973358396</v>
       </c>
       <c r="BH2">
-        <v>0.006317767676181837</v>
+        <v>0.004760445287628167</v>
       </c>
       <c r="BI2">
-        <v>0.006734661384021782</v>
+        <v>0.005147610122672947</v>
       </c>
       <c r="BJ2">
-        <v>0.007044289754990467</v>
+        <v>0.005426877864929719</v>
       </c>
       <c r="BK2">
-        <v>0.007303577407427503</v>
+        <v>0.005655508399148413</v>
       </c>
       <c r="BL2">
-        <v>0.007536365830637474</v>
+        <v>0.005857483632800114</v>
       </c>
       <c r="BM2">
-        <v>0.007652159971259963</v>
+        <v>0.005941775527805717</v>
       </c>
       <c r="BN2">
-        <v>0.007691968502098819</v>
+        <v>0.005949634283937967</v>
       </c>
       <c r="BO2">
-        <v>0.007692218488841527</v>
+        <v>0.005949634283937967</v>
       </c>
       <c r="BP2">
-        <v>0.007707831905386111</v>
+        <v>0.005949634283937967</v>
       </c>
       <c r="BQ2">
-        <v>0.007776924803370793</v>
+        <v>0.005986949882059754</v>
       </c>
       <c r="BR2">
-        <v>0.007858583214988961</v>
+        <v>0.006036905000365667</v>
       </c>
       <c r="BS2">
-        <v>0.007998129020918655</v>
+        <v>0.006145088449812545</v>
       </c>
       <c r="BT2">
-        <v>0.008136607386879486</v>
+        <v>0.006252198172436521</v>
       </c>
       <c r="BU2">
-        <v>0.008249090383598555</v>
+        <v>0.006333159422040708</v>
       </c>
       <c r="BV2">
-        <v>0.008493404956472328</v>
+        <v>0.006546728690410785</v>
       </c>
       <c r="BW2">
-        <v>0.008783044118024063</v>
+        <v>0.006805889493686811</v>
       </c>
       <c r="BX2">
-        <v>0.00907887936939507</v>
+        <v>0.00707128287961864</v>
       </c>
       <c r="BY2">
-        <v>0.009365445101036452</v>
+        <v>0.00732735215153992</v>
       </c>
       <c r="BZ2">
-        <v>0.009614023533785857</v>
+        <v>0.007545210392452806</v>
       </c>
       <c r="CA2">
-        <v>0.009745144489961289</v>
+        <v>0.007644919372679943</v>
       </c>
       <c r="CB2">
-        <v>0.009807630358138687</v>
+        <v>0.007675589027862818</v>
       </c>
       <c r="CC2">
-        <v>0.009854947178758539</v>
+        <v>0.007691000295018752</v>
       </c>
       <c r="CD2">
-        <v>0.009877234455108458</v>
+        <v>0.007691000295018752</v>
       </c>
       <c r="CE2">
-        <v>0.009877364133034677</v>
+        <v>0.007691000295018752</v>
       </c>
       <c r="CF2">
-        <v>0.009892890622581797</v>
+        <v>0.007691000295018752</v>
       </c>
       <c r="CG2">
-        <v>0.00993620030431853</v>
+        <v>0.007702380822622678</v>
       </c>
       <c r="CH2">
-        <v>0.009998512156501002</v>
+        <v>0.00773287543691631</v>
       </c>
       <c r="CI2">
-        <v>0.01006592713953463</v>
+        <v>0.007768503237745464</v>
       </c>
       <c r="CJ2">
-        <v>0.01014150447733017</v>
+        <v>0.007812341466796854</v>
       </c>
       <c r="CK2">
-        <v>0.01025632642398101</v>
+        <v>0.007895655441942921</v>
       </c>
       <c r="CL2">
-        <v>0.01042438701907898</v>
+        <v>0.008032521622852363</v>
       </c>
       <c r="CM2">
-        <v>0.01051673721638529</v>
+        <v>0.008093231497784334</v>
       </c>
       <c r="CN2">
-        <v>0.03646875645941056</v>
+        <v>0.03416591496901358</v>
       </c>
       <c r="CO2">
-        <v>0.09943131462290355</v>
+        <v>0.09746711669706545</v>
       </c>
       <c r="CP2">
-        <v>0.1909435919536515</v>
+        <v>0.1894861856123341</v>
       </c>
       <c r="CQ2">
-        <v>0.2829769752691997</v>
+        <v>0.2820294296473048</v>
       </c>
       <c r="CR2">
-        <v>0.2885000295081019</v>
+        <v>0.2875528285415568</v>
       </c>
       <c r="CS2">
-        <v>0.3104393978681692</v>
+        <v>0.3095892279971581</v>
       </c>
       <c r="CT2">
-        <v>0.3234763204879051</v>
+        <v>0.322670749370965</v>
       </c>
       <c r="CU2">
-        <v>0.3240419471714068</v>
+        <v>0.3232075231677088</v>
       </c>
       <c r="CV2">
-        <v>0.3262899286058372</v>
+        <v>0.3254365602058496</v>
       </c>
       <c r="CW2">
-        <v>0.3271476252808196</v>
+        <v>0.3262671241858026</v>
       </c>
       <c r="CX2">
-        <v>0.3417093188560807</v>
+        <v>0.3408823968912835</v>
       </c>
       <c r="CY2">
-        <v>0.3723902109611731</v>
+        <v>0.3717118046582051</v>
       </c>
       <c r="CZ2">
-        <v>0.3876334165165556</v>
+        <v>0.387012603214815</v>
       </c>
       <c r="DA2">
-        <v>0.3882993086471327</v>
+        <v>0.3876502329876093</v>
       </c>
       <c r="DB2">
-        <v>0.4076248880834396</v>
+        <v>0.4070574492022749</v>
       </c>
       <c r="DC2">
-        <v>0.4415857100928622</v>
+        <v>0.4411861045318125</v>
       </c>
       <c r="DD2">
-        <v>0.4439565634237085</v>
+        <v>0.4435387371395506</v>
       </c>
       <c r="DE2">
-        <v>0.4457764158706267</v>
+        <v>0.4453371236577915</v>
       </c>
       <c r="DF2">
-        <v>0.4457899565992317</v>
+        <v>0.4453371236577915</v>
       </c>
       <c r="DG2">
-        <v>0.4468016027697237</v>
+        <v>0.446322543842798</v>
       </c>
       <c r="DH2">
-        <v>0.4502751843684055</v>
+        <v>0.4497843994083439</v>
       </c>
       <c r="DI2">
-        <v>0.4515026716326018</v>
+        <v>0.4509869319168107</v>
       </c>
       <c r="DJ2">
-        <v>0.4520094314178205</v>
+        <v>0.4514644921095008</v>
       </c>
       <c r="DK2">
-        <v>0.4587646022207841</v>
+        <v>0.4582272643103199</v>
       </c>
       <c r="DL2">
-        <v>0.480218246595019</v>
+        <v>0.4797750790329836</v>
       </c>
       <c r="DM2">
-        <v>0.4831989078080784</v>
+        <v>0.4827411110814838</v>
       </c>
       <c r="DN2">
-        <v>0.5034553472172337</v>
+        <v>0.5030846697138647</v>
       </c>
       <c r="DO2">
-        <v>0.5036788958607132</v>
+        <v>0.5032773507486633</v>
       </c>
       <c r="DP2">
-        <v>0.5038354244161476</v>
+        <v>0.5034026169701645</v>
       </c>
       <c r="DQ2">
-        <v>0.5093786822544605</v>
+        <v>0.5089463384560743</v>
       </c>
       <c r="DR2">
-        <v>0.5094061194626602</v>
+        <v>0.5089463384560743</v>
       </c>
       <c r="DS2">
-        <v>0.5122964119783555</v>
+        <v>0.5118214695666851</v>
       </c>
       <c r="DT2">
-        <v>0.523196917660407</v>
+        <v>0.5227539912423333</v>
       </c>
       <c r="DU2">
-        <v>0.5495246368924738</v>
+        <v>0.5492045874462352</v>
       </c>
       <c r="DV2">
-        <v>0.5515603878330945</v>
+        <v>0.5512201440260012</v>
       </c>
       <c r="DW2">
-        <v>0.5568856361777663</v>
+        <v>0.5565445720173845</v>
       </c>
       <c r="DX2">
-        <v>0.5576039182268153</v>
+        <v>0.5572349002672394</v>
       </c>
       <c r="DY2">
-        <v>0.5579712367861013</v>
+        <v>0.5575721979731675</v>
       </c>
       <c r="DZ2">
-        <v>0.5580322995093202</v>
+        <v>0.5576014361015579</v>
       </c>
       <c r="EA2">
-        <v>0.5628415527690428</v>
+        <v>0.5624068299745311</v>
       </c>
       <c r="EB2">
-        <v>0.5635323841488925</v>
+        <v>0.5630695458801928</v>
       </c>
       <c r="EC2">
-        <v>0.5637724717818896</v>
+        <v>0.563278863313465</v>
       </c>
       <c r="ED2">
-        <v>0.5649120062486513</v>
+        <v>0.564392925012791</v>
       </c>
       <c r="EE2">
-        <v>0.5719073930446082</v>
+        <v>0.5713973279961272</v>
       </c>
       <c r="EF2">
-        <v>0.6130349518449898</v>
+        <v>0.6127349297297525</v>
       </c>
       <c r="EG2">
-        <v>0.6277636594153794</v>
+        <v>0.6275182000853121</v>
       </c>
       <c r="EH2">
-        <v>0.6304500083370232</v>
+        <v>0.6301881864442936</v>
       </c>
       <c r="EI2">
-        <v>0.6304519298498672</v>
+        <v>0.6301881864442936</v>
       </c>
       <c r="EJ2">
-        <v>0.6306724521034349</v>
+        <v>0.6303778232647855</v>
       </c>
       <c r="EK2">
-        <v>0.6309757408445885</v>
+        <v>0.6306507140389895</v>
       </c>
       <c r="EL2">
-        <v>0.6311473409695832</v>
+        <v>0.6307911405964086</v>
       </c>
       <c r="EM2">
-        <v>0.6317065264532727</v>
+        <v>0.6313214352568903</v>
       </c>
       <c r="EN2">
-        <v>0.6350676795552338</v>
+        <v>0.6346702001605643</v>
       </c>
       <c r="EO2">
-        <v>0.6409577269834315</v>
+        <v>0.6405627537076889</v>
       </c>
       <c r="EP2">
-        <v>0.6473466127970789</v>
+        <v>0.6469570836266688</v>
       </c>
       <c r="EQ2">
-        <v>0.6526191380432886</v>
+        <v>0.6522284779986857</v>
       </c>
       <c r="ER2">
-        <v>0.6628832922439013</v>
+        <v>0.6625209003016821</v>
       </c>
       <c r="ES2">
-        <v>0.674501007905033</v>
+        <v>0.6741748560763459</v>
       </c>
       <c r="ET2">
-        <v>0.6748528758247696</v>
+        <v>0.6744966121437753</v>
       </c>
       <c r="EU2">
-        <v>0.6752726891925244</v>
+        <v>0.674886713834527</v>
       </c>
       <c r="EV2">
-        <v>0.6772944801335523</v>
+        <v>0.6768882281951071</v>
       </c>
       <c r="EW2">
-        <v>0.6815947484081211</v>
+        <v>0.6811816393365409</v>
       </c>
       <c r="EX2">
-        <v>0.7004491588581711</v>
+        <v>0.7001149115417824</v>
       </c>
       <c r="EY2">
-        <v>0.7246557311521079</v>
+        <v>0.7244318679821222</v>
       </c>
       <c r="EZ2">
-        <v>0.7476614804810707</v>
+        <v>0.7475409290235104</v>
       </c>
       <c r="FA2">
-        <v>0.7565069017230653</v>
+        <v>0.7564062625190467</v>
       </c>
       <c r="FB2">
-        <v>0.7565121025589137</v>
+        <v>0.7564062625190467</v>
       </c>
       <c r="FC2">
-        <v>0.759333483176619</v>
+        <v>0.7592120758643057</v>
       </c>
       <c r="FD2">
-        <v>0.7629858752700851</v>
+        <v>0.7628537950569092</v>
       </c>
       <c r="FE2">
-        <v>0.7690556140930415</v>
+        <v>0.7689270983192634</v>
       </c>
       <c r="FF2">
-        <v>0.7808070792502719</v>
+        <v>0.7807155913285255</v>
       </c>
       <c r="FG2">
-        <v>0.7865589790824992</v>
+        <v>0.7864691836378855</v>
       </c>
       <c r="FH2">
-        <v>0.7896999104908837</v>
+        <v>0.7895964298180014</v>
       </c>
       <c r="FI2">
-        <v>0.7980673812468193</v>
+        <v>0.7979809978636115</v>
       </c>
       <c r="FJ2">
-        <v>0.8028187737082295</v>
+        <v>0.8027281901580843</v>
       </c>
       <c r="FK2">
-        <v>0.8102453371916097</v>
+        <v>0.810166309311135</v>
       </c>
       <c r="FL2">
-        <v>0.8182065389593955</v>
+        <v>0.8181422155840804</v>
       </c>
       <c r="FM2">
-        <v>0.8218644046527021</v>
+        <v>0.8217894406141435</v>
       </c>
       <c r="FN2">
-        <v>0.8219447782403577</v>
+        <v>0.8218381033413159</v>
       </c>
       <c r="FO2">
-        <v>0.8392534187354952</v>
+        <v>0.8392165015386168</v>
       </c>
       <c r="FP2">
-        <v>0.8803259125374828</v>
+        <v>0.8804987139599595</v>
       </c>
       <c r="FQ2">
-        <v>0.901112931931162</v>
+        <v>0.9013759775103638</v>
       </c>
       <c r="FR2">
-        <v>0.9228993792956898</v>
+        <v>0.9232585553183925</v>
       </c>
       <c r="FS2">
-        <v>0.9405993057794141</v>
+        <v>0.9410305440440845</v>
       </c>
       <c r="FT2">
-        <v>0.9418748339422092</v>
+        <v>0.9422814003955086</v>
       </c>
       <c r="FU2">
-        <v>0.9426455865197276</v>
+        <v>0.943024508207187</v>
       </c>
       <c r="FV2">
-        <v>0.9433547821990417</v>
+        <v>0.9437056965717164</v>
       </c>
       <c r="FW2">
-        <v>0.9453620391404935</v>
+        <v>0.9456925913324651</v>
       </c>
       <c r="FX2">
-        <v>0.9456513035320562</v>
+        <v>0.9459513751584858</v>
       </c>
       <c r="FY2">
-        <v>0.9462862042135373</v>
+        <v>0.9465578309532152</v>
       </c>
       <c r="FZ2">
-        <v>0.9514801360620394</v>
+        <v>0.9517501690394614</v>
       </c>
       <c r="GA2">
-        <v>0.967565557592856</v>
+        <v>0.9678981439337359</v>
       </c>
       <c r="GB2">
-        <v>0.9765456533309225</v>
+        <v>0.976898945111775</v>
       </c>
       <c r="GC2">
-        <v>0.9780508485870186</v>
+        <v>0.9783808212166353</v>
       </c>
       <c r="GD2">
-        <v>0.9848190963896007</v>
+        <v>0.9851567474360999</v>
       </c>
       <c r="GE2">
-        <v>0.9874159049138564</v>
+        <v>0.9877366660355696</v>
       </c>
       <c r="GF2">
-        <v>0.9880411623356188</v>
+        <v>0.9883334217750994</v>
       </c>
       <c r="GG2">
-        <v>0.9889402412693943</v>
+        <v>0.9892056117411072</v>
       </c>
       <c r="GH2">
-        <v>0.9889422903315345</v>
+        <v>0.9892056117411072</v>
       </c>
       <c r="GI2">
-        <v>0.9889614568549754</v>
+        <v>0.9892056117411072</v>
       </c>
       <c r="GJ2">
-        <v>0.9898539692289424</v>
+        <v>0.9900711964725293</v>
       </c>
       <c r="GK2">
-        <v>0.9899115458112631</v>
+        <v>0.9900969279278513</v>
       </c>
       <c r="GL2">
-        <v>0.9900178024681637</v>
+        <v>0.9901716261666385</v>
       </c>
       <c r="GM2">
-        <v>0.9903354475588986</v>
+        <v>0.9904589578443818</v>
       </c>
       <c r="GN2">
-        <v>0.9905589962023781</v>
+        <v>0.9906516388791804</v>
       </c>
       <c r="GO2">
-        <v>0.9946154455840586</v>
+        <v>0.9946997951183618</v>
       </c>
       <c r="GP2">
-        <v>0.9961639530388914</v>
+        <v>0.9962252385159026</v>
       </c>
       <c r="GQ2">
-        <v>0.9983209134759766</v>
+        <v>0.9983627184743507</v>
       </c>
       <c r="GR2">
-        <v>0.9999806042275664</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.161677909238799E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.234037898149271E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7.42585279829273E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.675575261598679E-05</v>
+        <v>1.315296689671626E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002147644202954493</v>
+        <v>0.0001951834784766771</v>
       </c>
       <c r="G3">
-        <v>0.000367018274612695</v>
+        <v>0.0003414170420011063</v>
       </c>
       <c r="H3">
-        <v>0.0004270667442593744</v>
+        <v>0.0003953365628802865</v>
       </c>
       <c r="I3">
-        <v>0.0004800155392384333</v>
+        <v>0.0004421480425927199</v>
       </c>
       <c r="J3">
-        <v>0.0006208321224801712</v>
+        <v>0.0005769308569707519</v>
       </c>
       <c r="K3">
-        <v>0.0008042415697271443</v>
+        <v>0.0007543567282397738</v>
       </c>
       <c r="L3">
-        <v>0.0008911804579024738</v>
+        <v>0.0008351983562352732</v>
       </c>
       <c r="M3">
-        <v>0.0009800177402563195</v>
+        <v>0.0009179406155418306</v>
       </c>
       <c r="N3">
-        <v>0.001113717572828831</v>
+        <v>0.001045598292628567</v>
       </c>
       <c r="O3">
-        <v>0.001191472050140501</v>
+        <v>0.00111724468653694</v>
       </c>
       <c r="P3">
-        <v>0.001219525838778549</v>
+        <v>0.001139131822782571</v>
       </c>
       <c r="Q3">
-        <v>0.00122055545247537</v>
+        <v>0.001139131822782571</v>
       </c>
       <c r="R3">
-        <v>0.001220555534491917</v>
+        <v>0.001139131822782571</v>
       </c>
       <c r="S3">
-        <v>0.001226747949074223</v>
+        <v>0.001139131822782571</v>
       </c>
       <c r="T3">
-        <v>0.001275429668652026</v>
+        <v>0.001181671198626349</v>
       </c>
       <c r="U3">
-        <v>0.001365413697113706</v>
+        <v>0.001265561555405523</v>
       </c>
       <c r="V3">
-        <v>0.001418426369098772</v>
+        <v>0.001312436987398808</v>
       </c>
       <c r="W3">
-        <v>0.001622302348270323</v>
+        <v>0.001510353509052687</v>
       </c>
       <c r="X3">
-        <v>0.001829079987714732</v>
+        <v>0.001711175110395</v>
       </c>
       <c r="Y3">
-        <v>0.001973764881320228</v>
+        <v>0.001849830793685849</v>
       </c>
       <c r="Z3">
-        <v>0.00205643369909402</v>
+        <v>0.001926397319283</v>
       </c>
       <c r="AA3">
-        <v>0.002166652129458449</v>
+        <v>0.002030545922875257</v>
       </c>
       <c r="AB3">
-        <v>0.002275457809690031</v>
+        <v>0.002133280111501653</v>
       </c>
       <c r="AC3">
-        <v>0.002517253182427345</v>
+        <v>0.002369160712229857</v>
       </c>
       <c r="AD3">
-        <v>0.002647949544717425</v>
+        <v>0.002493811379642192</v>
       </c>
       <c r="AE3">
-        <v>0.002734760516880725</v>
+        <v>0.002574524940885065</v>
       </c>
       <c r="AF3">
-        <v>0.002850478892762345</v>
+        <v>0.002684179971318165</v>
       </c>
       <c r="AG3">
-        <v>0.002962595163305238</v>
+        <v>0.002790228651568575</v>
       </c>
       <c r="AH3">
-        <v>0.002977242722682627</v>
+        <v>0.00279869376019508</v>
       </c>
       <c r="AI3">
-        <v>0.002983413319262881</v>
+        <v>0.00279869376019508</v>
       </c>
       <c r="AJ3">
-        <v>0.003006145521400512</v>
+        <v>0.002815253038800996</v>
       </c>
       <c r="AK3">
-        <v>0.003008054238079999</v>
+        <v>0.002815253038800996</v>
       </c>
       <c r="AL3">
-        <v>0.003056205220607894</v>
+        <v>0.002857261052156198</v>
       </c>
       <c r="AM3">
-        <v>0.003126981237263342</v>
+        <v>0.002921920761751955</v>
       </c>
       <c r="AN3">
-        <v>0.003214550645497962</v>
+        <v>0.00300339365283312</v>
       </c>
       <c r="AO3">
-        <v>0.003369873740103825</v>
+        <v>0.003152700073543756</v>
       </c>
       <c r="AP3">
-        <v>0.003532860345430329</v>
+        <v>0.003309679035917822</v>
       </c>
       <c r="AQ3">
-        <v>0.003685669949799835</v>
+        <v>0.003456469004409355</v>
       </c>
       <c r="AR3">
-        <v>0.003891352259141245</v>
+        <v>0.003656193984874263</v>
       </c>
       <c r="AS3">
-        <v>0.004187937227030718</v>
+        <v>0.003946928746684958</v>
       </c>
       <c r="AT3">
-        <v>0.004376872574797321</v>
+        <v>0.004129887030383526</v>
       </c>
       <c r="AU3">
-        <v>0.004560282022044294</v>
+        <v>0.004307312901652548</v>
       </c>
       <c r="AV3">
-        <v>0.004674699478803581</v>
+        <v>0.004415665479915788</v>
       </c>
       <c r="AW3">
-        <v>0.004692007799431176</v>
+        <v>0.004426794485324437</v>
       </c>
       <c r="AX3">
-        <v>0.004712890111394852</v>
+        <v>0.004441501693782633</v>
       </c>
       <c r="AY3">
-        <v>0.004719423025609177</v>
+        <v>0.004441842594671048</v>
       </c>
       <c r="AZ3">
-        <v>0.00477145731750224</v>
+        <v>0.004487738493615814</v>
       </c>
       <c r="BA3">
-        <v>0.005013252690239554</v>
+        <v>0.004723619094344017</v>
       </c>
       <c r="BB3">
-        <v>0.005241595571711858</v>
+        <v>0.004946031350932018</v>
       </c>
       <c r="BC3">
-        <v>0.0053793293146637</v>
+        <v>0.005077727692095858</v>
       </c>
       <c r="BD3">
-        <v>0.005488134994895281</v>
+        <v>0.005180461880722255</v>
       </c>
       <c r="BE3">
-        <v>0.005763189790760157</v>
+        <v>0.005449641098618249</v>
       </c>
       <c r="BF3">
-        <v>0.005806828718863759</v>
+        <v>0.00548713174039011</v>
       </c>
       <c r="BG3">
-        <v>0.005824703241544596</v>
+        <v>0.005498827615083841</v>
       </c>
       <c r="BH3">
-        <v>0.005845585553508273</v>
+        <v>0.005513534823542036</v>
       </c>
       <c r="BI3">
-        <v>0.005852646303172233</v>
+        <v>0.00551440418189941</v>
       </c>
       <c r="BJ3">
-        <v>0.005852744151901434</v>
+        <v>0.00551440418189941</v>
       </c>
       <c r="BK3">
-        <v>0.005904778443794497</v>
+        <v>0.005560300080844176</v>
       </c>
       <c r="BL3">
-        <v>0.006095384411718197</v>
+        <v>0.005744930953415697</v>
       </c>
       <c r="BM3">
-        <v>0.006145489276429827</v>
+        <v>0.005788895151476135</v>
       </c>
       <c r="BN3">
-        <v>0.006163400921114155</v>
+        <v>0.005800628191919194</v>
       </c>
       <c r="BO3">
-        <v>0.006185535286195568</v>
+        <v>0.005816588928957285</v>
       </c>
       <c r="BP3">
-        <v>0.006209837408480827</v>
+        <v>0.005834719977758355</v>
       </c>
       <c r="BQ3">
-        <v>0.00622005955944207</v>
+        <v>0.005838754462916282</v>
       </c>
       <c r="BR3">
-        <v>0.006245031753790339</v>
+        <v>0.005857556373416167</v>
       </c>
       <c r="BS3">
-        <v>0.006247331719406617</v>
+        <v>0.005857556373416167</v>
       </c>
       <c r="BT3">
-        <v>0.006264360356007911</v>
+        <v>0.005868405365209307</v>
       </c>
       <c r="BU3">
-        <v>0.006339167277042406</v>
+        <v>0.005937100729339511</v>
       </c>
       <c r="BV3">
-        <v>0.006683655709436499</v>
+        <v>0.006275795406733599</v>
       </c>
       <c r="BW3">
-        <v>0.007188800156937939</v>
+        <v>0.006775335421770636</v>
       </c>
       <c r="BX3">
-        <v>0.007426280089269449</v>
+        <v>0.007006895496630662</v>
       </c>
       <c r="BY3">
-        <v>0.007509483707093531</v>
+        <v>0.007083997452504749</v>
       </c>
       <c r="BZ3">
-        <v>0.007648702840185052</v>
+        <v>0.007217180934242744</v>
       </c>
       <c r="CA3">
-        <v>0.007718347666734128</v>
+        <v>0.00728070812069907</v>
       </c>
       <c r="CB3">
-        <v>0.007753605564049617</v>
+        <v>0.007309807855189873</v>
       </c>
       <c r="CC3">
-        <v>0.007755718084248269</v>
+        <v>0.007309807855189873</v>
       </c>
       <c r="CD3">
-        <v>0.007782755168790711</v>
+        <v>0.007330677089221064</v>
       </c>
       <c r="CE3">
-        <v>0.007784226082429029</v>
+        <v>0.007330677089221064</v>
       </c>
       <c r="CF3">
-        <v>0.007785865282983172</v>
+        <v>0.007330677089221064</v>
       </c>
       <c r="CG3">
-        <v>0.007796968910027306</v>
+        <v>0.007335594089223406</v>
       </c>
       <c r="CH3">
-        <v>0.007855010175485237</v>
+        <v>0.007387504040555863</v>
       </c>
       <c r="CI3">
-        <v>0.007872921820169564</v>
+        <v>0.007399237080998921</v>
       </c>
       <c r="CJ3">
-        <v>0.007885099905314734</v>
+        <v>0.007405229805280425</v>
       </c>
       <c r="CK3">
-        <v>0.008081338353768086</v>
+        <v>0.007595499795889038</v>
       </c>
       <c r="CL3">
-        <v>0.008171322382229767</v>
+        <v>0.007679390152668213</v>
       </c>
       <c r="CM3">
-        <v>0.00820583475547515</v>
+        <v>0.007707743484537882</v>
       </c>
       <c r="CN3">
-        <v>0.008246408159290484</v>
+        <v>0.007742164989502947</v>
       </c>
       <c r="CO3">
-        <v>0.008776117769101918</v>
+        <v>0.008266299115276297</v>
       </c>
       <c r="CP3">
-        <v>0.1450729705858253</v>
+        <v>0.1447175690868081</v>
       </c>
       <c r="CQ3">
-        <v>0.1518894492268154</v>
+        <v>0.1515358807871186</v>
       </c>
       <c r="CR3">
-        <v>0.2743331367408514</v>
+        <v>0.2741176604127987</v>
       </c>
       <c r="CS3">
-        <v>0.2841137626605761</v>
+        <v>0.2839036124442411</v>
       </c>
       <c r="CT3">
-        <v>0.3099773980926723</v>
+        <v>0.3097915267557992</v>
       </c>
       <c r="CU3">
-        <v>0.3102752980906854</v>
+        <v>0.3100835780974099</v>
       </c>
       <c r="CV3">
-        <v>0.3459490614452806</v>
+        <v>0.3457931809212876</v>
       </c>
       <c r="CW3">
-        <v>0.3632009930675721</v>
+        <v>0.3630592430971284</v>
       </c>
       <c r="CX3">
-        <v>0.36676314180254</v>
+        <v>0.3666193898778999</v>
       </c>
       <c r="CY3">
-        <v>0.366970764812064</v>
+        <v>0.3668210578455347</v>
       </c>
       <c r="CZ3">
-        <v>0.3794988669901486</v>
+        <v>0.3793577238552033</v>
       </c>
       <c r="DA3">
-        <v>0.4262292143844535</v>
+        <v>0.4261369401750742</v>
       </c>
       <c r="DB3">
-        <v>0.4306456507997548</v>
+        <v>0.4305523813579608</v>
       </c>
       <c r="DC3">
-        <v>0.4582589113963776</v>
+        <v>0.4581919826520999</v>
       </c>
       <c r="DD3">
-        <v>0.4801506414549743</v>
+        <v>0.4801033109612011</v>
       </c>
       <c r="DE3">
-        <v>0.4829082641142884</v>
+        <v>0.4828579835853116</v>
       </c>
       <c r="DF3">
-        <v>0.4832189627235051</v>
+        <v>0.4831628486204465</v>
       </c>
       <c r="DG3">
-        <v>0.4837212741707401</v>
+        <v>0.4836595522967129</v>
       </c>
       <c r="DH3">
-        <v>0.4837212775864457</v>
+        <v>0.4836595522967129</v>
       </c>
       <c r="DI3">
-        <v>0.4837903602429419</v>
+        <v>0.4837225166506359</v>
       </c>
       <c r="DJ3">
-        <v>0.4874411613862463</v>
+        <v>0.48737142031077</v>
       </c>
       <c r="DK3">
-        <v>0.4879880978376777</v>
+        <v>0.4879128015788618</v>
       </c>
       <c r="DL3">
-        <v>0.4879891970828811</v>
+        <v>0.4879128015788618</v>
       </c>
       <c r="DM3">
-        <v>0.50840203900241</v>
+        <v>0.5083434989765989</v>
       </c>
       <c r="DN3">
-        <v>0.5148574716094489</v>
+        <v>0.5148003391739799</v>
       </c>
       <c r="DO3">
-        <v>0.5434719153002184</v>
+        <v>0.5434423033906205</v>
       </c>
       <c r="DP3">
-        <v>0.546441889079501</v>
+        <v>0.5464095773765124</v>
       </c>
       <c r="DQ3">
-        <v>0.5476206423903455</v>
+        <v>0.547583520058585</v>
       </c>
       <c r="DR3">
-        <v>0.5511626764234219</v>
+        <v>0.5511235284336133</v>
       </c>
       <c r="DS3">
-        <v>0.5559561668741795</v>
+        <v>0.5559164679853105</v>
       </c>
       <c r="DT3">
-        <v>0.5590395349641251</v>
+        <v>0.5589972699095943</v>
       </c>
       <c r="DU3">
-        <v>0.5595568891127747</v>
+        <v>0.5595090340141083</v>
       </c>
       <c r="DV3">
-        <v>0.5863993736369173</v>
+        <v>0.5863769509269167</v>
       </c>
       <c r="DW3">
-        <v>0.5915853614245835</v>
+        <v>0.5915628503477904</v>
       </c>
       <c r="DX3">
-        <v>0.5930058886581633</v>
+        <v>0.592978851867247</v>
       </c>
       <c r="DY3">
-        <v>0.5943486441844298</v>
+        <v>0.5943169900305539</v>
       </c>
       <c r="DZ3">
-        <v>0.5956765999093045</v>
+        <v>0.5956403109518777</v>
       </c>
       <c r="EA3">
-        <v>0.5966366607995842</v>
+        <v>0.5965953034987674</v>
       </c>
       <c r="EB3">
-        <v>0.599864104103078</v>
+        <v>0.5998203504197521</v>
       </c>
       <c r="EC3">
-        <v>0.6022193185245515</v>
+        <v>0.6021721405944098</v>
       </c>
       <c r="ED3">
-        <v>0.603461474441358</v>
+        <v>0.6034095605982409</v>
       </c>
       <c r="EE3">
-        <v>0.6041551950365923</v>
+        <v>0.6040978989855843</v>
       </c>
       <c r="EF3">
-        <v>0.6041920743800603</v>
+        <v>0.6041286220769951</v>
       </c>
       <c r="EG3">
-        <v>0.6406048278041466</v>
+        <v>0.640578085821503</v>
       </c>
       <c r="EH3">
-        <v>0.6630156059115522</v>
+        <v>0.6630090738433625</v>
       </c>
       <c r="EI3">
-        <v>0.6703891746049283</v>
+        <v>0.6703851320900049</v>
       </c>
       <c r="EJ3">
-        <v>0.6707237132763868</v>
+        <v>0.6707138652813253</v>
       </c>
       <c r="EK3">
-        <v>0.6707339073893455</v>
+        <v>0.6707178716954396</v>
       </c>
       <c r="EL3">
-        <v>0.6707529799611389</v>
+        <v>0.670730767031068</v>
       </c>
       <c r="EM3">
-        <v>0.6720548274835586</v>
+        <v>0.6720279489831392</v>
       </c>
       <c r="EN3">
-        <v>0.6726035492951579</v>
+        <v>0.6725711177153284</v>
       </c>
       <c r="EO3">
-        <v>0.6736144619902193</v>
+        <v>0.6735770219925036</v>
       </c>
       <c r="EP3">
-        <v>0.6778415767877176</v>
+        <v>0.6778029184545262</v>
       </c>
       <c r="EQ3">
-        <v>0.6860680935613011</v>
+        <v>0.6860329299245271</v>
       </c>
       <c r="ER3">
-        <v>0.6950969264103306</v>
+        <v>0.6950662029466416</v>
       </c>
       <c r="ES3">
-        <v>0.701466577009303</v>
+        <v>0.7014371600475078</v>
       </c>
       <c r="ET3">
-        <v>0.7132481031171831</v>
+        <v>0.7132263701962305</v>
       </c>
       <c r="EU3">
-        <v>0.7181670271797359</v>
+        <v>0.7181448911749753</v>
       </c>
       <c r="EV3">
-        <v>0.7185525031459843</v>
+        <v>0.7185246216873336</v>
       </c>
       <c r="EW3">
-        <v>0.7204862400278239</v>
+        <v>0.7204544376388288</v>
       </c>
       <c r="EX3">
-        <v>0.7240599611638801</v>
+        <v>0.7240261704580012</v>
       </c>
       <c r="EY3">
-        <v>0.734692833163746</v>
+        <v>0.7346653728854753</v>
       </c>
       <c r="EZ3">
-        <v>0.7525667778445289</v>
+        <v>0.7525541811212411</v>
       </c>
       <c r="FA3">
-        <v>0.7786356612959257</v>
+        <v>0.7786475853233762</v>
       </c>
       <c r="FB3">
-        <v>0.7938992557312432</v>
+        <v>0.7939229671877878</v>
       </c>
       <c r="FC3">
-        <v>0.7957517421054424</v>
+        <v>0.7957714368832691</v>
       </c>
       <c r="FD3">
-        <v>0.7981667211325358</v>
+        <v>0.7981830620921995</v>
       </c>
       <c r="FE3">
-        <v>0.8021658615085965</v>
+        <v>0.8021807154799395</v>
       </c>
       <c r="FF3">
-        <v>0.8055503355268567</v>
+        <v>0.8055629781660485</v>
       </c>
       <c r="FG3">
-        <v>0.8134695802715457</v>
+        <v>0.8134853555073009</v>
       </c>
       <c r="FH3">
-        <v>0.8177480506738732</v>
+        <v>0.8177626680933517</v>
       </c>
       <c r="FI3">
-        <v>0.8187207014653368</v>
+        <v>0.8187302653777949</v>
       </c>
       <c r="FJ3">
-        <v>0.8221682977895328</v>
+        <v>0.822175724755321</v>
       </c>
       <c r="FK3">
-        <v>0.8290338878351411</v>
+        <v>0.8290432057348063</v>
       </c>
       <c r="FL3">
-        <v>0.8361458775039196</v>
+        <v>0.8361573767031939</v>
       </c>
       <c r="FM3">
-        <v>0.8418548234407623</v>
+        <v>0.8418668505449894</v>
       </c>
       <c r="FN3">
-        <v>0.8475535742766465</v>
+        <v>0.8475661172715712</v>
       </c>
       <c r="FO3">
-        <v>0.8505456604580084</v>
+        <v>0.8505555297175523</v>
       </c>
       <c r="FP3">
-        <v>0.8552270458982242</v>
+        <v>0.8552362321503341</v>
       </c>
       <c r="FQ3">
-        <v>0.888380159015789</v>
+        <v>0.8884222143168463</v>
       </c>
       <c r="FR3">
-        <v>0.9107303491174972</v>
+        <v>0.910792542934033</v>
       </c>
       <c r="FS3">
-        <v>0.9251443694729248</v>
+        <v>0.9252173495514406</v>
       </c>
       <c r="FT3">
-        <v>0.9470161285296435</v>
+        <v>0.9471086833241531</v>
       </c>
       <c r="FU3">
-        <v>0.9506506338714155</v>
+        <v>0.9507412719792256</v>
       </c>
       <c r="FV3">
-        <v>0.9507827772538416</v>
+        <v>0.950867371371992</v>
       </c>
       <c r="FW3">
-        <v>0.9511694070901985</v>
+        <v>0.9512482571142187</v>
       </c>
       <c r="FX3">
-        <v>0.9512190352948653</v>
+        <v>0.9512917440905219</v>
       </c>
       <c r="FY3">
-        <v>0.9525816512229993</v>
+        <v>0.9526497660598723</v>
       </c>
       <c r="FZ3">
-        <v>0.9526028027519883</v>
+        <v>0.9526647428026104</v>
       </c>
       <c r="GA3">
-        <v>0.9528638602365369</v>
+        <v>0.9529199082142804</v>
       </c>
       <c r="GB3">
-        <v>0.9641572222985123</v>
+        <v>0.9642203790479129</v>
       </c>
       <c r="GC3">
-        <v>0.9771915020241955</v>
+        <v>0.9772638191020913</v>
       </c>
       <c r="GD3">
-        <v>0.978888933883814</v>
+        <v>0.978957051561456</v>
       </c>
       <c r="GE3">
-        <v>0.9837277069388298</v>
+        <v>0.9837953270799787</v>
       </c>
       <c r="GF3">
-        <v>0.9881531193549751</v>
+        <v>0.9882197548413354</v>
       </c>
       <c r="GG3">
-        <v>0.9883637977847863</v>
+        <v>0.9884244818298691</v>
       </c>
       <c r="GH3">
-        <v>0.9894549344873917</v>
+        <v>0.9895107046532988</v>
       </c>
       <c r="GI3">
-        <v>0.9894785756526149</v>
+        <v>0.9895281739661433</v>
       </c>
       <c r="GJ3">
-        <v>0.9895330729807396</v>
+        <v>0.9895765358038457</v>
       </c>
       <c r="GK3">
-        <v>0.9901914666426519</v>
+        <v>0.9902295056274023</v>
       </c>
       <c r="GL3">
-        <v>0.9915100997666501</v>
+        <v>0.9915434929617781</v>
       </c>
       <c r="GM3">
-        <v>0.991551104270506</v>
+        <v>0.9915783460748068</v>
       </c>
       <c r="GN3">
-        <v>0.9915626623035928</v>
+        <v>0.9915837180163395</v>
       </c>
       <c r="GO3">
-        <v>0.9915737367076342</v>
+        <v>0.9915886057589017</v>
       </c>
       <c r="GP3">
-        <v>0.9948345000142612</v>
+        <v>0.9948470119484495</v>
       </c>
       <c r="GQ3">
-        <v>0.9963918285607052</v>
+        <v>0.9963999759921098</v>
       </c>
       <c r="GR3">
-        <v>0.9977441732878735</v>
+        <v>0.9977477146565603</v>
       </c>
       <c r="GS3">
         <v>1.000000000000001</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.018014511117295E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.142350929993533E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>8.175819290116819E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.076635759965944E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8.075138785745947E-05</v>
+        <v>4.623309533091085E-05</v>
       </c>
       <c r="G4">
-        <v>0.0002011563083009885</v>
+        <v>0.0001431000640874121</v>
       </c>
       <c r="H4">
-        <v>0.0002069124666221922</v>
+        <v>0.0001431000640874121</v>
       </c>
       <c r="I4">
-        <v>0.0002069844540374573</v>
+        <v>0.0001431000640874121</v>
       </c>
       <c r="J4">
-        <v>0.0002309317741256708</v>
+        <v>0.0001431000640874121</v>
       </c>
       <c r="K4">
-        <v>0.0002594991752309029</v>
+        <v>0.0001477397528406001</v>
       </c>
       <c r="L4">
-        <v>0.0003002702913810892</v>
+        <v>0.0001646349495021151</v>
       </c>
       <c r="M4">
-        <v>0.0004575156819603255</v>
+        <v>0.0002984987402453217</v>
       </c>
       <c r="N4">
-        <v>0.0005906175524506255</v>
+        <v>0.0004081165452133071</v>
       </c>
       <c r="O4">
-        <v>0.0007394896729990176</v>
+        <v>0.0005335715295640702</v>
       </c>
       <c r="P4">
-        <v>0.00108756115428119</v>
+        <v>0.0008590712815789163</v>
       </c>
       <c r="Q4">
-        <v>0.001230378524807278</v>
+        <v>0.0009784458194010655</v>
       </c>
       <c r="R4">
-        <v>0.001354945055266137</v>
+        <v>0.001079492060146987</v>
       </c>
       <c r="S4">
-        <v>0.001488046925756437</v>
+        <v>0.001189109865114973</v>
       </c>
       <c r="T4">
-        <v>0.001497898647792727</v>
+        <v>0.001189109865114973</v>
       </c>
       <c r="U4">
-        <v>0.001513349927849644</v>
+        <v>0.001189109865114973</v>
       </c>
       <c r="V4">
-        <v>0.0015208576228773</v>
+        <v>0.001189109865114973</v>
       </c>
       <c r="W4">
-        <v>0.0015229208998849</v>
+        <v>0.001189109865114973</v>
       </c>
       <c r="X4">
-        <v>0.001746387240708071</v>
+        <v>0.001389475649425051</v>
       </c>
       <c r="Y4">
-        <v>0.002225142022471634</v>
+        <v>0.001846213325025975</v>
       </c>
       <c r="Z4">
-        <v>0.002383707333055732</v>
+        <v>0.001981402637546637</v>
       </c>
       <c r="AA4">
-        <v>0.002437402638253526</v>
+        <v>0.002011276873828318</v>
       </c>
       <c r="AB4">
-        <v>0.002703993319235552</v>
+        <v>0.002254950019045413</v>
       </c>
       <c r="AC4">
-        <v>0.003093049320668697</v>
+        <v>0.002621608230511253</v>
       </c>
       <c r="AD4">
-        <v>0.0030938103164715</v>
+        <v>0.002621608230511253</v>
       </c>
       <c r="AE4">
-        <v>0.003120169712568599</v>
+        <v>0.002624030543429367</v>
       </c>
       <c r="AF4">
-        <v>0.003213953968914066</v>
+        <v>0.002694163869342119</v>
       </c>
       <c r="AG4">
-        <v>0.003236593483997463</v>
+        <v>0.002694163869342119</v>
       </c>
       <c r="AH4">
-        <v>0.003258172184076951</v>
+        <v>0.002694163869342119</v>
       </c>
       <c r="AI4">
-        <v>0.003380563064527795</v>
+        <v>0.002793025226568493</v>
       </c>
       <c r="AJ4">
-        <v>0.003530719545080919</v>
+        <v>0.002919770021779076</v>
       </c>
       <c r="AK4">
-        <v>0.00353129283188303</v>
+        <v>0.002919770021779076</v>
       </c>
       <c r="AL4">
-        <v>0.003552042345959464</v>
+        <v>0.002919770021779076</v>
       </c>
       <c r="AM4">
-        <v>0.003552493655731127</v>
+        <v>0.002919770021779076</v>
       </c>
       <c r="AN4">
-        <v>0.003573036992806801</v>
+        <v>0.002919770021779076</v>
       </c>
       <c r="AO4">
-        <v>0.003573070461166924</v>
+        <v>0.002919770021779076</v>
       </c>
       <c r="AP4">
-        <v>0.003605655764286957</v>
+        <v>0.002928444664620907</v>
       </c>
       <c r="AQ4">
-        <v>0.003669490514522102</v>
+        <v>0.002968501377991207</v>
       </c>
       <c r="AR4">
-        <v>0.003817446405067119</v>
+        <v>0.003093036243836184</v>
       </c>
       <c r="AS4">
-        <v>0.004195607226460129</v>
+        <v>0.003448753035852893</v>
       </c>
       <c r="AT4">
-        <v>0.004845249028853179</v>
+        <v>0.004077102980753817</v>
       </c>
       <c r="AU4">
-        <v>0.005162242710020871</v>
+        <v>0.004371393037714869</v>
       </c>
       <c r="AV4">
-        <v>0.005270848120420935</v>
+        <v>0.004456410419020386</v>
       </c>
       <c r="AW4">
-        <v>0.005401359690901693</v>
+        <v>0.004563426930682609</v>
       </c>
       <c r="AX4">
-        <v>0.005424576590987216</v>
+        <v>0.004563426930682609</v>
       </c>
       <c r="AY4">
-        <v>0.005425377684840168</v>
+        <v>0.004563426930682609</v>
       </c>
       <c r="AZ4">
-        <v>0.005442967652904963</v>
+        <v>0.004563426930682609</v>
       </c>
       <c r="BA4">
-        <v>0.005524100088203826</v>
+        <v>0.004620854740912616</v>
       </c>
       <c r="BB4">
-        <v>0.005581152918413988</v>
+        <v>0.004654100751624452</v>
       </c>
       <c r="BC4">
-        <v>0.005666400808728011</v>
+        <v>0.004715661482960767</v>
       </c>
       <c r="BD4">
-        <v>0.005725170578944498</v>
+        <v>0.004750631720414061</v>
       </c>
       <c r="BE4">
-        <v>0.005918265999655793</v>
+        <v>0.004920497689688867</v>
       </c>
       <c r="BF4">
-        <v>0.006040656880106637</v>
+        <v>0.005019359046915242</v>
       </c>
       <c r="BG4">
-        <v>0.006075600230235356</v>
+        <v>0.005030401744374598</v>
       </c>
       <c r="BH4">
-        <v>0.006287965291017633</v>
+        <v>0.005219619134541371</v>
       </c>
       <c r="BI4">
-        <v>0.006606831862192224</v>
+        <v>0.00551579003010005</v>
       </c>
       <c r="BJ4">
-        <v>0.006644493579330957</v>
+        <v>0.005529562631385104</v>
       </c>
       <c r="BK4">
-        <v>0.006662720055398097</v>
+        <v>0.005529562631385104</v>
       </c>
       <c r="BL4">
-        <v>0.006939224986416644</v>
+        <v>0.005783192102956931</v>
       </c>
       <c r="BM4">
-        <v>0.007123029207093713</v>
+        <v>0.00594372744011866</v>
       </c>
       <c r="BN4">
-        <v>0.007123062675453836</v>
+        <v>0.00594372744011866</v>
       </c>
       <c r="BO4">
-        <v>0.00713821974050967</v>
+        <v>0.00594372744011866</v>
       </c>
       <c r="BP4">
-        <v>0.00716014921659045</v>
+        <v>0.00594372744011866</v>
       </c>
       <c r="BQ4">
-        <v>0.007195809008721808</v>
+        <v>0.005955489620177933</v>
       </c>
       <c r="BR4">
-        <v>0.007270917882998482</v>
+        <v>0.006006868305246315</v>
       </c>
       <c r="BS4">
-        <v>0.007272010858302509</v>
+        <v>0.006006868305246315</v>
       </c>
       <c r="BT4">
-        <v>0.007321884098486224</v>
+        <v>0.006032904255577068</v>
       </c>
       <c r="BU4">
-        <v>0.007413930918825292</v>
+        <v>0.006101292771762763</v>
       </c>
       <c r="BV4">
-        <v>0.007527023115241884</v>
+        <v>0.006190815981113755</v>
       </c>
       <c r="BW4">
-        <v>0.007746687026051048</v>
+        <v>0.006387363197804394</v>
       </c>
       <c r="BX4">
-        <v>0.007811729206290641</v>
+        <v>0.006428632465541439</v>
       </c>
       <c r="BY4">
-        <v>0.007892593166588515</v>
+        <v>0.006485790661356025</v>
       </c>
       <c r="BZ4">
-        <v>0.008073287207254129</v>
+        <v>0.006643202618826708</v>
       </c>
       <c r="CA4">
-        <v>0.008239134947865052</v>
+        <v>0.006785705268184295</v>
       </c>
       <c r="CB4">
-        <v>0.00824419197488368</v>
+        <v>0.006785705268184295</v>
       </c>
       <c r="CC4">
-        <v>0.008275222136997985</v>
+        <v>0.006792818169964156</v>
       </c>
       <c r="CD4">
-        <v>0.008429650977566846</v>
+        <v>0.006923853457190262</v>
       </c>
       <c r="CE4">
-        <v>0.008446493098628886</v>
+        <v>0.006923853457190262</v>
       </c>
       <c r="CF4">
-        <v>0.008447124743781212</v>
+        <v>0.006923853457190262</v>
       </c>
       <c r="CG4">
-        <v>0.008456510004815784</v>
+        <v>0.006923853457190262</v>
       </c>
       <c r="CH4">
-        <v>0.008509074233009412</v>
+        <v>0.006952591816149469</v>
       </c>
       <c r="CI4">
-        <v>0.008539298344120747</v>
+        <v>0.006958895246026307</v>
       </c>
       <c r="CJ4">
-        <v>0.008711399364754705</v>
+        <v>0.00710767771447939</v>
       </c>
       <c r="CK4">
-        <v>0.008820054405154952</v>
+        <v>0.007192744936416018</v>
       </c>
       <c r="CL4">
-        <v>0.009177159076470398</v>
+        <v>0.007527316215542274</v>
       </c>
       <c r="CM4">
-        <v>0.009694510478376137</v>
+        <v>0.0080228143162797</v>
       </c>
       <c r="CN4">
-        <v>0.0145680414963285</v>
+        <v>0.01289297976527074</v>
       </c>
       <c r="CO4">
-        <v>0.1254010419045979</v>
+        <v>0.1241723091689783</v>
       </c>
       <c r="CP4">
-        <v>0.1277306445131794</v>
+        <v>0.1264877497145758</v>
       </c>
       <c r="CQ4">
-        <v>0.20076715478222</v>
+        <v>0.1998101797559168</v>
       </c>
       <c r="CR4">
-        <v>0.219111756849795</v>
+        <v>0.2182085878076017</v>
       </c>
       <c r="CS4">
-        <v>0.227913379882217</v>
+        <v>0.2270235161890798</v>
       </c>
       <c r="CT4">
-        <v>0.2290754561864977</v>
+        <v>0.2281664754203538</v>
       </c>
       <c r="CU4">
-        <v>0.2688934933331732</v>
+        <v>0.2681294523317218</v>
       </c>
       <c r="CV4">
-        <v>0.2716854247434577</v>
+        <v>0.2709091838136978</v>
       </c>
       <c r="CW4">
-        <v>0.3280568829511101</v>
+        <v>0.3274958349075067</v>
       </c>
       <c r="CX4">
-        <v>0.3309023055615917</v>
+        <v>0.330329284607634</v>
       </c>
       <c r="CY4">
-        <v>0.3313476555232322</v>
+        <v>0.3307524756922431</v>
       </c>
       <c r="CZ4">
-        <v>0.3504925835937553</v>
+        <v>0.3499546063498919</v>
       </c>
       <c r="DA4">
-        <v>0.386315153725713</v>
+        <v>0.3859051593873855</v>
       </c>
       <c r="DB4">
-        <v>0.3924494467483096</v>
+        <v>0.3920414375456227</v>
       </c>
       <c r="DC4">
-        <v>0.443828553937572</v>
+        <v>0.4436145499619351</v>
       </c>
       <c r="DD4">
-        <v>0.4465194200474842</v>
+        <v>0.4462927872199468</v>
       </c>
       <c r="DE4">
-        <v>0.4465271352285126</v>
+        <v>0.4462927872199468</v>
       </c>
       <c r="DF4">
-        <v>0.446777529049435</v>
+        <v>0.4465201947652363</v>
       </c>
       <c r="DG4">
-        <v>0.4496374253599698</v>
+        <v>0.4493681795921519</v>
       </c>
       <c r="DH4">
-        <v>0.4498105144406074</v>
+        <v>0.4495179543139592</v>
       </c>
       <c r="DI4">
-        <v>0.4501160926417331</v>
+        <v>0.4498007804433034</v>
       </c>
       <c r="DJ4">
-        <v>0.4568432836665137</v>
+        <v>0.4565324728772617</v>
       </c>
       <c r="DK4">
-        <v>0.4576711206695631</v>
+        <v>0.4573397742875833</v>
       </c>
       <c r="DL4">
-        <v>0.4602018876788855</v>
+        <v>0.4598572329805296</v>
       </c>
       <c r="DM4">
-        <v>0.4774036227422506</v>
+        <v>0.477107923672651</v>
       </c>
       <c r="DN4">
-        <v>0.4820577497593947</v>
+        <v>0.4817577539649198</v>
       </c>
       <c r="DO4">
-        <v>0.4951907858077722</v>
+        <v>0.4949224779845073</v>
       </c>
       <c r="DP4">
-        <v>0.4952696335880626</v>
+        <v>0.4949776114435975</v>
       </c>
       <c r="DQ4">
-        <v>0.4955164698889719</v>
+        <v>0.4952014463706725</v>
       </c>
       <c r="DR4">
-        <v>0.5012400315100555</v>
+        <v>0.5009252499733422</v>
       </c>
       <c r="DS4">
-        <v>0.501804005312133</v>
+        <v>0.5014675683408513</v>
       </c>
       <c r="DT4">
-        <v>0.5064509683292507</v>
+        <v>0.5061102042289034</v>
       </c>
       <c r="DU4">
-        <v>0.5126466553520734</v>
+        <v>0.5123081369449964</v>
       </c>
       <c r="DV4">
-        <v>0.5253381603988244</v>
+        <v>0.5250294560946512</v>
       </c>
       <c r="DW4">
-        <v>0.5274492910066011</v>
+        <v>0.5271254974389605</v>
       </c>
       <c r="DX4">
-        <v>0.5292951782134007</v>
+        <v>0.5289551696828499</v>
       </c>
       <c r="DY4">
-        <v>0.5309086912193443</v>
+        <v>0.5305514815241249</v>
       </c>
       <c r="DZ4">
-        <v>0.5343288027319427</v>
+        <v>0.5339620591200428</v>
       </c>
       <c r="EA4">
-        <v>0.5347011360933143</v>
+        <v>0.534311923720156</v>
       </c>
       <c r="EB4">
-        <v>0.5367936594010224</v>
+        <v>0.5363892787945629</v>
       </c>
       <c r="EC4">
-        <v>0.5379848092054101</v>
+        <v>0.5375614349145853</v>
       </c>
       <c r="ED4">
-        <v>0.5380990212008309</v>
+        <v>0.5376520826753947</v>
       </c>
       <c r="EE4">
-        <v>0.5387916447033823</v>
+        <v>0.5383235967358344</v>
       </c>
       <c r="EF4">
-        <v>0.5685071768128437</v>
+        <v>0.5681411933329773</v>
       </c>
       <c r="EG4">
-        <v>0.6012022429332807</v>
+        <v>0.600950969155883</v>
       </c>
       <c r="EH4">
-        <v>0.606567099653043</v>
+        <v>0.6063145455049085</v>
       </c>
       <c r="EI4">
-        <v>0.6078508296577718</v>
+        <v>0.6075796747378932</v>
       </c>
       <c r="EJ4">
-        <v>0.6080795013786142</v>
+        <v>0.6077852679939818</v>
       </c>
       <c r="EK4">
-        <v>0.6082947292594071</v>
+        <v>0.6079773603540368</v>
       </c>
       <c r="EL4">
-        <v>0.6108156560686933</v>
+        <v>0.6104849370848987</v>
       </c>
       <c r="EM4">
-        <v>0.6156545800865182</v>
+        <v>0.6153203486608123</v>
       </c>
       <c r="EN4">
-        <v>0.6156582295127316</v>
+        <v>0.6153203486608123</v>
       </c>
       <c r="EO4">
-        <v>0.6179444760211533</v>
+        <v>0.6175922491019068</v>
       </c>
       <c r="EP4">
-        <v>0.6279538200580242</v>
+        <v>0.6276200240851412</v>
       </c>
       <c r="EQ4">
-        <v>0.6378680810945448</v>
+        <v>0.63755231253346</v>
       </c>
       <c r="ER4">
-        <v>0.645665273423267</v>
+        <v>0.6453585473829099</v>
       </c>
       <c r="ES4">
-        <v>0.6595352184743589</v>
+        <v>0.6592633078649367</v>
       </c>
       <c r="ET4">
-        <v>0.6686691925080053</v>
+        <v>0.668411997753369</v>
       </c>
       <c r="EU4">
-        <v>0.6697050004118208</v>
+        <v>0.6694281526980161</v>
       </c>
       <c r="EV4">
-        <v>0.6709327666163435</v>
+        <v>0.6706370806190659</v>
       </c>
       <c r="EW4">
-        <v>0.677684654141215</v>
+        <v>0.6773935743656621</v>
       </c>
       <c r="EX4">
-        <v>0.6926188701962274</v>
+        <v>0.6923671226436267</v>
       </c>
       <c r="EY4">
-        <v>0.7128820672708698</v>
+        <v>0.7126922682662379</v>
       </c>
       <c r="EZ4">
-        <v>0.7457132633918082</v>
+        <v>0.745638751828677</v>
       </c>
       <c r="FA4">
-        <v>0.7661588654671225</v>
+        <v>0.766147076583218</v>
       </c>
       <c r="FB4">
-        <v>0.7735881854944895</v>
+        <v>0.7735838778723213</v>
       </c>
       <c r="FC4">
-        <v>0.7747622569988144</v>
+        <v>0.77473888321156</v>
       </c>
       <c r="FD4">
-        <v>0.7789174467141207</v>
+        <v>0.7788876586999507</v>
       </c>
       <c r="FE4">
-        <v>0.7807088119207194</v>
+        <v>0.7806625775509447</v>
       </c>
       <c r="FF4">
-        <v>0.7889118259509363</v>
+        <v>0.7888763564190577</v>
       </c>
       <c r="FG4">
-        <v>0.798863565987595</v>
+        <v>0.7988462829293025</v>
       </c>
       <c r="FH4">
-        <v>0.801684968997988</v>
+        <v>0.8016556110895745</v>
       </c>
       <c r="FI4">
-        <v>0.8041908142072187</v>
+        <v>0.8041480422137035</v>
       </c>
       <c r="FJ4">
-        <v>0.8099809502285475</v>
+        <v>0.8099387027599917</v>
       </c>
       <c r="FK4">
-        <v>0.8261918802882628</v>
+        <v>0.8261943834479374</v>
       </c>
       <c r="FL4">
-        <v>0.8384355323333641</v>
+        <v>0.8384659488969143</v>
       </c>
       <c r="FM4">
-        <v>0.8474572448665969</v>
+        <v>0.8475019008443958</v>
       </c>
       <c r="FN4">
-        <v>0.8558658798975713</v>
+        <v>0.8559221733737929</v>
       </c>
       <c r="FO4">
-        <v>0.8560670031983122</v>
+        <v>0.8561001012936154</v>
       </c>
       <c r="FP4">
-        <v>0.8827279352965216</v>
+        <v>0.8828501340827887</v>
       </c>
       <c r="FQ4">
-        <v>0.9096309223956227</v>
+        <v>0.9098432491601628</v>
       </c>
       <c r="FR4">
-        <v>0.9274362754612113</v>
+        <v>0.9277001196239856</v>
       </c>
       <c r="FS4">
-        <v>0.9526081475539355</v>
+        <v>0.9529547728008053</v>
       </c>
       <c r="FT4">
-        <v>0.961178027585504</v>
+        <v>0.9615369746584995</v>
       </c>
       <c r="FU4">
-        <v>0.9640769350961825</v>
+        <v>0.9644241362500408</v>
       </c>
       <c r="FV4">
-        <v>0.964856450229054</v>
+        <v>0.9651829107109924</v>
       </c>
       <c r="FW4">
-        <v>0.9650335197797062</v>
+        <v>0.965336682796026</v>
       </c>
       <c r="FX4">
-        <v>0.9650883229439081</v>
+        <v>0.9653676695930923</v>
       </c>
       <c r="FY4">
-        <v>0.9651803697642471</v>
+        <v>0.965436058109278</v>
       </c>
       <c r="FZ4">
-        <v>0.9655930133957672</v>
+        <v>0.9658264040573064</v>
       </c>
       <c r="GA4">
-        <v>0.9697676174111449</v>
+        <v>0.9699946762405302</v>
       </c>
       <c r="GB4">
-        <v>0.9809851654524664</v>
+        <v>0.9812357828753864</v>
       </c>
       <c r="GC4">
-        <v>0.9825866171583656</v>
+        <v>0.9828199822281662</v>
       </c>
       <c r="GD4">
-        <v>0.9846133704658314</v>
+        <v>0.9848312881728507</v>
       </c>
       <c r="GE4">
-        <v>0.9907735894885235</v>
+        <v>0.9909936023617582</v>
       </c>
       <c r="GF4">
-        <v>0.9913917940208007</v>
+        <v>0.9915903816160045</v>
       </c>
       <c r="GG4">
-        <v>0.9922248252238692</v>
+        <v>0.9924028992706564</v>
       </c>
       <c r="GH4">
-        <v>0.9924988346248785</v>
+        <v>0.992654022621129</v>
       </c>
       <c r="GI4">
-        <v>0.9925031430704944</v>
+        <v>0.992654022621129</v>
       </c>
       <c r="GJ4">
-        <v>0.9925902083108151</v>
+        <v>0.9927174084153496</v>
       </c>
       <c r="GK4">
-        <v>0.9946999685185868</v>
+        <v>0.994812073543643</v>
       </c>
       <c r="GL4">
-        <v>0.994702730879797</v>
+        <v>0.994812073543643</v>
       </c>
       <c r="GM4">
-        <v>0.9947141504518391</v>
+        <v>0.994812073543643</v>
       </c>
       <c r="GN4">
-        <v>0.9947142615805294</v>
+        <v>0.994812073543643</v>
       </c>
       <c r="GO4">
-        <v>0.9954401379832033</v>
+        <v>0.9955169816303219</v>
       </c>
       <c r="GP4">
-        <v>0.9964044557867555</v>
+        <v>0.9964613430689819</v>
       </c>
       <c r="GQ4">
-        <v>0.9971142125893701</v>
+        <v>0.9971500631436269</v>
       </c>
       <c r="GR4">
-        <v>0.9985685334947273</v>
+        <v>0.99858650726917</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002017737058858714</v>
+        <v>0.0001991033387541061</v>
       </c>
       <c r="C5">
-        <v>0.0005375523590394067</v>
+        <v>0.0005322818290191174</v>
       </c>
       <c r="D5">
-        <v>0.0007039379956468343</v>
+        <v>0.0006959785589357998</v>
       </c>
       <c r="E5">
-        <v>0.0008194839692908732</v>
+        <v>0.0008088089913495652</v>
       </c>
       <c r="F5">
-        <v>0.0009602274964211387</v>
+        <v>0.000946850178069453</v>
       </c>
       <c r="G5">
-        <v>0.001294769789599883</v>
+        <v>0.001278791660639435</v>
       </c>
       <c r="H5">
-        <v>0.001481486635792761</v>
+        <v>0.001462830251518344</v>
       </c>
       <c r="I5">
-        <v>0.001570031203987354</v>
+        <v>0.001548645132637493</v>
       </c>
       <c r="J5">
-        <v>0.001677263121800915</v>
+        <v>0.001653157153545787</v>
       </c>
       <c r="K5">
-        <v>0.001753161435253362</v>
+        <v>0.001726319154639455</v>
       </c>
       <c r="L5">
-        <v>0.001780086681704362</v>
+        <v>0.001750482432088558</v>
       </c>
       <c r="M5">
-        <v>0.001782861303047788</v>
+        <v>0.001750482432088558</v>
       </c>
       <c r="N5">
-        <v>0.001855075297575357</v>
+        <v>0.001819958184068746</v>
       </c>
       <c r="O5">
-        <v>0.001855142257803992</v>
+        <v>0.001819958184068746</v>
       </c>
       <c r="P5">
-        <v>0.001855315788820454</v>
+        <v>0.001819958184068746</v>
       </c>
       <c r="Q5">
-        <v>0.001901839020871854</v>
+        <v>0.00186372971436417</v>
       </c>
       <c r="R5">
-        <v>0.001974053015399424</v>
+        <v>0.001933205466344358</v>
       </c>
       <c r="S5">
-        <v>0.00207417574935794</v>
+        <v>0.002030604578946511</v>
       </c>
       <c r="T5">
-        <v>0.002241136795953635</v>
+        <v>0.002194877020304681</v>
       </c>
       <c r="U5">
-        <v>0.002388084342957402</v>
+        <v>0.002339125477140163</v>
       </c>
       <c r="V5">
-        <v>0.002513003410410325</v>
+        <v>0.002461333913860306</v>
       </c>
       <c r="W5">
-        <v>0.002869715403137033</v>
+        <v>0.002815456710526904</v>
       </c>
       <c r="X5">
-        <v>0.00320014477639964</v>
+        <v>0.003143283118451119</v>
       </c>
       <c r="Y5">
-        <v>0.003411291682094393</v>
+        <v>0.003351764567567134</v>
       </c>
       <c r="Z5">
-        <v>0.003610826868025908</v>
+        <v>0.003548628213622126</v>
       </c>
       <c r="AA5">
-        <v>0.003748114715226634</v>
+        <v>0.003683211910006222</v>
       </c>
       <c r="AB5">
-        <v>0.003750668913074554</v>
+        <v>0.003683211910006222</v>
       </c>
       <c r="AC5">
-        <v>0.003754416445398143</v>
+        <v>0.00368418533068756</v>
       </c>
       <c r="AD5">
-        <v>0.003762270660237997</v>
+        <v>0.003689267585347062</v>
       </c>
       <c r="AE5">
-        <v>0.003877816633882036</v>
+        <v>0.003802098017760827</v>
       </c>
       <c r="AF5">
-        <v>0.004389148863456066</v>
+        <v>0.004310922055722262</v>
       </c>
       <c r="AG5">
-        <v>0.004690389337313828</v>
+        <v>0.004609544272383866</v>
       </c>
       <c r="AH5">
-        <v>0.004816321884746087</v>
+        <v>0.004732766720038331</v>
       </c>
       <c r="AI5">
-        <v>0.005118735678579926</v>
+        <v>0.005032562871370041</v>
       </c>
       <c r="AJ5">
-        <v>0.005606422938636073</v>
+        <v>0.005517729552381447</v>
       </c>
       <c r="AK5">
-        <v>0.00562659296922481</v>
+        <v>0.005535134074958517</v>
       </c>
       <c r="AL5">
-        <v>0.005639164485968479</v>
+        <v>0.005544936102882907</v>
       </c>
       <c r="AM5">
-        <v>0.005721672628286154</v>
+        <v>0.005624711395684353</v>
       </c>
       <c r="AN5">
-        <v>0.005774543620208124</v>
+        <v>0.005674834011396807</v>
       </c>
       <c r="AO5">
-        <v>0.005819396209293588</v>
+        <v>0.005716934023488272</v>
       </c>
       <c r="AP5">
-        <v>0.00591244500739634</v>
+        <v>0.005807255494249744</v>
       </c>
       <c r="AQ5">
-        <v>0.005955506688518321</v>
+        <v>0.005847563660133721</v>
       </c>
       <c r="AR5">
-        <v>0.00597882375104289</v>
+        <v>0.005868116863354378</v>
       </c>
       <c r="AS5">
-        <v>0.005979103488037186</v>
+        <v>0.005868116863354378</v>
       </c>
       <c r="AT5">
-        <v>0.005980526697408167</v>
+        <v>0.005868116863354378</v>
       </c>
       <c r="AU5">
-        <v>0.005980709540104438</v>
+        <v>0.005868116863354378</v>
       </c>
       <c r="AV5">
-        <v>0.005981026135997983</v>
+        <v>0.005868116863354378</v>
       </c>
       <c r="AW5">
-        <v>0.005996811831676115</v>
+        <v>0.005881134754098822</v>
       </c>
       <c r="AX5">
-        <v>0.006027978101040641</v>
+        <v>0.005909541276303333</v>
       </c>
       <c r="AY5">
-        <v>0.006067990643224793</v>
+        <v>0.005946798705827178</v>
       </c>
       <c r="AZ5">
-        <v>0.006280120018899514</v>
+        <v>0.006156263139632227</v>
       </c>
       <c r="BA5">
-        <v>0.006715585510020453</v>
+        <v>0.006589180693093362</v>
       </c>
       <c r="BB5">
-        <v>0.006914167865971396</v>
+        <v>0.0067850910099869</v>
       </c>
       <c r="BC5">
-        <v>0.006970867230815306</v>
+        <v>0.006839044004278766</v>
       </c>
       <c r="BD5">
-        <v>0.007024556513720592</v>
+        <v>0.006889985339671389</v>
       </c>
       <c r="BE5">
-        <v>0.007099084322200983</v>
+        <v>0.006961776117795149</v>
       </c>
       <c r="BF5">
-        <v>0.007129129795588361</v>
+        <v>0.006989061256845434</v>
       </c>
       <c r="BG5">
-        <v>0.007129616631078435</v>
+        <v>0.006989061256845434</v>
       </c>
       <c r="BH5">
-        <v>0.007130152056767518</v>
+        <v>0.006989061256845434</v>
       </c>
       <c r="BI5">
-        <v>0.007136911724629689</v>
+        <v>0.00699304839110184</v>
       </c>
       <c r="BJ5">
-        <v>0.007136948294698943</v>
+        <v>0.00699304839110184</v>
       </c>
       <c r="BK5">
-        <v>0.007148657158460202</v>
+        <v>0.007001987314106029</v>
       </c>
       <c r="BL5">
-        <v>0.007166473752096924</v>
+        <v>0.007017037166782127</v>
       </c>
       <c r="BM5">
-        <v>0.007216917981068376</v>
+        <v>0.007064731748180131</v>
       </c>
       <c r="BN5">
-        <v>0.007226222836878651</v>
+        <v>0.00707126540379059</v>
       </c>
       <c r="BO5">
-        <v>0.007258277573225062</v>
+        <v>0.007100560858438547</v>
       </c>
       <c r="BP5">
-        <v>0.007336547535629152</v>
+        <v>0.007176095750973955</v>
       </c>
       <c r="BQ5">
-        <v>0.007342188391514136</v>
+        <v>0.007178963487115499</v>
       </c>
       <c r="BR5">
-        <v>0.007378586997771975</v>
+        <v>0.007212605087397582</v>
       </c>
       <c r="BS5">
-        <v>0.007528832924708488</v>
+        <v>0.007360153652163708</v>
       </c>
       <c r="BT5">
-        <v>0.007767313799845907</v>
+        <v>0.007595983390795479</v>
       </c>
       <c r="BU5">
-        <v>0.007826241633644379</v>
+        <v>0.007652166021521017</v>
       </c>
       <c r="BV5">
-        <v>0.007921914441693628</v>
+        <v>0.007745112876929221</v>
       </c>
       <c r="BW5">
-        <v>0.008213850855741099</v>
+        <v>0.008034426159449463</v>
       </c>
       <c r="BX5">
-        <v>0.008349828302968544</v>
+        <v>0.008167698769351009</v>
       </c>
       <c r="BY5">
-        <v>0.00835022574160044</v>
+        <v>0.008167698769351009</v>
       </c>
       <c r="BZ5">
-        <v>0.008366920348260041</v>
+        <v>0.00818162604724895</v>
       </c>
       <c r="CA5">
-        <v>0.008368595519325884</v>
+        <v>0.00818162604724895</v>
       </c>
       <c r="CB5">
-        <v>0.008371149717173804</v>
+        <v>0.00818162604724895</v>
       </c>
       <c r="CC5">
-        <v>0.008397723350631972</v>
+        <v>0.008205437527497665</v>
       </c>
       <c r="CD5">
-        <v>0.008479411538966366</v>
+        <v>0.008284392436747742</v>
       </c>
       <c r="CE5">
-        <v>0.008517316648193487</v>
+        <v>0.008319541329245348</v>
       </c>
       <c r="CF5">
-        <v>0.008562923175263578</v>
+        <v>0.008362395674304213</v>
       </c>
       <c r="CG5">
-        <v>0.008717890942103814</v>
+        <v>0.008514668552712561</v>
       </c>
       <c r="CH5">
-        <v>0.008883980518717279</v>
+        <v>0.008678069067531545</v>
       </c>
       <c r="CI5">
-        <v>0.008943251003508765</v>
+        <v>0.008734594528762525</v>
       </c>
       <c r="CJ5">
-        <v>0.008978301480794093</v>
+        <v>0.008766887293796871</v>
       </c>
       <c r="CK5">
-        <v>0.009055772879214465</v>
+        <v>0.008841623203986545</v>
       </c>
       <c r="CL5">
-        <v>0.009194647856382829</v>
+        <v>0.008977794861824434</v>
       </c>
       <c r="CM5">
-        <v>0.009205155220168586</v>
+        <v>0.008985531655395789</v>
       </c>
       <c r="CN5">
-        <v>0.01293505364411665</v>
+        <v>0.01271460807177599</v>
       </c>
       <c r="CO5">
-        <v>0.06351953261270847</v>
+        <v>0.0633228118158598</v>
       </c>
       <c r="CP5">
-        <v>0.08382472219868942</v>
+        <v>0.08363586307197481</v>
       </c>
       <c r="CQ5">
-        <v>0.1818900301991559</v>
+        <v>0.1817497707181424</v>
       </c>
       <c r="CR5">
-        <v>0.247355748864322</v>
+        <v>0.2472470103349319</v>
       </c>
       <c r="CS5">
-        <v>0.2569536816686219</v>
+        <v>0.2568471953533356</v>
       </c>
       <c r="CT5">
-        <v>0.2804171411902063</v>
+        <v>0.2803201711403156</v>
       </c>
       <c r="CU5">
-        <v>0.3068627656509849</v>
+        <v>0.3067768742015905</v>
       </c>
       <c r="CV5">
-        <v>0.3080536953267021</v>
+        <v>0.3079656517219862</v>
       </c>
       <c r="CW5">
-        <v>0.3221278070397335</v>
+        <v>0.3220443606875644</v>
       </c>
       <c r="CX5">
-        <v>0.3221678224289176</v>
+        <v>0.3220816209655797</v>
       </c>
       <c r="CY5">
-        <v>0.3274482290212511</v>
+        <v>0.3273620178505986</v>
       </c>
       <c r="CZ5">
-        <v>0.3737286310776022</v>
+        <v>0.3736638898070164</v>
       </c>
       <c r="DA5">
-        <v>0.4013887045136185</v>
+        <v>0.4013356780847498</v>
       </c>
       <c r="DB5">
-        <v>0.4050080728398202</v>
+        <v>0.404954166497448</v>
       </c>
       <c r="DC5">
-        <v>0.4387630991515615</v>
+        <v>0.4387241007535714</v>
       </c>
       <c r="DD5">
-        <v>0.4477576789681637</v>
+        <v>0.4477206166919182</v>
       </c>
       <c r="DE5">
-        <v>0.44800209924318</v>
+        <v>0.4479623889420384</v>
       </c>
       <c r="DF5">
-        <v>0.4505176393918885</v>
+        <v>0.4504764708894753</v>
       </c>
       <c r="DG5">
-        <v>0.4505987183402353</v>
+        <v>0.4505548162395613</v>
       </c>
       <c r="DH5">
-        <v>0.4505987797134691</v>
+        <v>0.4505548162395613</v>
       </c>
       <c r="DI5">
-        <v>0.451068236833897</v>
+        <v>0.4510217432303034</v>
       </c>
       <c r="DJ5">
-        <v>0.4569177087146273</v>
+        <v>0.4568715035329952</v>
       </c>
       <c r="DK5">
-        <v>0.4569939958330719</v>
+        <v>0.4569450545427731</v>
       </c>
       <c r="DL5">
-        <v>0.4606337075588589</v>
+        <v>0.4605838970128195</v>
       </c>
       <c r="DM5">
-        <v>0.4882675069954108</v>
+        <v>0.4882293975263264</v>
       </c>
       <c r="DN5">
-        <v>0.4921012572172413</v>
+        <v>0.4920623801478108</v>
       </c>
       <c r="DO5">
-        <v>0.5078600568959223</v>
+        <v>0.5078266596751376</v>
       </c>
       <c r="DP5">
-        <v>0.5088279154761878</v>
+        <v>0.5087922492347139</v>
       </c>
       <c r="DQ5">
-        <v>0.5091264194001013</v>
+        <v>0.5090881334677722</v>
       </c>
       <c r="DR5">
-        <v>0.5140388687999373</v>
+        <v>0.5140003803901253</v>
       </c>
       <c r="DS5">
-        <v>0.5140533414036422</v>
+        <v>0.5140120845009769</v>
       </c>
       <c r="DT5">
-        <v>0.5218641946443804</v>
+        <v>0.5218242537174863</v>
       </c>
       <c r="DU5">
-        <v>0.5344622743875078</v>
+        <v>0.5344261574304604</v>
       </c>
       <c r="DV5">
-        <v>0.5518967850320213</v>
+        <v>0.5518670258167323</v>
       </c>
       <c r="DW5">
-        <v>0.5521784287562786</v>
+        <v>0.5521460410171951</v>
       </c>
       <c r="DX5">
-        <v>0.5544068529108415</v>
+        <v>0.5543728565524494</v>
       </c>
       <c r="DY5">
-        <v>0.5546569437757422</v>
+        <v>0.5546203023632359</v>
       </c>
       <c r="DZ5">
-        <v>0.5561439618454221</v>
+        <v>0.556105323396208</v>
       </c>
       <c r="EA5">
-        <v>0.5575844560160508</v>
+        <v>0.5575437961565873</v>
       </c>
       <c r="EB5">
-        <v>0.5617469141311791</v>
+        <v>0.5617056588791078</v>
       </c>
       <c r="EC5">
-        <v>0.5633300396988994</v>
+        <v>0.5632868377601582</v>
       </c>
       <c r="ED5">
-        <v>0.5633367993667615</v>
+        <v>0.5632908248944146</v>
       </c>
       <c r="EE5">
-        <v>0.5669210677936789</v>
+        <v>0.5668741950192396</v>
       </c>
       <c r="EF5">
-        <v>0.5833855444579713</v>
+        <v>0.5833445212313552</v>
       </c>
       <c r="EG5">
-        <v>0.6142046898295747</v>
+        <v>0.6141770364600995</v>
       </c>
       <c r="EH5">
-        <v>0.6223188496641284</v>
+        <v>0.6222926711706018</v>
       </c>
       <c r="EI5">
-        <v>0.6225299965698232</v>
+        <v>0.6225011526197178</v>
       </c>
       <c r="EJ5">
-        <v>0.6235218271496</v>
+        <v>0.6234907267375662</v>
       </c>
       <c r="EK5">
-        <v>0.6243060567336097</v>
+        <v>0.6242725910989555</v>
       </c>
       <c r="EL5">
-        <v>0.6267354106840757</v>
+        <v>0.6267004416958105</v>
       </c>
       <c r="EM5">
-        <v>0.6288546876408641</v>
+        <v>0.6288180528518461</v>
       </c>
       <c r="EN5">
-        <v>0.6306448232043635</v>
+        <v>0.6306063501797469</v>
       </c>
       <c r="EO5">
-        <v>0.6350101485153554</v>
+        <v>0.6349711863788187</v>
       </c>
       <c r="EP5">
-        <v>0.6445948533199251</v>
+        <v>0.6445581364674365</v>
       </c>
       <c r="EQ5">
-        <v>0.6536858051345622</v>
+        <v>0.6536510748924259</v>
       </c>
       <c r="ER5">
-        <v>0.6591926950222777</v>
+        <v>0.659158073725822</v>
       </c>
       <c r="ES5">
-        <v>0.6699927408020668</v>
+        <v>0.6699610014981928</v>
       </c>
       <c r="ET5">
-        <v>0.6785988176265905</v>
+        <v>0.6785688109104938</v>
       </c>
       <c r="EU5">
-        <v>0.6787873846627456</v>
+        <v>0.6787547006606364</v>
       </c>
       <c r="EV5">
-        <v>0.6801132055357123</v>
+        <v>0.6800784400468249</v>
       </c>
       <c r="EW5">
-        <v>0.6840790680548491</v>
+        <v>0.6840436041783129</v>
       </c>
       <c r="EX5">
-        <v>0.6959402998130008</v>
+        <v>0.6959082738768682</v>
       </c>
       <c r="EY5">
-        <v>0.7222871762757929</v>
+        <v>0.7222661772067794</v>
       </c>
       <c r="EZ5">
-        <v>0.757071492566547</v>
+        <v>0.7570659406796494</v>
       </c>
       <c r="FA5">
-        <v>0.784750216002183</v>
+        <v>0.7847563887276053</v>
       </c>
       <c r="FB5">
-        <v>0.7986644957184734</v>
+        <v>0.7986751819615908</v>
       </c>
       <c r="FC5">
-        <v>0.7987305348471269</v>
+        <v>0.7987384796127284</v>
       </c>
       <c r="FD5">
-        <v>0.8008591488037248</v>
+        <v>0.8008654326601616</v>
       </c>
       <c r="FE5">
-        <v>0.8026981889662271</v>
+        <v>0.8027026602078384</v>
       </c>
       <c r="FF5">
-        <v>0.8072787938728294</v>
+        <v>0.8072828887859769</v>
       </c>
       <c r="FG5">
-        <v>0.8130887672543652</v>
+        <v>0.81309312989649</v>
       </c>
       <c r="FH5">
-        <v>0.8159689050956397</v>
+        <v>0.8159720005466429</v>
       </c>
       <c r="FI5">
-        <v>0.8189330056352022</v>
+        <v>0.818934877882547</v>
       </c>
       <c r="FJ5">
-        <v>0.826329748184384</v>
+        <v>0.8263327194578403</v>
       </c>
       <c r="FK5">
-        <v>0.8356800879937323</v>
+        <v>0.8356851817690749</v>
       </c>
       <c r="FL5">
-        <v>0.8465293167725185</v>
+        <v>0.8465373183070678</v>
       </c>
       <c r="FM5">
-        <v>0.8572616235536887</v>
+        <v>0.8572724715928379</v>
       </c>
       <c r="FN5">
-        <v>0.8657822903799539</v>
+        <v>0.865794826261187</v>
       </c>
       <c r="FO5">
-        <v>0.8659671661561843</v>
+        <v>0.8659770228175799</v>
       </c>
       <c r="FP5">
-        <v>0.8835595117974796</v>
+        <v>0.8835758088892711</v>
       </c>
       <c r="FQ5">
-        <v>0.9113394462310519</v>
+        <v>0.9113675209588887</v>
       </c>
       <c r="FR5">
-        <v>0.9254509189433215</v>
+        <v>0.9254836104968682</v>
       </c>
       <c r="FS5">
-        <v>0.943138939582666</v>
+        <v>0.9431781216900629</v>
       </c>
       <c r="FT5">
-        <v>0.9495866271511989</v>
+        <v>0.9496264110815212</v>
       </c>
       <c r="FU5">
-        <v>0.9497615341976325</v>
+        <v>0.9497986336855705</v>
       </c>
       <c r="FV5">
-        <v>0.9497883404270859</v>
+        <v>0.9498226778836698</v>
       </c>
       <c r="FW5">
-        <v>0.9497936122006785</v>
+        <v>0.9498251763441593</v>
       </c>
       <c r="FX5">
-        <v>0.9516959368618905</v>
+        <v>0.9517257215448467</v>
       </c>
       <c r="FY5">
-        <v>0.9520825973340066</v>
+        <v>0.952109808510699</v>
       </c>
       <c r="FZ5">
-        <v>0.9522629043303301</v>
+        <v>0.9522874338936337</v>
       </c>
       <c r="GA5">
-        <v>0.957939809814579</v>
+        <v>0.9579645373935306</v>
       </c>
       <c r="GB5">
-        <v>0.974225741482512</v>
+        <v>0.9742562250708269</v>
       </c>
       <c r="GC5">
-        <v>0.9783896799976101</v>
+        <v>0.9784195689688883</v>
       </c>
       <c r="GD5">
-        <v>0.9798611136676078</v>
+        <v>0.9798889974376214</v>
       </c>
       <c r="GE5">
-        <v>0.9855634895513373</v>
+        <v>0.9855915846807609</v>
       </c>
       <c r="GF5">
-        <v>0.9855637577418519</v>
+        <v>0.9855915846807609</v>
       </c>
       <c r="GG5">
-        <v>0.9855690823671434</v>
+        <v>0.9855941360206379</v>
       </c>
       <c r="GH5">
-        <v>0.9855763790469946</v>
+        <v>0.9855986604482202</v>
       </c>
       <c r="GI5">
-        <v>0.986154391735209</v>
+        <v>0.9861741998782423</v>
       </c>
       <c r="GJ5">
-        <v>0.9871497561149137</v>
+        <v>0.9871673096473513</v>
       </c>
       <c r="GK5">
-        <v>0.9914424780273859</v>
+        <v>0.991459504411497</v>
       </c>
       <c r="GL5">
-        <v>0.9917480238211559</v>
+        <v>0.9917624342035974</v>
       </c>
       <c r="GM5">
-        <v>0.9920052781159105</v>
+        <v>0.992017047197108</v>
       </c>
       <c r="GN5">
-        <v>0.9920073541129683</v>
+        <v>0.992017047197108</v>
       </c>
       <c r="GO5">
-        <v>0.9932421692877906</v>
+        <v>0.9932497332079112</v>
       </c>
       <c r="GP5">
-        <v>0.9962715576260219</v>
+        <v>0.9962779325462997</v>
       </c>
       <c r="GQ5">
-        <v>0.9971458482581953</v>
+        <v>0.9971499051381982</v>
       </c>
       <c r="GR5">
-        <v>0.9992890068144967</v>
+        <v>0.9992914104051478</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.084526179290902E-05</v>
+        <v>7.637175159106139E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002815067162429872</v>
+        <v>0.0002726635119624366</v>
       </c>
       <c r="D6">
-        <v>0.0004574697901453282</v>
+        <v>0.0004442354915891602</v>
       </c>
       <c r="E6">
-        <v>0.0006176539736977402</v>
+        <v>0.0006000149090642779</v>
       </c>
       <c r="F6">
-        <v>0.0007549642967428775</v>
+        <v>0.0007329006467116557</v>
       </c>
       <c r="G6">
-        <v>0.0008800756995174787</v>
+        <v>0.000853576894193219</v>
       </c>
       <c r="H6">
-        <v>0.0009093998851678025</v>
+        <v>0.0008783829286105728</v>
       </c>
       <c r="I6">
-        <v>0.0009432808879191831</v>
+        <v>0.0009077497284357591</v>
       </c>
       <c r="J6">
-        <v>0.0009860994788687728</v>
+        <v>0.000946061860535614</v>
       </c>
       <c r="K6">
-        <v>0.0009862966003731444</v>
+        <v>0.000946061860535614</v>
       </c>
       <c r="L6">
-        <v>0.0009908362264738199</v>
+        <v>0.000946061860535614</v>
       </c>
       <c r="M6">
-        <v>0.001006091606812139</v>
+        <v>0.000956786899562207</v>
       </c>
       <c r="N6">
-        <v>0.001006431761679683</v>
+        <v>0.000956786899562207</v>
       </c>
       <c r="O6">
-        <v>0.001037710318373349</v>
+        <v>0.0009835489984102526</v>
       </c>
       <c r="P6">
-        <v>0.001108832679950633</v>
+        <v>0.001050189425266567</v>
       </c>
       <c r="Q6">
-        <v>0.001140111236644299</v>
+        <v>0.001076951524114613</v>
       </c>
       <c r="R6">
-        <v>0.001140832958510304</v>
+        <v>0.001076951524114613</v>
       </c>
       <c r="S6">
-        <v>0.001193634172681279</v>
+        <v>0.00112525492899497</v>
       </c>
       <c r="T6">
-        <v>0.001220142387269153</v>
+        <v>0.001147242552419243</v>
       </c>
       <c r="U6">
-        <v>0.001220328190053274</v>
+        <v>0.001147242552419243</v>
       </c>
       <c r="V6">
-        <v>0.001298007781775978</v>
+        <v>0.001220445891008726</v>
       </c>
       <c r="W6">
-        <v>0.001363468013227692</v>
+        <v>0.001281419281721467</v>
       </c>
       <c r="X6">
-        <v>0.001369964801871772</v>
+        <v>0.001283378140070948</v>
       </c>
       <c r="Y6">
-        <v>0.001522531175255243</v>
+        <v>0.001431533146837573</v>
       </c>
       <c r="Z6">
-        <v>0.001752187480348342</v>
+        <v>0.00165684488077499</v>
       </c>
       <c r="AA6">
-        <v>0.001781922383007774</v>
+        <v>0.001682061988071946</v>
       </c>
       <c r="AB6">
-        <v>0.00179304723875449</v>
+        <v>0.001688652923566226</v>
       </c>
       <c r="AC6">
-        <v>0.001860993130261329</v>
+        <v>0.001752114128062938</v>
       </c>
       <c r="AD6">
-        <v>0.001895765721032483</v>
+        <v>0.001782373288434628</v>
       </c>
       <c r="AE6">
-        <v>0.001904723712231144</v>
+        <v>0.001786795481876054</v>
       </c>
       <c r="AF6">
-        <v>0.001904734030685873</v>
+        <v>0.001786795481876054</v>
       </c>
       <c r="AG6">
-        <v>0.001913464234879483</v>
+        <v>0.001790989690943748</v>
       </c>
       <c r="AH6">
-        <v>0.001928920383222255</v>
+        <v>0.001801915671932549</v>
       </c>
       <c r="AI6">
-        <v>0.001936775880396467</v>
+        <v>0.001805234416080851</v>
       </c>
       <c r="AJ6">
-        <v>0.001936940666710121</v>
+        <v>0.001805234416080851</v>
       </c>
       <c r="AK6">
-        <v>0.002001790818148306</v>
+        <v>0.001865597198169193</v>
       </c>
       <c r="AL6">
-        <v>0.002014763123435994</v>
+        <v>0.001874037183948423</v>
       </c>
       <c r="AM6">
-        <v>0.002097673870274709</v>
+        <v>0.00195247621024865</v>
       </c>
       <c r="AN6">
-        <v>0.002262709343934708</v>
+        <v>0.002113111121287667</v>
       </c>
       <c r="AO6">
-        <v>0.00244478053797251</v>
+        <v>0.002290796513501046</v>
       </c>
       <c r="AP6">
-        <v>0.002501909583239463</v>
+        <v>0.002343431499376591</v>
       </c>
       <c r="AQ6">
-        <v>0.002721312788105178</v>
+        <v>0.002558481249169583</v>
       </c>
       <c r="AR6">
-        <v>0.003110193346729399</v>
+        <v>0.002943155198330493</v>
       </c>
       <c r="AS6">
-        <v>0.003200177218724976</v>
+        <v>0.003028673478378518</v>
       </c>
       <c r="AT6">
-        <v>0.003269387526259856</v>
+        <v>0.003093400194471133</v>
       </c>
       <c r="AU6">
-        <v>0.003426695669748486</v>
+        <v>0.003246301079904358</v>
       </c>
       <c r="AV6">
-        <v>0.003515241751712176</v>
+        <v>0.003330380324130727</v>
       </c>
       <c r="AW6">
-        <v>0.003575278623043617</v>
+        <v>0.003385925655590217</v>
       </c>
       <c r="AX6">
-        <v>0.003601396530622834</v>
+        <v>0.00340752263381982</v>
       </c>
       <c r="AY6">
-        <v>0.003610583704826579</v>
+        <v>0.003412174208844589</v>
       </c>
       <c r="AZ6">
-        <v>0.003625839085164898</v>
+        <v>0.003422899247871182</v>
       </c>
       <c r="BA6">
-        <v>0.003649675926693529</v>
+        <v>0.00344221318359419</v>
       </c>
       <c r="BB6">
-        <v>0.003690529323599537</v>
+        <v>0.0034785584188854</v>
       </c>
       <c r="BC6">
-        <v>0.003692105237734486</v>
+        <v>0.0034785584188854</v>
       </c>
       <c r="BD6">
-        <v>0.003903682542426645</v>
+        <v>0.003685775487663298</v>
       </c>
       <c r="BE6">
-        <v>0.003914057422656729</v>
+        <v>0.003691615797816003</v>
       </c>
       <c r="BF6">
-        <v>0.003930524730021925</v>
+        <v>0.003703553813957634</v>
       </c>
       <c r="BG6">
-        <v>0.004215857586349765</v>
+        <v>0.003984590340720275</v>
       </c>
       <c r="BH6">
-        <v>0.004636356145675181</v>
+        <v>0.004400909686364047</v>
       </c>
       <c r="BI6">
-        <v>0.00479653389922745</v>
+        <v>0.004556682668267674</v>
       </c>
       <c r="BJ6">
-        <v>0.005097058835892205</v>
+        <v>0.004852924438720598</v>
       </c>
       <c r="BK6">
-        <v>0.005360960011744753</v>
+        <v>0.005112510715281017</v>
       </c>
       <c r="BL6">
-        <v>0.00539367024247017</v>
+        <v>0.005140705728651303</v>
       </c>
       <c r="BM6">
-        <v>0.005394328770184774</v>
+        <v>0.005140705728651303</v>
       </c>
       <c r="BN6">
-        <v>0.005435178918090709</v>
+        <v>0.005177047712127307</v>
       </c>
       <c r="BO6">
-        <v>0.005448424875384465</v>
+        <v>0.005185761587021546</v>
       </c>
       <c r="BP6">
-        <v>0.005451900585861546</v>
+        <v>0.005185761587021546</v>
       </c>
       <c r="BQ6">
-        <v>0.005456939597973296</v>
+        <v>0.005186261405731394</v>
       </c>
       <c r="BR6">
-        <v>0.005459871042438307</v>
+        <v>0.005186261405731394</v>
       </c>
       <c r="BS6">
-        <v>0.005777797479488976</v>
+        <v>0.005499919754301103</v>
       </c>
       <c r="BT6">
-        <v>0.005944793733192459</v>
+        <v>0.005662517144324105</v>
       </c>
       <c r="BU6">
-        <v>0.005989630484186806</v>
+        <v>0.005702849185126783</v>
       </c>
       <c r="BV6">
-        <v>0.006076750366118868</v>
+        <v>0.005785500993574043</v>
       </c>
       <c r="BW6">
-        <v>0.006243746619822351</v>
+        <v>0.005948098383597045</v>
       </c>
       <c r="BX6">
-        <v>0.006277189108564007</v>
+        <v>0.005977026289456982</v>
       </c>
       <c r="BY6">
-        <v>0.006378325440806912</v>
+        <v>0.006073706692930247</v>
       </c>
       <c r="BZ6">
-        <v>0.006701701917978447</v>
+        <v>0.006392819803870993</v>
       </c>
       <c r="CA6">
-        <v>0.007109820957029321</v>
+        <v>0.006796748902861988</v>
       </c>
       <c r="CB6">
-        <v>0.007274856430689321</v>
+        <v>0.006957383813901005</v>
       </c>
       <c r="CC6">
-        <v>0.007289818031021125</v>
+        <v>0.006967814818372005</v>
       </c>
       <c r="CD6">
-        <v>0.007381980283065011</v>
+        <v>0.007055513365950877</v>
       </c>
       <c r="CE6">
-        <v>0.007407328812627166</v>
+        <v>0.007076340299526954</v>
       </c>
       <c r="CF6">
-        <v>0.007409101555466481</v>
+        <v>0.007076340299526954</v>
       </c>
       <c r="CG6">
-        <v>0.007432201200978763</v>
+        <v>0.007094916400481615</v>
       </c>
       <c r="CH6">
-        <v>0.007442332444203443</v>
+        <v>0.007100512862526821</v>
       </c>
       <c r="CI6">
-        <v>0.007480787172056256</v>
+        <v>0.007134457350410347</v>
       </c>
       <c r="CJ6">
-        <v>0.007673263146324804</v>
+        <v>0.007322556538196406</v>
       </c>
       <c r="CK6">
-        <v>0.007719637967353261</v>
+        <v>0.007364427981711728</v>
       </c>
       <c r="CL6">
-        <v>0.007823853103664444</v>
+        <v>0.007464189856918595</v>
       </c>
       <c r="CM6">
-        <v>0.008074332509219337</v>
+        <v>0.007710342733733559</v>
       </c>
       <c r="CN6">
-        <v>0.02151532480730083</v>
+        <v>0.02115843757522659</v>
       </c>
       <c r="CO6">
-        <v>0.1088174367434037</v>
+        <v>0.1085316498744171</v>
       </c>
       <c r="CP6">
-        <v>0.1090583827787472</v>
+        <v>0.108768261120722</v>
       </c>
       <c r="CQ6">
-        <v>0.1650503990204847</v>
+        <v>0.1648042487317258</v>
       </c>
       <c r="CR6">
-        <v>0.1851233364656431</v>
+        <v>0.1848900350457199</v>
       </c>
       <c r="CS6">
-        <v>0.1856893413081954</v>
+        <v>0.1854519867501892</v>
       </c>
       <c r="CT6">
-        <v>0.1884631450697102</v>
+        <v>0.1882236503464785</v>
       </c>
       <c r="CU6">
-        <v>0.2059314654571059</v>
+        <v>0.2057025628021955</v>
       </c>
       <c r="CV6">
-        <v>0.2169865647022754</v>
+        <v>0.2167626973062008</v>
       </c>
       <c r="CW6">
-        <v>0.244488722312192</v>
+        <v>0.2442841409185189</v>
       </c>
       <c r="CX6">
-        <v>0.2597551036507552</v>
+        <v>0.259559206429898</v>
       </c>
       <c r="CY6">
-        <v>0.2676062398248702</v>
+        <v>0.2674126017520632</v>
       </c>
       <c r="CZ6">
-        <v>0.274586285979667</v>
+        <v>0.2743941522889082</v>
       </c>
       <c r="DA6">
-        <v>0.3205463589989256</v>
+        <v>0.3203895043844311</v>
       </c>
       <c r="DB6">
-        <v>0.3205639800603164</v>
+        <v>0.3204025971542819</v>
       </c>
       <c r="DC6">
-        <v>0.3706981671721446</v>
+        <v>0.3705756800517109</v>
       </c>
       <c r="DD6">
-        <v>0.3773867373204773</v>
+        <v>0.3772655020293416</v>
       </c>
       <c r="DE6">
-        <v>0.3799393837770875</v>
+        <v>0.3798158166964267</v>
       </c>
       <c r="DF6">
-        <v>0.3808184924965835</v>
+        <v>0.380691143570308</v>
       </c>
       <c r="DG6">
-        <v>0.3827371259391331</v>
+        <v>0.3826068958754382</v>
       </c>
       <c r="DH6">
-        <v>0.3831991816793802</v>
+        <v>0.3830648084097027</v>
       </c>
       <c r="DI6">
-        <v>0.3880252717864086</v>
+        <v>0.3878905365786989</v>
       </c>
       <c r="DJ6">
-        <v>0.3910600539537111</v>
+        <v>0.3909234047085282</v>
       </c>
       <c r="DK6">
-        <v>0.3993948121385514</v>
+        <v>0.3992608410812922</v>
       </c>
       <c r="DL6">
-        <v>0.4029989762184811</v>
+        <v>0.4028635844712791</v>
       </c>
       <c r="DM6">
-        <v>0.4106380223878925</v>
+        <v>0.4105047060209081</v>
       </c>
       <c r="DN6">
-        <v>0.4106401128183389</v>
+        <v>0.4105047060209081</v>
       </c>
       <c r="DO6">
-        <v>0.4148873719125306</v>
+        <v>0.4147511016422551</v>
       </c>
       <c r="DP6">
-        <v>0.4174515644693968</v>
+        <v>0.4173129724138482</v>
       </c>
       <c r="DQ6">
-        <v>0.4180807779433509</v>
+        <v>0.4179381875175676</v>
       </c>
       <c r="DR6">
-        <v>0.4180834546238102</v>
+        <v>0.4179381875175676</v>
       </c>
       <c r="DS6">
-        <v>0.419056702745394</v>
+        <v>0.4189077353617082</v>
       </c>
       <c r="DT6">
-        <v>0.4223715208189069</v>
+        <v>0.422220882038091</v>
       </c>
       <c r="DU6">
-        <v>0.423076039434531</v>
+        <v>0.4229214675324897</v>
       </c>
       <c r="DV6">
-        <v>0.430043377589046</v>
+        <v>0.4298902990580593</v>
       </c>
       <c r="DW6">
-        <v>0.4313819581187318</v>
+        <v>0.4312254958567839</v>
       </c>
       <c r="DX6">
-        <v>0.4326636235471553</v>
+        <v>0.4325037282394998</v>
       </c>
       <c r="DY6">
-        <v>0.4344266986862551</v>
+        <v>0.4342637874558927</v>
       </c>
       <c r="DZ6">
-        <v>0.4370868130452486</v>
+        <v>0.4369216631421656</v>
       </c>
       <c r="EA6">
-        <v>0.437775919530531</v>
+        <v>0.4376068231522043</v>
       </c>
       <c r="EB6">
-        <v>0.441361834610056</v>
+        <v>0.4411913017297294</v>
       </c>
       <c r="EC6">
-        <v>0.4432406816517233</v>
+        <v>0.443067233160591</v>
       </c>
       <c r="ED6">
-        <v>0.4432641509062437</v>
+        <v>0.4430861791908059</v>
       </c>
       <c r="EE6">
-        <v>0.4439612835917041</v>
+        <v>0.4437793723554163</v>
       </c>
       <c r="EF6">
-        <v>0.462824075010025</v>
+        <v>0.4626539640975794</v>
       </c>
       <c r="EG6">
-        <v>0.4980270357907227</v>
+        <v>0.4978828833304749</v>
       </c>
       <c r="EH6">
-        <v>0.5045670899357618</v>
+        <v>0.5044240606214064</v>
       </c>
       <c r="EI6">
-        <v>0.5049084894833331</v>
+        <v>0.5047612124190443</v>
       </c>
       <c r="EJ6">
-        <v>0.5051518035087291</v>
+        <v>0.505000193707174</v>
       </c>
       <c r="EK6">
-        <v>0.5051731131662017</v>
+        <v>0.5050169782691332</v>
       </c>
       <c r="EL6">
-        <v>0.5092826592573393</v>
+        <v>0.509125541564405</v>
       </c>
       <c r="EM6">
-        <v>0.5228386345579707</v>
+        <v>0.5226887190367978</v>
       </c>
       <c r="EN6">
-        <v>0.5257778002231528</v>
+        <v>0.5256258878164846</v>
       </c>
       <c r="EO6">
-        <v>0.5308428843354814</v>
+        <v>0.5306908170698955</v>
       </c>
       <c r="EP6">
-        <v>0.5440934806293405</v>
+        <v>0.5439483509363505</v>
       </c>
       <c r="EQ6">
-        <v>0.5575433529276189</v>
+        <v>0.5574053334722191</v>
       </c>
       <c r="ER6">
-        <v>0.5695710411943575</v>
+        <v>0.5694388997087777</v>
       </c>
       <c r="ES6">
-        <v>0.5850165725368938</v>
+        <v>0.5848932704507186</v>
       </c>
       <c r="ET6">
-        <v>0.5949496887571809</v>
+        <v>0.5948304497746989</v>
       </c>
       <c r="EU6">
-        <v>0.5965272859921673</v>
+        <v>0.5964048703775074</v>
       </c>
       <c r="EV6">
-        <v>0.597562398015123</v>
+        <v>0.5974363357257114</v>
       </c>
       <c r="EW6">
-        <v>0.6070580207257079</v>
+        <v>0.606935642468688</v>
       </c>
       <c r="EX6">
-        <v>0.6341995513276268</v>
+        <v>0.6340961466035747</v>
       </c>
       <c r="EY6">
-        <v>0.668096676079365</v>
+        <v>0.6680180983508103</v>
       </c>
       <c r="EZ6">
-        <v>0.7192124132129609</v>
+        <v>0.7191735817453534</v>
       </c>
       <c r="FA6">
-        <v>0.7527091339558192</v>
+        <v>0.7526947825490339</v>
       </c>
       <c r="FB6">
-        <v>0.7701104753417295</v>
+        <v>0.7701066579685365</v>
       </c>
       <c r="FC6">
-        <v>0.7701226367419992</v>
+        <v>0.7701142863466798</v>
       </c>
       <c r="FD6">
-        <v>0.7741512882313428</v>
+        <v>0.7741418849480962</v>
       </c>
       <c r="FE6">
-        <v>0.7754870862609669</v>
+        <v>0.7754742968358298</v>
       </c>
       <c r="FF6">
-        <v>0.7787888032341892</v>
+        <v>0.7787743310603226</v>
       </c>
       <c r="FG6">
-        <v>0.7843321933571252</v>
+        <v>0.7843179807581049</v>
       </c>
       <c r="FH6">
-        <v>0.7875657684288364</v>
+        <v>0.7875498140387494</v>
       </c>
       <c r="FI6">
-        <v>0.7904651928931371</v>
+        <v>0.7904472071833325</v>
       </c>
       <c r="FJ6">
-        <v>0.794810535489504</v>
+        <v>0.7947917712924374</v>
       </c>
       <c r="FK6">
-        <v>0.8167881019769014</v>
+        <v>0.8167838369364889</v>
       </c>
       <c r="FL6">
-        <v>0.837979455446863</v>
+        <v>0.8379890083397605</v>
       </c>
       <c r="FM6">
-        <v>0.8519250387561349</v>
+        <v>0.8519421314011499</v>
       </c>
       <c r="FN6">
-        <v>0.862828706997946</v>
+        <v>0.8628507036926562</v>
       </c>
       <c r="FO6">
-        <v>0.8629512781606643</v>
+        <v>0.8629688374990611</v>
       </c>
       <c r="FP6">
-        <v>0.8842090706320993</v>
+        <v>0.8842405054706457</v>
       </c>
       <c r="FQ6">
-        <v>0.9126613972630878</v>
+        <v>0.9127129413889516</v>
       </c>
       <c r="FR6">
-        <v>0.9304936326585541</v>
+        <v>0.9305560841710986</v>
       </c>
       <c r="FS6">
-        <v>0.9496571890835451</v>
+        <v>0.9497317015212434</v>
       </c>
       <c r="FT6">
-        <v>0.9555495562142204</v>
+        <v>0.9556246306019215</v>
       </c>
       <c r="FU6">
-        <v>0.9576757126613723</v>
+        <v>0.9577480857223567</v>
       </c>
       <c r="FV6">
-        <v>0.9578608700954786</v>
+        <v>0.9579288600287469</v>
       </c>
       <c r="FW6">
-        <v>0.9586126059121499</v>
+        <v>0.9586767036360816</v>
       </c>
       <c r="FX6">
-        <v>0.9587107045583254</v>
+        <v>0.9587703437214493</v>
       </c>
       <c r="FY6">
-        <v>0.9587870531260186</v>
+        <v>0.9588422148827281</v>
       </c>
       <c r="FZ6">
-        <v>0.9601904282571414</v>
+        <v>0.9602422624249201</v>
       </c>
       <c r="GA6">
-        <v>0.9637173834353588</v>
+        <v>0.9637677300146505</v>
       </c>
       <c r="GB6">
-        <v>0.9774481477398667</v>
+        <v>0.9775058479388696</v>
       </c>
       <c r="GC6">
-        <v>0.9814430634284621</v>
+        <v>0.9814996815087639</v>
       </c>
       <c r="GD6">
-        <v>0.9824562764509321</v>
+        <v>0.9825092288818404</v>
       </c>
       <c r="GE6">
-        <v>0.9862862100358688</v>
+        <v>0.9863379373974278</v>
       </c>
       <c r="GF6">
-        <v>0.9865920432826513</v>
+        <v>0.9866394920774451</v>
       </c>
       <c r="GG6">
-        <v>0.9866562821340759</v>
+        <v>0.9866992430298519</v>
       </c>
       <c r="GH6">
-        <v>0.9867944795471406</v>
+        <v>0.9868330166261483</v>
       </c>
       <c r="GI6">
-        <v>0.9870884453236599</v>
+        <v>0.9871226935531957</v>
       </c>
       <c r="GJ6">
-        <v>0.9879098607918765</v>
+        <v>0.9879402771868141</v>
       </c>
       <c r="GK6">
-        <v>0.9933367519122289</v>
+        <v>0.9933673269401072</v>
       </c>
       <c r="GL6">
-        <v>0.9940780789986694</v>
+        <v>0.9941047527984466</v>
       </c>
       <c r="GM6">
-        <v>0.9941435392301211</v>
+        <v>0.9941657261891593</v>
       </c>
       <c r="GN6">
-        <v>0.9942694974729145</v>
+        <v>0.994287250010414</v>
       </c>
       <c r="GO6">
-        <v>0.9958896687088451</v>
+        <v>0.9959042815029012</v>
       </c>
       <c r="GP6">
-        <v>0.9977204539494465</v>
+        <v>0.9977321094889947</v>
       </c>
       <c r="GQ6">
-        <v>0.9982744428617324</v>
+        <v>0.9982820348518561</v>
       </c>
       <c r="GR6">
-        <v>0.9990620482791992</v>
+        <v>0.9990657791396159</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.01025632642398101</v>
+        <v>0.008093231497784334</v>
       </c>
       <c r="F2">
-        <v>0.5034553472172337</v>
+        <v>0.5030846697138647</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>116</v>
       </c>
       <c r="E3">
-        <v>0.008171322382229767</v>
+        <v>0.007742164989502947</v>
       </c>
       <c r="F3">
-        <v>0.50840203900241</v>
+        <v>0.5083434989765989</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>121</v>
       </c>
       <c r="E4">
-        <v>0.008820054405154952</v>
+        <v>0.0080228143162797</v>
       </c>
       <c r="F4">
-        <v>0.5012400315100555</v>
+        <v>0.5009252499733422</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.009194647856382829</v>
+        <v>0.0633228118158598</v>
       </c>
       <c r="F5">
-        <v>0.5078600568959223</v>
+        <v>0.5078266596751376</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>137</v>
       </c>
       <c r="E6">
-        <v>0.007719637967353261</v>
+        <v>0.007710342733733559</v>
       </c>
       <c r="F6">
-        <v>0.5045670899357618</v>
+        <v>0.5044240606214064</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>0.01025632642398101</v>
+        <v>0.008093231497784334</v>
       </c>
       <c r="F2">
-        <v>0.7004491588581711</v>
+        <v>0.7001149115417824</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.008171322382229767</v>
+        <v>0.007742164989502947</v>
       </c>
       <c r="F3">
-        <v>0.701466577009303</v>
+        <v>0.7014371600475078</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>154</v>
       </c>
       <c r="E4">
-        <v>0.008820054405154952</v>
+        <v>0.0080228143162797</v>
       </c>
       <c r="F4">
-        <v>0.7128820672708698</v>
+        <v>0.7126922682662379</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.009194647856382829</v>
+        <v>0.0633228118158598</v>
       </c>
       <c r="F5">
-        <v>0.7222871762757929</v>
+        <v>0.7222661772067794</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.007719637967353261</v>
+        <v>0.007710342733733559</v>
       </c>
       <c r="F6">
-        <v>0.7192124132129609</v>
+        <v>0.7191735817453534</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.01025632642398101</v>
+        <v>0.008093231497784334</v>
       </c>
       <c r="F2">
-        <v>0.8028187737082295</v>
+        <v>0.8027281901580843</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3">
-        <v>0.008171322382229767</v>
+        <v>0.007742164989502947</v>
       </c>
       <c r="F3">
-        <v>0.8021658615085965</v>
+        <v>0.8021807154799395</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>163</v>
       </c>
       <c r="E4">
-        <v>0.008820054405154952</v>
+        <v>0.0080228143162797</v>
       </c>
       <c r="F4">
-        <v>0.801684968997988</v>
+        <v>0.8016556110895745</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>159</v>
       </c>
       <c r="E5">
-        <v>0.009194647856382829</v>
+        <v>0.0633228118158598</v>
       </c>
       <c r="F5">
-        <v>0.8008591488037248</v>
+        <v>0.8008654326601616</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.007719637967353261</v>
+        <v>0.007710342733733559</v>
       </c>
       <c r="F6">
-        <v>0.8167881019769014</v>
+        <v>0.8167838369364889</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>172</v>
       </c>
       <c r="E2">
-        <v>0.01025632642398101</v>
+        <v>0.008093231497784334</v>
       </c>
       <c r="F2">
-        <v>0.901112931931162</v>
+        <v>0.9013759775103638</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.008171322382229767</v>
+        <v>0.007742164989502947</v>
       </c>
       <c r="F3">
-        <v>0.9107303491174972</v>
+        <v>0.910792542934033</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>172</v>
       </c>
       <c r="E4">
-        <v>0.008820054405154952</v>
+        <v>0.0080228143162797</v>
       </c>
       <c r="F4">
-        <v>0.9096309223956227</v>
+        <v>0.9098432491601628</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>172</v>
       </c>
       <c r="E5">
-        <v>0.009194647856382829</v>
+        <v>0.0633228118158598</v>
       </c>
       <c r="F5">
-        <v>0.9113394462310519</v>
+        <v>0.9113675209588887</v>
       </c>
       <c r="G5">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>172</v>
       </c>
       <c r="E6">
-        <v>0.007719637967353261</v>
+        <v>0.007710342733733559</v>
       </c>
       <c r="F6">
-        <v>0.9126613972630878</v>
+        <v>0.9127129413889516</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>28</v>

--- a/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
@@ -2006,31 +2006,31 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.133242865342678E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001049746011849942</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.782331798824743E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.335393628637344E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001981605380677819</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0002861046935768598</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0003193287652306225</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001590904572005725</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.603509485019962E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2042,49 +2042,49 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2.149748381807581E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.993118777031128E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>9.634844380957848E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.784833881304689E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.351190554310619E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>6.762229815073569E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.282897397648109E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>9.226362662536201E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>6.225362380064395E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>6.85315016663282E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.27965150872389E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.128385709791735E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.196151202583413E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.128385709791735E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.57469031903792E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2099,46 +2099,46 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.915878306902716E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.070987493197227E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>6.246846170706987E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001293677766887653</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>8.882009425472223E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001823630314248478</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.000139525048959144</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001541001582923816</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0001455258645861076</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>7.058615193519083E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>2.033514314852877E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>2.09351382047172E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.09351382047172E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -2147,46 +2147,46 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.886930244320804E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.138052760392682E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>9.532106838066584E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.000127553232273746</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0002242497541296754</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0003303490807416342</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0003200498472682687</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0003890263142697714</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.00038716483504478</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0002792677422567719</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0002286305342186942</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0002019752336517006</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>8.429189500560337E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>7.858756132248938E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
@@ -2195,43 +2195,43 @@
         <v>0</v>
       </c>
       <c r="BQ2">
-        <v>3.731559812178792E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>4.995511830591277E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001081834494468775</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0001071097226239762</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>8.096124960418614E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0002135692683700775</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0002591608032760259</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0002653933859318292</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0002560692719212802</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0002178582409128865</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>9.970898022713649E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>3.066965518287445E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.541126715593351E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -2243,319 +2243,319 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.138052760392682E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>3.049461429363102E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3.562780082915462E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>4.383822905138988E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>8.331397514606679E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0001368661809094409</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>6.070987493197227E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.02607268347122925</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.06330120172805187</v>
+        <v>0.1797794424079608</v>
       </c>
       <c r="CP2">
-        <v>0.09201906891526865</v>
+        <v>0.3354910400131954</v>
       </c>
       <c r="CQ2">
-        <v>0.09254324403497075</v>
+        <v>0.3383331781421043</v>
       </c>
       <c r="CR2">
-        <v>0.005523398894251962</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.02203639945560134</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01308152137380687</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0005367737967438428</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.002229037038140839</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.0008305639799530093</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01461527270548087</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.03082940776692166</v>
+        <v>0.003713619628256405</v>
       </c>
       <c r="CZ2">
-        <v>0.01530079855660986</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0006376297727942743</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.01940721621466559</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.03412865532953761</v>
+        <v>0.02160252152758635</v>
       </c>
       <c r="DD2">
-        <v>0.002352632607738053</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.001798386518240961</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0009854201850064538</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.003461855565545882</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.001202532508466816</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0004775601926901719</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.00676277220081907</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.02154781472266373</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.002966032048500189</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.02034355863238082</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0001926810347986435</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.000125266221501164</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.005543721485909731</v>
+        <v>0</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.00287513111061073</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01093252167564829</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.02645059620390185</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002015556579765885</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.005324427991383287</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.000690328249854957</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0003372977059280549</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>2.923812839038219E-05</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.004805393872973206</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0006627159056617348</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0002093174332722785</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001114061699325996</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.007004402983336182</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.04133760173362536</v>
+        <v>0.06069026276941097</v>
       </c>
       <c r="EG2">
-        <v>0.0147832703555596</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002669986358981542</v>
+        <v>0</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.000189636820491928</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0002728907742039821</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0001404265574190939</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0005302946604816903</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.003348764903673961</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.005892553547124623</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.006394329918979889</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.00527139437201685</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01029242230299643</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.01165395577466375</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0003217560674294112</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0003901016907516601</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.002001514360580073</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.004293411141433789</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01893327220524156</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.02431695644033978</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.02310906104138822</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.008865333495536266</v>
+        <v>0</v>
       </c>
       <c r="FB2">
         <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.002805813345258959</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.003641719192603514</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006073303262354232</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01178849300926208</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.005753592309360024</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.003127246180115794</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.008384568045610177</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.004747192294472748</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.007438119153050717</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.00797590627294539</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.003647225030063074</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>4.866272717244635E-05</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.01737839819730088</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.04128221242134265</v>
+        <v>0.06038993551148579</v>
       </c>
       <c r="FQ2">
-        <v>0.0208772635504043</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.02188257780802874</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.01777198872569196</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001250856351424098</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0007431078116784309</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0006811883645294997</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001986894760748655</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0002587838260207059</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0006064557947293662</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.005192338086246208</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.01614797489427443</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.009000801178039102</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001481876104860322</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.00677592621946469</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.002579918599469706</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0005967557395298125</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0008721899660077543</v>
+        <v>0</v>
       </c>
       <c r="GH2">
         <v>0</v>
@@ -2564,31 +2564,31 @@
         <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0008655847314220248</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>2.573145532199796E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>7.469823878718146E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0002873316777432533</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0001926810347986435</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.004048156239181392</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001525443397540816</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.00213747995844802</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.00163728152564983</v>
+        <v>0</v>
       </c>
       <c r="GS2">
         <v>0</v>
@@ -2776,40 +2776,40 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.315296689671626E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001820305115799609</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001462335635244291</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.391952087918018E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.68114797124334E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000134782814378032</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001774258712690219</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.084162799549932E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.274225930655743E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001276576770867359</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.164639390837353E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.188713624563118E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,193 +2821,193 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4.253937584377747E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>8.389035677917409E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.687543199328577E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001979165216538787</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002008216013423126</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001386556832908494</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7.656652559715114E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001041486035922561</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001027341886263969</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002358806007282033</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001246506674123355</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>8.0713561242873E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001096550304331002</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001060486802504095</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.465108626504821E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.655927860591655E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.200801335520183E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.465970959575641E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.147289108116457E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001493064207106359</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001569789623740666</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001467899684915332</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001997249804649072</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002907347618106949</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001829582836985681</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001774258712690219</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0001083525782632396</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.112900540864923E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.470720845819523E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.409008884155538E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>4.589589894476527E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002358806007282033</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0002224122565880006</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001316963411638402</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0001027341886263969</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0002691792178959945</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>3.74906417718609E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.16958746937311E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.470720845819523E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>8.693583573734594E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>4.589589894476527E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001846308725715207</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>4.396419806043837E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.173304044305874E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.596073703809183E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.813104880106904E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.034485157927179E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.880191049988568E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>1.08489917931395E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>6.869536413020465E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0003386946773940875</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.000499540015037037</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.000231560074860026</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>7.710195587408725E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001331834817379953</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>6.352718645632604E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>2.909973449080268E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.086923403119202E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -3016,355 +3016,355 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>4.917000002341059E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>5.19099513324575E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.173304044305874E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>5.992724281503795E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001902699906086133</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>8.389035677917409E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>2.835333186966857E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>3.442150496506523E-05</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0005241341257733498</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1364512699715318</v>
+        <v>0.4607369179033247</v>
       </c>
       <c r="CQ3">
-        <v>0.006818311700310491</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.1225817796256801</v>
+        <v>0.4006912578895667</v>
       </c>
       <c r="CS3">
-        <v>0.009785952031442448</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.02588791431155809</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0002920513416107684</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.03570960282387767</v>
+        <v>0.02459256479978979</v>
       </c>
       <c r="CW3">
-        <v>0.01726606217584077</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.00356014678077157</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0002016679676347837</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0125366660096686</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.04677921631987094</v>
+        <v>0.07251662198498568</v>
       </c>
       <c r="DB3">
-        <v>0.004415441182886555</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.02763960129413917</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.02191132830910117</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.002754672624110558</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.0003048650351348847</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0004967036762663563</v>
+        <v>0</v>
       </c>
       <c r="DH3">
         <v>0</v>
       </c>
       <c r="DI3">
-        <v>6.296435392307027E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.003648903660134046</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0005413812680918505</v>
+        <v>0</v>
       </c>
       <c r="DL3">
         <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.02043069739773709</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.006456840197381023</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.02864196421664054</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.002967273985891953</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001173942682072579</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003540008375028326</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.004792939551697085</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.003080801924283833</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0005117641045140507</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.02686791691280836</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.005185899420873749</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.001416001519456509</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001338138163306934</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.001323320921323764</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0009549925468896605</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.003225046920984706</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002351790174657743</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.001237420003831125</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0006883383873433981</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>3.072309141080449E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.03644946374450785</v>
+        <v>0.02779567004661765</v>
       </c>
       <c r="EH3">
-        <v>0.02243098802185946</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.007376058246642472</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0003287331913203255</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>4.006414114350636E-06</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>1.289533562838526E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.00129718195207114</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0005431687321891406</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.001005904277175188</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0042258964620227</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.008230011470000942</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.009033273022114407</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.006370957100866189</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.01178921014872271</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.004918520978744757</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0003797305123582378</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.00192981595149517</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.003571732819172497</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01063920242747405</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01788880823576573</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0260934042021351</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01527538186441157</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.001848469695481336</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.002411625208930324</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003997653387740079</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.003382262686109001</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.00792237734125241</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.004277312586050786</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0009675972844431347</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.003445459377526063</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.00686748097948536</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.007114170968387659</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.005709473841795566</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.00569926672658167</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.002989412445981187</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.004680702432781745</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.03318598216651224</v>
+        <v>0.01366696737571546</v>
       </c>
       <c r="FR3">
-        <v>0.02237032861718668</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.01442480661740759</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.02189133377271244</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.003632588655072535</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0001260993927663596</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.00038088574222669</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>4.348697630313776E-05</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001358021969350431</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>1.497674273804922E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0002551654116700021</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0113004708336325</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.01304344005417838</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001693232459364672</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.004838275518522791</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.004424427761356597</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0002047269885337293</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.00108622282342972</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>1.746931284453788E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>4.836183770240109E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0006529698235565564</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001313987334375812</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>3.485311302861639E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>5.371941532672838E-06</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>4.887742562208479E-06</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003258406189547742</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001552964043660364</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001347738664450532</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002252285343440383</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.623309533091085E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>9.686696875650126E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3567,31 +3567,31 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.639688753187979E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.689519666151501E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001338637907432065</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001096178049679855</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001254549843507631</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0003254997520148461</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001193745378221493</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001010462407459219</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001096178049679855</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3606,31 +3606,31 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002003657843100777</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0004567376756009241</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001351893125206619</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.987423628168095E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0002436731452170953</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0003666582114658401</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>2.422312918114347E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>7.013332591275108E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>9.886135722637466E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001267447952105824</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>8.674642841830913E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>4.005671337030084E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0001245348658449765</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0003557167920167095</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0006283499449009235</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0002942900569610526</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>8.501738130551738E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001070165116622225</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -3693,43 +3693,43 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.742781023000709E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>3.324601071183649E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>6.15607313363148E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.497023745329375E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001698659692748063</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>9.886135722637466E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.104269745935572E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0001892173901667736</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002961708955586785</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.377260128505431E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0002536294715718267</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0001605353371617285</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3741,46 +3741,46 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.176218005927367E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>5.137868506838292E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.603595033075207E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>6.838851618569566E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>8.952320935099131E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0001965472166906389</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.126926773704503E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>5.715819581458622E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.000157411957470682</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001425026493575872</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>7.112901779862186E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001310352872261055</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3792,328 +3792,328 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>2.873835895920768E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>6.303429876837993E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0001487824684530826</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>8.506722193662768E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0003345712791262561</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0004954981007374252</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.004870165448991043</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1112793294037076</v>
+        <v>0.4192866905957517</v>
       </c>
       <c r="CP4">
-        <v>0.002315440545597467</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.07332243004134097</v>
+        <v>0.2232335293055644</v>
       </c>
       <c r="CR4">
-        <v>0.01839840805168498</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.00881492838147809</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001142959231273935</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.039962976911368</v>
+        <v>0.0509268774211504</v>
       </c>
       <c r="CV4">
-        <v>0.002779731481976049</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.05658665109380891</v>
+        <v>0.1367906842777494</v>
       </c>
       <c r="CX4">
-        <v>0.002833449700127317</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.000423191084609063</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0192021306576488</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.03595055303749355</v>
+        <v>0.03020209752278888</v>
       </c>
       <c r="DB4">
-        <v>0.00613627815823722</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.05157311241631238</v>
+        <v>0.110894994074235</v>
       </c>
       <c r="DD4">
-        <v>0.00267823725801167</v>
+        <v>0</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0002274075452895268</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.002847984826915573</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0001497747218074015</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0002828261293441466</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.006731692433958285</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0008073014103215693</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.002517458692946357</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01725069069212144</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.004649830292268801</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01316472401958751</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>5.513345909018624E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0002238349270749888</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.005723803602669654</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0005423183675090751</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.004642635888052113</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.006197932716093073</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01272131914965475</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.002096041344309332</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.001829672243889374</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.001596311841274992</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.003410577595917883</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0003498646001132229</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.002077355074406879</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.001172156120022381</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>9.064776080931666E-05</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0006715140604397852</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.02981759659714291</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.03280977582290567</v>
+        <v>0.01397950526229844</v>
       </c>
       <c r="EH4">
-        <v>0.005363576349025526</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.001265129232984663</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0002055932560886179</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0001920923600550508</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0025075767308619</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.004835411575913585</v>
+        <v>0</v>
       </c>
       <c r="EN4">
         <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002271900441094517</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.01002777498323441</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.009932288448318819</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.007806234849449814</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01390476048202681</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.009148689888432359</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001016154944647133</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.001208927921049729</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.006756493746596117</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.01497354827796461</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.02032514562261127</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.03294648356243912</v>
+        <v>0.01468562154046163</v>
       </c>
       <c r="FA4">
-        <v>0.02050832475454104</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.007436801289103275</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.00115500533923876</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.004148775488390691</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.001774918850994029</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.008213778868113043</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.009969926510244731</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.002809328160272047</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.002492431124129014</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.005790660546288228</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01625568068794566</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01227156544897688</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.009035951947481536</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.008420272529397177</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0001779279198224142</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.02675003278917331</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.02699311507737408</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0178568704638228</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.02525465317681974</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.008582201857694193</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002887161591541209</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0007587744609516315</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001537720850335878</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>3.09867970663118E-05</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>6.838851618569566E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0003903459480283289</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.004168272183223752</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.01124110663485626</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001584199352779915</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002011305944684441</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.006162314188907495</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.00059677925424638</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0008125176546518765</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0002511233504725985</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>6.338579422062489E-05</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.002094665128293342</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
@@ -4125,19 +4125,19 @@
         <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0007049080866789107</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0009443614386600549</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0006887200746449465</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001436444125543087</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001413492730829259</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001991033387541061</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003331784902650113</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001636967299166824</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001128304324137655</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001380411867198878</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000331941482569982</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001840385908789083</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.581488111914935E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001045120209082938</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>7.316200109366863E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.416327744910278E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.947575198018807E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4358,88 +4358,88 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.377153029542375E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>6.947575198018807E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>9.739911260215363E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001642724413581694</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.000144248456835482</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001222084367201433</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.000354122796666598</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0003278264079242153</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002084814491160145</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001968636460549917</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001345836963840965</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>9.734206813377138E-07</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>5.082254659501939E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001128304324137655</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0005088240379614346</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.000298622216661604</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001232224476544653</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0002997961513317097</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0004851666810114056</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.740452257707088E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>9.80202792439026E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>7.977529280144641E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>5.012261571245398E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>4.210001209146462E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>9.0321470761472E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.030816588397683E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>2.055320322065657E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -4454,34 +4454,34 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.301789074444407E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>2.840652220451095E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.725742952384379E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0002094644338050496</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0004329175534611348</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0001959103168935381</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>5.39529942918666E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>5.094133539262258E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>7.179077812376005E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>2.728513905028556E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -4490,58 +4490,58 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.987134256406332E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>8.938923004188905E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>1.504985267609804E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.769458139800471E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>6.533655610458832E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.929545464795755E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>7.553489253540783E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>2.867736141544016E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.364160028208283E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001475485647661259</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0002358297386317715</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>5.61826307255383E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>9.294685540820433E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0002893132825202417</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001332726099015457</v>
+        <v>0</v>
       </c>
       <c r="BY5">
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.392727789794048E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4550,367 +4550,367 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>2.381148024871426E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>7.895490925007779E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>3.514889249760646E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>4.285434505886493E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0001522728784083477</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.000163400514818984</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5.65254612309813E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.229276503434575E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>7.473591018967242E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001361716578378898</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>7.736793571355618E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.003729076416380199</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.05060820374408382</v>
+        <v>0.1374549232910932</v>
       </c>
       <c r="CP5">
-        <v>0.020313051256115</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.09811390764616754</v>
+        <v>0.4545129222976288</v>
       </c>
       <c r="CR5">
-        <v>0.06549723961678958</v>
+        <v>0.2368258942100097</v>
       </c>
       <c r="CS5">
-        <v>0.009600185018403625</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02347297578698006</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.02645670306127492</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.001188777520395676</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01407870896557821</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>3.726027801530885E-05</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.005280396885018864</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.04630187195641775</v>
+        <v>0.1087140179364467</v>
       </c>
       <c r="DA5">
-        <v>0.02767178827773347</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.00361848841269813</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.03376993425612342</v>
+        <v>0.0250745648905652</v>
       </c>
       <c r="DD5">
-        <v>0.008996515938346814</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0002417722501202192</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.002514081947436885</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>7.834535008598346E-05</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0004669269907420161</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.005849760302691858</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>7.355100977792394E-05</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.003638842470046362</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.02764550051350687</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.003832982621484415</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01576427952732689</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0009655895595762859</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0002958842330582583</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004912246922353094</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>1.170411085162849E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.007812169216509381</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.01260190371297414</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.01744086838627195</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0002790152004627895</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.002226815535254313</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0002474458107864949</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.001485021032972051</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001438472760379298</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.004161862722520469</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.001581178881050307</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>3.987134256406332E-06</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.00358337012482505</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01647032621211548</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0308325152287443</v>
+        <v>0.005469925393292145</v>
       </c>
       <c r="EH5">
-        <v>0.008115634710502384</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0002084814491160145</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0009895741178483455</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0007818643613892338</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002427850596855065</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.002117611156035552</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.001788297327900759</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.004364836199071844</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.009586950088617926</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.009092938424989349</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.005506998833396068</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01080292777237076</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.008607809412301012</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0001858897501426069</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.001323739386188602</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.003965164131487994</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01186466969855522</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.02635790332991128</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.03479976347286997</v>
+        <v>0.03194775198096438</v>
       </c>
       <c r="FA5">
-        <v>0.02769044804795598</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.01391879323398552</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>6.32976511375734E-05</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.002126953047433275</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001837227547676821</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.004580228578138491</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.005810241110513112</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002878870650152924</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.002962877335904194</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.00739784157529324</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.009352462311234676</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01085213653799294</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0107351532857701</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.008522354668349044</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0001821965563929271</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.01759878607169121</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.02779171206961764</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.01411608953797944</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.01769451119319461</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.006448289391458373</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0001722226040492167</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>2.404419809936702E-05</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>2.498460489469272E-06</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.00190054520068734</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003840869658522983</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0001776253829346333</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.00567710349989695</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.01629168767729632</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.004163343898061349</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001469428468733143</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.005702587243139596</v>
+        <v>0</v>
       </c>
       <c r="GF5">
         <v>0</v>
       </c>
       <c r="GG5">
-        <v>2.55133987702256E-06</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>4.524427582236268E-06</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0005755394300220775</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.000993109769109058</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.004292194764145696</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0003029297921004437</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0002546129935106238</v>
+        <v>0</v>
       </c>
       <c r="GN5">
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001232686010803171</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.003028199338388533</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0008719725918984889</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.002141505266949535</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0007085895948517792</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,31 +5086,31 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.637175159106139E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001962917603713752</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001715719796267235</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001557794174751177</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001328857376473777</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001206762474815633</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.480603441735383E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.936679982518631E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3.831213209985493E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5119,571 +5119,571 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.072503902659301E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.676209884804547E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.664042685631467E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.676209884804547E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>4.830340488035783E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.198762342427261E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>7.320333858948309E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>6.09733907127411E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.958858349480993E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001481550067666253</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002253117339374174</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.52171072969557E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>6.590935494279878E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>6.346120449671198E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.025916037169027E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.422193441425831E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>4.194209067694359E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.092598098880034E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.318744148302397E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>6.036278208834156E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>8.439985779230406E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>7.843902630022721E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0001606349110390163</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0001776853922133799</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>5.263498587554483E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0002150497497929922</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.00038467394916091</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>8.551828004802422E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>6.472671609261541E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001529008854332248</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>8.407924422636899E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>5.554533145948991E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>2.159697822960386E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>4.651575024768606E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1.072503902659301E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.931393572300708E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>3.634523529120979E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002072170687778985</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>5.840310152704417E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.193801614163147E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0002810365267626406</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0004163193456437723</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0001557729819036273</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0002962417704529234</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0002595862765604194</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>2.819501337028614E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>3.634198347600412E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>8.713874894238573E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>4.998187098485259E-07</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0003136583485697091</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001625973900230023</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.03320408026778E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>8.265180844726031E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0001625973900230023</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2.892790585993595E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>9.668040347326499E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0003191131109407465</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0004039290989909947</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001606349110390163</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.043100447100014E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>8.769854757887176E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>2.082693357607765E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.857610095466057E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>5.596462045205679E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>3.394448788352584E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001880991877860587</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>4.187144351532237E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>9.97618752068668E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0002461528768149647</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01344809484149303</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.0873732122991905</v>
+        <v>0.3742767029120198</v>
       </c>
       <c r="CP6">
-        <v>0.000236611246304881</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.05603598761100387</v>
+        <v>0.1697704641644101</v>
       </c>
       <c r="CR6">
-        <v>0.02008578631399402</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0005619517044693268</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.002771663596289347</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01747891245571698</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01106013450400534</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.02752144361231809</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01527506551137903</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.007853395322165216</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.006981550536844939</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.04599535209552295</v>
+        <v>0.1042454336507559</v>
       </c>
       <c r="DB6">
-        <v>1.309276985071137E-05</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.05017308289742903</v>
+        <v>0.1315092395971684</v>
       </c>
       <c r="DD6">
-        <v>0.006689821977630605</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.002550314667085117</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.0008753268738813256</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.00191575230513025</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0004579125342644845</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.004825728168996239</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.003032868129829198</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.008337436372764077</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.003602743389986876</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.007641121549628994</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.004246395621347062</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.002561870771593017</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0006252151037193915</v>
+        <v>0</v>
       </c>
       <c r="DR6">
         <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0009695478441406327</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.003313146676382908</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0007005854943986709</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.006968831525569583</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.001335196798724593</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.001278232382715934</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001760059216392821</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.002657875686272941</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0006851600100386411</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.003584478577525122</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001875931430861614</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>1.894603021484888E-05</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0006931931646104279</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0188745917421631</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.03522891923289547</v>
+        <v>0.03398386098843161</v>
       </c>
       <c r="EH6">
-        <v>0.006541177290931613</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0003371517976378298</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0002389812881297103</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>1.678456195916541E-05</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.004108563295271902</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0135631774723928</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.00293716877968676</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.005064929253410977</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01325753386645504</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.01345698253586863</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.01203356623655865</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.01545437074194089</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.009937179323980312</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001574420602808512</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.001031465348204019</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.009499306742976606</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.02716050413488671</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.03392195174723556</v>
+        <v>0.02545461159518565</v>
       </c>
       <c r="EZ6">
-        <v>0.05115548339454313</v>
+        <v>0.1379203698937298</v>
       </c>
       <c r="FA6">
-        <v>0.0335212008036805</v>
+        <v>0.0228393171982987</v>
       </c>
       <c r="FB6">
-        <v>0.01741187541950262</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>7.628378143233964E-06</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.004027598601416423</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.001332411887733589</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.003300034224492794</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.005543649697782283</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.003231833280644494</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.002897393144583189</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.004344564109104885</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0219920656440515</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.02120517140327155</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01395312306138942</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.01090857229150624</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.00011813380640491</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.02127166797158469</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.02847243591830597</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.01784314278214689</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.01917561735014489</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.005892929080678097</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002123455120435236</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0001807743063901548</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0007478436073346758</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>9.364008536774155E-05</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>7.187116127883076E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001400047542191873</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.003525467589730514</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.01373811792421907</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.003993833569894297</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001009547373076617</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.003828708515587408</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0003015546800172205</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>5.975095240683184E-05</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0001337735962964378</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0002896769270474414</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0008175836336183457</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.005427049753293164</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0007374258583393863</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>6.09733907127411E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.000121523821254653</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.00161703149248722</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001827827986093443</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0005499253628613719</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0007837442877598031</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0009342208603839846</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6657,760 +6657,760 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.133242865342678E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000156307029838421</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002441303478266685</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0003074842841130419</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0005056448221808238</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0007917495157576835</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001111078280988306</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001270168738188879</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001336203833039078</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001336203833039078</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001336203833039078</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001336203833039078</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.001357701316857154</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001397632504627465</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.001493980948437044</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001541829287250091</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001565341192793197</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.001632963490943933</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001705792464920414</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001798056091545776</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00186030971534642</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001928841217012748</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001981637732099987</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002052921589197904</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.002104883101223738</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002176166958321656</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002179741648640693</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.002179741648640693</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002179741648640693</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.002179741648640693</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.002179741648640693</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.002185657526947596</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.002246367401879569</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.002308835863586638</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.002438203640275404</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.002527023734530126</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.002709386765954974</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.002848911814914118</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0030030119732065</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.003148537837792607</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.003219123989727798</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.003239459132876327</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.003239459132876327</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.003241552646696799</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.00324364616051727</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.00324364616051727</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.00324364616051727</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.003262515462960478</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.003273895990564405</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.003369217058945071</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.003496770291218817</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.003721020045348493</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.004051369126090127</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.004371418973358396</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.004760445287628167</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.005147610122672947</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.005426877864929719</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.005655508399148413</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.005857483632800114</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.005941775527805717</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.005949634283937967</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.005949634283937967</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.005949634283937967</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.005986949882059754</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.006036905000365667</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.006145088449812545</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.006252198172436521</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.006333159422040708</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.006546728690410785</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.006805889493686811</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.00707128287961864</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.00732735215153992</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.007545210392452806</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.007644919372679943</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.007675589027862818</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.007691000295018752</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.007691000295018752</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.007691000295018752</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.007691000295018752</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.007702380822622678</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.00773287543691631</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.007768503237745464</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.007812341466796854</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.007895655441942921</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.008032521622852363</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.008093231497784334</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.03416591496901358</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.09746711669706545</v>
+        <v>0.1797794424079608</v>
       </c>
       <c r="CP2">
-        <v>0.1894861856123341</v>
+        <v>0.5152704824211561</v>
       </c>
       <c r="CQ2">
-        <v>0.2820294296473048</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CR2">
-        <v>0.2875528285415568</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CS2">
-        <v>0.3095892279971581</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CT2">
-        <v>0.322670749370965</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CU2">
-        <v>0.3232075231677088</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CV2">
-        <v>0.3254365602058496</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CW2">
-        <v>0.3262671241858026</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CX2">
-        <v>0.3408823968912835</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="CY2">
-        <v>0.3717118046582051</v>
+        <v>0.8573172801915169</v>
       </c>
       <c r="CZ2">
-        <v>0.387012603214815</v>
+        <v>0.8573172801915169</v>
       </c>
       <c r="DA2">
-        <v>0.3876502329876093</v>
+        <v>0.8573172801915169</v>
       </c>
       <c r="DB2">
-        <v>0.4070574492022749</v>
+        <v>0.8573172801915169</v>
       </c>
       <c r="DC2">
-        <v>0.4411861045318125</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DD2">
-        <v>0.4435387371395506</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DE2">
-        <v>0.4453371236577915</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DF2">
-        <v>0.4453371236577915</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DG2">
-        <v>0.446322543842798</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DH2">
-        <v>0.4497843994083439</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DI2">
-        <v>0.4509869319168107</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DJ2">
-        <v>0.4514644921095008</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DK2">
-        <v>0.4582272643103199</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DL2">
-        <v>0.4797750790329836</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DM2">
-        <v>0.4827411110814838</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DN2">
-        <v>0.5030846697138647</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DO2">
-        <v>0.5032773507486633</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DP2">
-        <v>0.5034026169701645</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DQ2">
-        <v>0.5089463384560743</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DR2">
-        <v>0.5089463384560743</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DS2">
-        <v>0.5118214695666851</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DT2">
-        <v>0.5227539912423333</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DU2">
-        <v>0.5492045874462352</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DV2">
-        <v>0.5512201440260012</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DW2">
-        <v>0.5565445720173845</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DX2">
-        <v>0.5572349002672394</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DY2">
-        <v>0.5575721979731675</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="DZ2">
-        <v>0.5576014361015579</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="EA2">
-        <v>0.5624068299745311</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="EB2">
-        <v>0.5630695458801928</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="EC2">
-        <v>0.563278863313465</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="ED2">
-        <v>0.564392925012791</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="EE2">
-        <v>0.5713973279961272</v>
+        <v>0.8789198017191032</v>
       </c>
       <c r="EF2">
-        <v>0.6127349297297525</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EG2">
-        <v>0.6275182000853121</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EH2">
-        <v>0.6301881864442936</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EI2">
-        <v>0.6301881864442936</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EJ2">
-        <v>0.6303778232647855</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EK2">
-        <v>0.6306507140389895</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EL2">
-        <v>0.6307911405964086</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EM2">
-        <v>0.6313214352568903</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EN2">
-        <v>0.6346702001605643</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EO2">
-        <v>0.6405627537076889</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EP2">
-        <v>0.6469570836266688</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EQ2">
-        <v>0.6522284779986857</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="ER2">
-        <v>0.6625209003016821</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="ES2">
-        <v>0.6741748560763459</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="ET2">
-        <v>0.6744966121437753</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EU2">
-        <v>0.674886713834527</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EV2">
-        <v>0.6768882281951071</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EW2">
-        <v>0.6811816393365409</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EX2">
-        <v>0.7001149115417824</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EY2">
-        <v>0.7244318679821222</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="EZ2">
-        <v>0.7475409290235104</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FA2">
-        <v>0.7564062625190467</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FB2">
-        <v>0.7564062625190467</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FC2">
-        <v>0.7592120758643057</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FD2">
-        <v>0.7628537950569092</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FE2">
-        <v>0.7689270983192634</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FF2">
-        <v>0.7807155913285255</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FG2">
-        <v>0.7864691836378855</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FH2">
-        <v>0.7895964298180014</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FI2">
-        <v>0.7979809978636115</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FJ2">
-        <v>0.8027281901580843</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FK2">
-        <v>0.810166309311135</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FL2">
-        <v>0.8181422155840804</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FM2">
-        <v>0.8217894406141435</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FN2">
-        <v>0.8218381033413159</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FO2">
-        <v>0.8392165015386168</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="FP2">
-        <v>0.8804987139599595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9013759775103638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9232585553183925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9410305440440845</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9422814003955086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.943024508207187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9437056965717164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9456925913324651</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9459513751584858</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9465578309532152</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9517501690394614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9678981439337359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.976898945111775</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9783808212166353</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9851567474360999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9877366660355696</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9883334217750994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9892056117411072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9892056117411072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9892056117411072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9900711964725293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9900969279278513</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9901716261666385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9904589578443818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9906516388791804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9946997951183618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9962252385159026</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9983627184743507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7427,763 +7427,763 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.315296689671626E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001951834784766771</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003414170420011063</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003953365628802865</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004421480425927199</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0005769308569707519</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0007543567282397738</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0008351983562352732</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009179406155418306</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001045598292628567</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.00111724468653694</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001139131822782571</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001139131822782571</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001139131822782571</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001139131822782571</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001181671198626349</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001265561555405523</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001312436987398808</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001510353509052687</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001711175110395</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001849830793685849</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001926397319283</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002030545922875257</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002133280111501653</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002369160712229857</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002493811379642192</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002574524940885065</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002684179971318165</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002790228651568575</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00279869376019508</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00279869376019508</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002815253038800996</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002815253038800996</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002857261052156198</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002921920761751955</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.00300339365283312</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003152700073543756</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003309679035917822</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003456469004409355</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.003656193984874263</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003946928746684958</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004129887030383526</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004307312901652548</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004415665479915788</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.004426794485324437</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004441501693782633</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004441842594671048</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.004487738493615814</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.004723619094344017</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.004946031350932018</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.005077727692095858</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.005180461880722255</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.005449641098618249</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.00548713174039011</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.005498827615083841</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.005513534823542036</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.00551440418189941</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.00551440418189941</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.005560300080844176</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.005744930953415697</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.005788895151476135</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.005800628191919194</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.005816588928957285</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.005834719977758355</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.005838754462916282</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.005857556373416167</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005857556373416167</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.005868405365209307</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.005937100729339511</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.006275795406733599</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.006775335421770636</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.007006895496630662</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.007083997452504749</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.007217180934242744</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.00728070812069907</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.007309807855189873</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.007309807855189873</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.007330677089221064</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.007330677089221064</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.007330677089221064</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.007335594089223406</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.007387504040555863</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.007399237080998921</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.007405229805280425</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.007595499795889038</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.007679390152668213</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.007707743484537882</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.007742164989502947</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.008266299115276297</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1447175690868081</v>
+        <v>0.4607369179033247</v>
       </c>
       <c r="CQ3">
-        <v>0.1515358807871186</v>
+        <v>0.4607369179033247</v>
       </c>
       <c r="CR3">
-        <v>0.2741176604127987</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="CS3">
-        <v>0.2839036124442411</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="CT3">
-        <v>0.3097915267557992</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="CU3">
-        <v>0.3100835780974099</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="CV3">
-        <v>0.3457931809212876</v>
+        <v>0.8860207405926811</v>
       </c>
       <c r="CW3">
-        <v>0.3630592430971284</v>
+        <v>0.8860207405926811</v>
       </c>
       <c r="CX3">
-        <v>0.3666193898778999</v>
+        <v>0.8860207405926811</v>
       </c>
       <c r="CY3">
-        <v>0.3668210578455347</v>
+        <v>0.8860207405926811</v>
       </c>
       <c r="CZ3">
-        <v>0.3793577238552033</v>
+        <v>0.8860207405926811</v>
       </c>
       <c r="DA3">
-        <v>0.4261369401750742</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DB3">
-        <v>0.4305523813579608</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DC3">
-        <v>0.4581919826520999</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DD3">
-        <v>0.4801033109612011</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DE3">
-        <v>0.4828579835853116</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DF3">
-        <v>0.4831628486204465</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DG3">
-        <v>0.4836595522967129</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DH3">
-        <v>0.4836595522967129</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DI3">
-        <v>0.4837225166506359</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DJ3">
-        <v>0.48737142031077</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DK3">
-        <v>0.4879128015788618</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DL3">
-        <v>0.4879128015788618</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DM3">
-        <v>0.5083434989765989</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DN3">
-        <v>0.5148003391739799</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DO3">
-        <v>0.5434423033906205</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DP3">
-        <v>0.5464095773765124</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DQ3">
-        <v>0.547583520058585</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DR3">
-        <v>0.5511235284336133</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DS3">
-        <v>0.5559164679853105</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DT3">
-        <v>0.5589972699095943</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DU3">
-        <v>0.5595090340141083</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DV3">
-        <v>0.5863769509269167</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DW3">
-        <v>0.5915628503477904</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DX3">
-        <v>0.592978851867247</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DY3">
-        <v>0.5943169900305539</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="DZ3">
-        <v>0.5956403109518777</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="EA3">
-        <v>0.5965953034987674</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="EB3">
-        <v>0.5998203504197521</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="EC3">
-        <v>0.6021721405944098</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="ED3">
-        <v>0.6034095605982409</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="EE3">
-        <v>0.6040978989855843</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="EF3">
-        <v>0.6041286220769951</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="EG3">
-        <v>0.640578085821503</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EH3">
-        <v>0.6630090738433625</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EI3">
-        <v>0.6703851320900049</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EJ3">
-        <v>0.6707138652813253</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EK3">
-        <v>0.6707178716954396</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EL3">
-        <v>0.670730767031068</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EM3">
-        <v>0.6720279489831392</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EN3">
-        <v>0.6725711177153284</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EO3">
-        <v>0.6735770219925036</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EP3">
-        <v>0.6778029184545262</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EQ3">
-        <v>0.6860329299245271</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="ER3">
-        <v>0.6950662029466416</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="ES3">
-        <v>0.7014371600475078</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="ET3">
-        <v>0.7132263701962305</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EU3">
-        <v>0.7181448911749753</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EV3">
-        <v>0.7185246216873336</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EW3">
-        <v>0.7204544376388288</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EX3">
-        <v>0.7240261704580012</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EY3">
-        <v>0.7346653728854753</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="EZ3">
-        <v>0.7525541811212411</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FA3">
-        <v>0.7786475853233762</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FB3">
-        <v>0.7939229671877878</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FC3">
-        <v>0.7957714368832691</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FD3">
-        <v>0.7981830620921995</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FE3">
-        <v>0.8021807154799395</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FF3">
-        <v>0.8055629781660485</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FG3">
-        <v>0.8134853555073009</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FH3">
-        <v>0.8177626680933517</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FI3">
-        <v>0.8187302653777949</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FJ3">
-        <v>0.822175724755321</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FK3">
-        <v>0.8290432057348063</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FL3">
-        <v>0.8361573767031939</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FM3">
-        <v>0.8418668505449894</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FN3">
-        <v>0.8475661172715712</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FO3">
-        <v>0.8505555297175523</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FP3">
-        <v>0.8552362321503341</v>
+        <v>0.9863330326242844</v>
       </c>
       <c r="FQ3">
-        <v>0.8884222143168463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.910792542934033</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9252173495514406</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9471086833241531</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9507412719792256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.950867371371992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9512482571142187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9512917440905219</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9526497660598723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9526647428026104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9529199082142804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.9642203790479129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9772638191020913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.978957051561456</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9837953270799787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9882197548413354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9884244818298691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9895107046532988</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9895281739661433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9895765358038457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9902295056274023</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9915434929617781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9915783460748068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9915837180163395</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9915886057589017</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9948470119484495</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9963999759921098</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9977477146565603</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8203,760 +8203,760 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.623309533091085E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001431000640874121</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001431000640874121</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001431000640874121</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001431000640874121</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001477397528406001</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001646349495021151</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002984987402453217</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0004081165452133071</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0005335715295640702</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0008590712815789163</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0009784458194010655</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001079492060146987</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001189109865114973</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001189109865114973</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001189109865114973</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001189109865114973</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001189109865114973</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001389475649425051</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001846213325025975</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001981402637546637</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002011276873828318</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002254950019045413</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002621608230511253</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002621608230511253</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002624030543429367</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002694163869342119</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002694163869342119</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002694163869342119</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002793025226568493</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002919770021779076</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002919770021779076</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002919770021779076</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002919770021779076</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002919770021779076</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002919770021779076</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002928444664620907</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002968501377991207</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003093036243836184</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.003448753035852893</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.004077102980753817</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.004371393037714869</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.004456410419020386</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.004563426930682609</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.004563426930682609</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.004563426930682609</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.004563426930682609</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.004620854740912616</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.004654100751624452</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.004715661482960767</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.004750631720414061</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.004920497689688867</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.005019359046915242</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.005030401744374598</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.005219619134541371</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.00551579003010005</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.005529562631385104</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.005529562631385104</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.005783192102956931</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.00594372744011866</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.00594372744011866</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.00594372744011866</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.00594372744011866</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.005955489620177933</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.006006868305246315</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006006868305246315</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.006032904255577068</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.006101292771762763</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.006190815981113755</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.006387363197804394</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.006428632465541439</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.006485790661356025</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.006643202618826708</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.006785705268184295</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.006785705268184295</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.006792818169964156</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.006923853457190262</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.006923853457190262</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.006923853457190262</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.006923853457190262</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.006952591816149469</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.006958895246026307</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.00710767771447939</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.007192744936416018</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.007527316215542274</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0080228143162797</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01289297976527074</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1241723091689783</v>
+        <v>0.4192866905957517</v>
       </c>
       <c r="CP4">
-        <v>0.1264877497145758</v>
+        <v>0.4192866905957517</v>
       </c>
       <c r="CQ4">
-        <v>0.1998101797559168</v>
+        <v>0.6425202199013161</v>
       </c>
       <c r="CR4">
-        <v>0.2182085878076017</v>
+        <v>0.6425202199013161</v>
       </c>
       <c r="CS4">
-        <v>0.2270235161890798</v>
+        <v>0.6425202199013161</v>
       </c>
       <c r="CT4">
-        <v>0.2281664754203538</v>
+        <v>0.6425202199013161</v>
       </c>
       <c r="CU4">
-        <v>0.2681294523317218</v>
+        <v>0.6934470973224666</v>
       </c>
       <c r="CV4">
-        <v>0.2709091838136978</v>
+        <v>0.6934470973224666</v>
       </c>
       <c r="CW4">
-        <v>0.3274958349075067</v>
+        <v>0.830237781600216</v>
       </c>
       <c r="CX4">
-        <v>0.330329284607634</v>
+        <v>0.830237781600216</v>
       </c>
       <c r="CY4">
-        <v>0.3307524756922431</v>
+        <v>0.830237781600216</v>
       </c>
       <c r="CZ4">
-        <v>0.3499546063498919</v>
+        <v>0.830237781600216</v>
       </c>
       <c r="DA4">
-        <v>0.3859051593873855</v>
+        <v>0.8604398791230049</v>
       </c>
       <c r="DB4">
-        <v>0.3920414375456227</v>
+        <v>0.8604398791230049</v>
       </c>
       <c r="DC4">
-        <v>0.4436145499619351</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DD4">
-        <v>0.4462927872199468</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DE4">
-        <v>0.4462927872199468</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DF4">
-        <v>0.4465201947652363</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DG4">
-        <v>0.4493681795921519</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DH4">
-        <v>0.4495179543139592</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DI4">
-        <v>0.4498007804433034</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DJ4">
-        <v>0.4565324728772617</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DK4">
-        <v>0.4573397742875833</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DL4">
-        <v>0.4598572329805296</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DM4">
-        <v>0.477107923672651</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DN4">
-        <v>0.4817577539649198</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DO4">
-        <v>0.4949224779845073</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DP4">
-        <v>0.4949776114435975</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DQ4">
-        <v>0.4952014463706725</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DR4">
-        <v>0.5009252499733422</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DS4">
-        <v>0.5014675683408513</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DT4">
-        <v>0.5061102042289034</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DU4">
-        <v>0.5123081369449964</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DV4">
-        <v>0.5250294560946512</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DW4">
-        <v>0.5271254974389605</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DX4">
-        <v>0.5289551696828499</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DY4">
-        <v>0.5305514815241249</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="DZ4">
-        <v>0.5339620591200428</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="EA4">
-        <v>0.534311923720156</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="EB4">
-        <v>0.5363892787945629</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="EC4">
-        <v>0.5375614349145853</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="ED4">
-        <v>0.5376520826753947</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="EE4">
-        <v>0.5383235967358344</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="EF4">
-        <v>0.5681411933329773</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="EG4">
-        <v>0.600950969155883</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EH4">
-        <v>0.6063145455049085</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EI4">
-        <v>0.6075796747378932</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EJ4">
-        <v>0.6077852679939818</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EK4">
-        <v>0.6079773603540368</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EL4">
-        <v>0.6104849370848987</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EM4">
-        <v>0.6153203486608123</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EN4">
-        <v>0.6153203486608123</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EO4">
-        <v>0.6175922491019068</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EP4">
-        <v>0.6276200240851412</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EQ4">
-        <v>0.63755231253346</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="ER4">
-        <v>0.6453585473829099</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="ES4">
-        <v>0.6592633078649367</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="ET4">
-        <v>0.668411997753369</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EU4">
-        <v>0.6694281526980161</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EV4">
-        <v>0.6706370806190659</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EW4">
-        <v>0.6773935743656621</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EX4">
-        <v>0.6923671226436267</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EY4">
-        <v>0.7126922682662379</v>
+        <v>0.9853143784595383</v>
       </c>
       <c r="EZ4">
-        <v>0.745638751828677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.766147076583218</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.7735838778723213</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.77473888321156</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.7788876586999507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.7806625775509447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.7888763564190577</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.7988462829293025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.8016556110895745</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8041480422137035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.8099387027599917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.8261943834479374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.8384659488969143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.8475019008443958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.8559221733737929</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.8561001012936154</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.8828501340827887</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9098432491601628</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9277001196239856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9529547728008053</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9615369746584995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9644241362500408</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9651829107109924</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.965336682796026</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9653676695930923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.965436058109278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9658264040573064</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9699946762405302</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9812357828753864</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9828199822281662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9848312881728507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9909936023617582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9915903816160045</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9924028992706564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.992654022621129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.992654022621129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9927174084153496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.994812073543643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.994812073543643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.994812073543643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.994812073543643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9955169816303219</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9964613430689819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9971500631436269</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.99858650726917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001991033387541061</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0005322818290191174</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0006959785589357998</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0008088089913495652</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.000946850178069453</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001278791660639435</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001462830251518344</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001548645132637493</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001653157153545787</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001726319154639455</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001750482432088558</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001750482432088558</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001819958184068746</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001819958184068746</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001819958184068746</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.00186372971436417</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001933205466344358</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002030604578946511</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002194877020304681</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002339125477140163</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002461333913860306</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002815456710526904</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003143283118451119</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.003351764567567134</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003548628213622126</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003683211910006222</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003683211910006222</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00368418533068756</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003689267585347062</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003802098017760827</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.004310922055722262</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004609544272383866</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004732766720038331</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.005032562871370041</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.005517729552381447</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.005535134074958517</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.005544936102882907</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.005624711395684353</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.005674834011396807</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005716934023488272</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.005807255494249744</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.005847563660133721</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.005868116863354378</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.005868116863354378</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.005868116863354378</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.005868116863354378</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.005868116863354378</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.005881134754098822</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.005909541276303333</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.005946798705827178</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.006156263139632227</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.006589180693093362</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0067850910099869</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.006839044004278766</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.006889985339671389</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.006961776117795149</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.006989061256845434</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.006989061256845434</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.006989061256845434</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.00699304839110184</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.00699304839110184</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.007001987314106029</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.007017037166782127</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.007064731748180131</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.00707126540379059</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.007100560858438547</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.007176095750973955</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.007178963487115499</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.007212605087397582</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.007360153652163708</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007595983390795479</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007652166021521017</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007745112876929221</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.008034426159449463</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.008167698769351009</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.008167698769351009</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.00818162604724895</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.00818162604724895</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.00818162604724895</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.008205437527497665</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.008284392436747742</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008319541329245348</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008362395674304213</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.008514668552712561</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.008678069067531545</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.008734594528762525</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.008766887293796871</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.008841623203986545</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.008977794861824434</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008985531655395789</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01271460807177599</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.0633228118158598</v>
+        <v>0.1374549232910932</v>
       </c>
       <c r="CP5">
-        <v>0.08363586307197481</v>
+        <v>0.1374549232910932</v>
       </c>
       <c r="CQ5">
-        <v>0.1817497707181424</v>
+        <v>0.591967845588722</v>
       </c>
       <c r="CR5">
-        <v>0.2472470103349319</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CS5">
-        <v>0.2568471953533356</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CT5">
-        <v>0.2803201711403156</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CU5">
-        <v>0.3067768742015905</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CV5">
-        <v>0.3079656517219862</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CW5">
-        <v>0.3220443606875644</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CX5">
-        <v>0.3220816209655797</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CY5">
-        <v>0.3273620178505986</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="CZ5">
-        <v>0.3736638898070164</v>
+        <v>0.9375077577351784</v>
       </c>
       <c r="DA5">
-        <v>0.4013356780847498</v>
+        <v>0.9375077577351784</v>
       </c>
       <c r="DB5">
-        <v>0.404954166497448</v>
+        <v>0.9375077577351784</v>
       </c>
       <c r="DC5">
-        <v>0.4387241007535714</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DD5">
-        <v>0.4477206166919182</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DE5">
-        <v>0.4479623889420384</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DF5">
-        <v>0.4504764708894753</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DG5">
-        <v>0.4505548162395613</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DH5">
-        <v>0.4505548162395613</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DI5">
-        <v>0.4510217432303034</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DJ5">
-        <v>0.4568715035329952</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DK5">
-        <v>0.4569450545427731</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DL5">
-        <v>0.4605838970128195</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DM5">
-        <v>0.4882293975263264</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DN5">
-        <v>0.4920623801478108</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DO5">
-        <v>0.5078266596751376</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DP5">
-        <v>0.5087922492347139</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DQ5">
-        <v>0.5090881334677722</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DR5">
-        <v>0.5140003803901253</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DS5">
-        <v>0.5140120845009769</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DT5">
-        <v>0.5218242537174863</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DU5">
-        <v>0.5344261574304604</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DV5">
-        <v>0.5518670258167323</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DW5">
-        <v>0.5521460410171951</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DX5">
-        <v>0.5543728565524494</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DY5">
-        <v>0.5546203023632359</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="DZ5">
-        <v>0.556105323396208</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="EA5">
-        <v>0.5575437961565873</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="EB5">
-        <v>0.5617056588791078</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="EC5">
-        <v>0.5632868377601582</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="ED5">
-        <v>0.5632908248944146</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="EE5">
-        <v>0.5668741950192396</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="EF5">
-        <v>0.5833445212313552</v>
+        <v>0.9625823226257435</v>
       </c>
       <c r="EG5">
-        <v>0.6141770364600995</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EH5">
-        <v>0.6222926711706018</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EI5">
-        <v>0.6225011526197178</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EJ5">
-        <v>0.6234907267375662</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EK5">
-        <v>0.6242725910989555</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EL5">
-        <v>0.6267004416958105</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EM5">
-        <v>0.6288180528518461</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EN5">
-        <v>0.6306063501797469</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EO5">
-        <v>0.6349711863788187</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EP5">
-        <v>0.6445581364674365</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EQ5">
-        <v>0.6536510748924259</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="ER5">
-        <v>0.659158073725822</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="ES5">
-        <v>0.6699610014981928</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="ET5">
-        <v>0.6785688109104938</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EU5">
-        <v>0.6787547006606364</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EV5">
-        <v>0.6800784400468249</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EW5">
-        <v>0.6840436041783129</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EX5">
-        <v>0.6959082738768682</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EY5">
-        <v>0.7222661772067794</v>
+        <v>0.9680522480190357</v>
       </c>
       <c r="EZ5">
-        <v>0.7570659406796494</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.7847563887276053</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.7986751819615908</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.7987384796127284</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8008654326601616</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8027026602078384</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8072828887859769</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.81309312989649</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8159720005466429</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.818934877882547</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8263327194578403</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8356851817690749</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8465373183070678</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8572724715928379</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.865794826261187</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.8659770228175799</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.8835758088892711</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9113675209588887</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9254836104968682</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9431781216900629</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9496264110815212</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9497986336855705</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9498226778836698</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9498251763441593</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9517257215448467</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.952109808510699</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9522874338936337</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9579645373935306</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9742562250708269</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9784195689688883</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9798889974376214</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9855915846807609</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9855915846807609</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9855941360206379</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9855986604482202</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9861741998782423</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9871673096473513</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.991459504411497</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9917624342035974</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.992017047197108</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.992017047197108</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9932497332079112</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9962779325462997</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9971499051381982</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9992914104051478</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.637175159106139E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002726635119624366</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0004442354915891602</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0006000149090642779</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0007329006467116557</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000853576894193219</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0008783829286105728</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0009077497284357591</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.000946061860535614</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.000946061860535614</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.000946061860535614</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000956786899562207</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000956786899562207</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0009835489984102526</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001050189425266567</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001076951524114613</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001076951524114613</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00112525492899497</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001147242552419243</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001147242552419243</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001220445891008726</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001281419281721467</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001283378140070948</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001431533146837573</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00165684488077499</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001682061988071946</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001688652923566226</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001752114128062938</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001782373288434628</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001786795481876054</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001786795481876054</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001790989690943748</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001801915671932549</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001805234416080851</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001805234416080851</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001865597198169193</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001874037183948423</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.00195247621024865</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002113111121287667</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002290796513501046</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002343431499376591</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002558481249169583</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002943155198330493</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.003028673478378518</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.003093400194471133</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.003246301079904358</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.003330380324130727</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.003385925655590217</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.00340752263381982</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.003412174208844589</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.003422899247871182</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.00344221318359419</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0034785584188854</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0034785584188854</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003685775487663298</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.003691615797816003</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.003703553813957634</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.003984590340720275</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.004400909686364047</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.004556682668267674</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.004852924438720598</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.005112510715281017</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.005140705728651303</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.005140705728651303</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.005177047712127307</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.005185761587021546</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.005185761587021546</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.005186261405731394</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.005186261405731394</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.005499919754301103</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.005662517144324105</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.005702849185126783</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.005785500993574043</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.005948098383597045</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.005977026289456982</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.006073706692930247</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.006392819803870993</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.006796748902861988</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.006957383813901005</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.006967814818372005</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.007055513365950877</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.007076340299526954</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.007076340299526954</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.007094916400481615</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.007100512862526821</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.007134457350410347</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.007322556538196406</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.007364427981711728</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.007464189856918595</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.007710342733733559</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02115843757522659</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1085316498744171</v>
+        <v>0.3742767029120198</v>
       </c>
       <c r="CP6">
-        <v>0.108768261120722</v>
+        <v>0.3742767029120198</v>
       </c>
       <c r="CQ6">
-        <v>0.1648042487317258</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CR6">
-        <v>0.1848900350457199</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CS6">
-        <v>0.1854519867501892</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CT6">
-        <v>0.1882236503464785</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CU6">
-        <v>0.2057025628021955</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CV6">
-        <v>0.2167626973062008</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CW6">
-        <v>0.2442841409185189</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CX6">
-        <v>0.259559206429898</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CY6">
-        <v>0.2674126017520632</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="CZ6">
-        <v>0.2743941522889082</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="DA6">
-        <v>0.3203895043844311</v>
+        <v>0.6482926007271859</v>
       </c>
       <c r="DB6">
-        <v>0.3204025971542819</v>
+        <v>0.6482926007271859</v>
       </c>
       <c r="DC6">
-        <v>0.3705756800517109</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DD6">
-        <v>0.3772655020293416</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DE6">
-        <v>0.3798158166964267</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DF6">
-        <v>0.380691143570308</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DG6">
-        <v>0.3826068958754382</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DH6">
-        <v>0.3830648084097027</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DI6">
-        <v>0.3878905365786989</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DJ6">
-        <v>0.3909234047085282</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DK6">
-        <v>0.3992608410812922</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DL6">
-        <v>0.4028635844712791</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DM6">
-        <v>0.4105047060209081</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DN6">
-        <v>0.4105047060209081</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DO6">
-        <v>0.4147511016422551</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DP6">
-        <v>0.4173129724138482</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DQ6">
-        <v>0.4179381875175676</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DR6">
-        <v>0.4179381875175676</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DS6">
-        <v>0.4189077353617082</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DT6">
-        <v>0.422220882038091</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DU6">
-        <v>0.4229214675324897</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DV6">
-        <v>0.4298902990580593</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DW6">
-        <v>0.4312254958567839</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DX6">
-        <v>0.4325037282394998</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DY6">
-        <v>0.4342637874558927</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="DZ6">
-        <v>0.4369216631421656</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="EA6">
-        <v>0.4376068231522043</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="EB6">
-        <v>0.4411913017297294</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="EC6">
-        <v>0.443067233160591</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="ED6">
-        <v>0.4430861791908059</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="EE6">
-        <v>0.4437793723554163</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="EF6">
-        <v>0.4626539640975794</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="EG6">
-        <v>0.4978828833304749</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EH6">
-        <v>0.5044240606214064</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EI6">
-        <v>0.5047612124190443</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EJ6">
-        <v>0.505000193707174</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EK6">
-        <v>0.5050169782691332</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EL6">
-        <v>0.509125541564405</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EM6">
-        <v>0.5226887190367978</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EN6">
-        <v>0.5256258878164846</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EO6">
-        <v>0.5306908170698955</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EP6">
-        <v>0.5439483509363505</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EQ6">
-        <v>0.5574053334722191</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="ER6">
-        <v>0.5694388997087777</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="ES6">
-        <v>0.5848932704507186</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="ET6">
-        <v>0.5948304497746989</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EU6">
-        <v>0.5964048703775074</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EV6">
-        <v>0.5974363357257114</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EW6">
-        <v>0.606935642468688</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EX6">
-        <v>0.6340961466035747</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="EY6">
-        <v>0.6680180983508103</v>
+        <v>0.8392403129079716</v>
       </c>
       <c r="EZ6">
-        <v>0.7191735817453534</v>
+        <v>0.9771606828017014</v>
       </c>
       <c r="FA6">
-        <v>0.7526947825490339</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.7701066579685365</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.7701142863466798</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.7741418849480962</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.7754742968358298</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.7787743310603226</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.7843179807581049</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.7875498140387494</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.7904472071833325</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.7947917712924374</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8167838369364889</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8379890083397605</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8519421314011499</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8628507036926562</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8629688374990611</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8842405054706457</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9127129413889516</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9305560841710986</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9497317015212434</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9556246306019215</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9577480857223567</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9579288600287469</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9586767036360816</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9587703437214493</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9588422148827281</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9602422624249201</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9637677300146505</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9775058479388696</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9814996815087639</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9825092288818404</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9863379373974278</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9866394920774451</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9866992430298519</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9868330166261483</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9871226935531957</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9879402771868141</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9933673269401072</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9941047527984466</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9941657261891593</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.994287250010414</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9959042815029012</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9977321094889947</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9982820348518561</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9990657791396159</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.008093231497784334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5030846697138647</v>
+        <v>0.5152704824211561</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -10611,16 +10611,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.007742164989502947</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5083434989765989</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.0080228143162797</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5009252499733422</v>
+        <v>0.6425202199013161</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.0633228118158598</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5078266596751376</v>
+        <v>0.591967845588722</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.007710342733733559</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5044240606214064</v>
+        <v>0.54404716707643</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -10829,16 +10829,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.008093231497784334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7001149115417824</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -10870,16 +10870,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.007742164989502947</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7014371600475078</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.0080228143162797</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7126922682662379</v>
+        <v>0.830237781600216</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0633228118158598</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7222661772067794</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.007710342733733559</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7191735817453534</v>
+        <v>0.7798018403243543</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.008093231497784334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8027281901580843</v>
+        <v>0.8536036605632604</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -11129,16 +11129,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.007742164989502947</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8021807154799395</v>
+        <v>0.8614281757928913</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.0080228143162797</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8016556110895745</v>
+        <v>0.830237781600216</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0633228118158598</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8008654326601616</v>
+        <v>0.8287937397987316</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>0.007710342733733559</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8167838369364889</v>
+        <v>0.8137857013127859</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>0.008093231497784334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9013759775103638</v>
+        <v>0.9396100644885141</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -11388,16 +11388,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.007742164989502947</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.910792542934033</v>
+        <v>0.9585373625776668</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.0080228143162797</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9098432491601628</v>
+        <v>0.9713348731972399</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.0633228118158598</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9113675209588887</v>
+        <v>0.9375077577351784</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E6">
-        <v>0.007710342733733559</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9127129413889516</v>
+        <v>0.9771606828017014</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>28</v>

--- a/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04040526437928207</v>
+        <v>0.05227602163694004</v>
       </c>
       <c r="E2">
-        <v>0.1776170742205388</v>
+        <v>0.1446971150797848</v>
       </c>
       <c r="F2">
-        <v>0.2834614837228353</v>
+        <v>0.2159902207704085</v>
       </c>
       <c r="G2">
-        <v>0.2853934170958457</v>
+        <v>0.2172915037649183</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001261706832069276</v>
       </c>
       <c r="I2">
-        <v>0.02552887765346483</v>
+        <v>0.04225580596258013</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02002500917777559</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02383260028749569</v>
       </c>
       <c r="O2">
-        <v>0.05793695191584473</v>
+        <v>0.06408475540338457</v>
       </c>
       <c r="P2">
-        <v>0.0007037158422062218</v>
+        <v>0.02553444209348987</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01583859160972786</v>
+        <v>0.03572876697831024</v>
       </c>
       <c r="S2">
-        <v>0.07009686991359979</v>
+        <v>0.07227525240818347</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.004338494239685599</v>
       </c>
       <c r="AB2">
-        <v>0.02372811848801264</v>
+        <v>0.04104287734301845</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0192896351586421</v>
+        <v>0.03805326964814988</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.001312158373805273</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -799,28 +799,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3771699358292153</v>
+        <v>0.2963964809008053</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.002965733538903559</v>
       </c>
       <c r="H3">
-        <v>0.3335459243739012</v>
+        <v>0.2650021891096919</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0096831372908373</v>
       </c>
       <c r="J3">
-        <v>0.02941259409738639</v>
+        <v>0.04613074204241689</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06030496587801974</v>
+        <v>0.06836262997400276</v>
       </c>
       <c r="M3">
-        <v>0.002294093925024129</v>
+        <v>0.02661474433962446</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01590951728843793</v>
       </c>
       <c r="Q3">
-        <v>0.09512246341494565</v>
+        <v>0.09341925912490752</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.03492221349137493</v>
+        <v>0.05009577398566298</v>
       </c>
       <c r="T3">
-        <v>0.01690495113442</v>
+        <v>0.03712953881284548</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01224789033205554</v>
+        <v>0.0337780559748183</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002147524538128404</v>
       </c>
       <c r="AE3">
-        <v>0.03807496752365706</v>
+        <v>0.05236467307891722</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3322796231914106</v>
+        <v>0.2690853829751593</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2015608537323301</v>
+        <v>0.1730596773045425</v>
       </c>
       <c r="H4">
-        <v>0.01240945599330093</v>
+        <v>0.03410949806375992</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009864619963309946</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.08667510868379016</v>
+        <v>0.08866487474151809</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1439249438790186</v>
+        <v>0.1307204712476435</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -942,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01517737518066747</v>
+        <v>0.03614280509614683</v>
       </c>
       <c r="Q4">
-        <v>0.07285682741866834</v>
+        <v>0.07851399728811799</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.003088005375383761</v>
       </c>
       <c r="S4">
-        <v>0.1266589496179693</v>
+        <v>0.1180369118025626</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.004594321142818709</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.008456862302844722</v>
+        <v>0.0312059318817504</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.02086900131924758</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.002044501798038871</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1022,52 +1022,52 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1320388749966021</v>
+        <v>0.1135939084770893</v>
       </c>
       <c r="F5">
-        <v>0.01883310860511831</v>
+        <v>0.03799156432914786</v>
       </c>
       <c r="G5">
-        <v>0.3095563712474639</v>
+        <v>0.2321456331076833</v>
       </c>
       <c r="H5">
-        <v>0.1876756544275466</v>
+        <v>0.1507498863031252</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01125732688188755</v>
       </c>
       <c r="J5">
-        <v>0.03064099365860639</v>
+        <v>0.04587723851279347</v>
       </c>
       <c r="K5">
-        <v>0.04179047154698685</v>
+        <v>0.05332320784153089</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02243360034225561</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0004771827899888273</v>
       </c>
       <c r="P5">
-        <v>0.1159471391800437</v>
+        <v>0.1028473450473246</v>
       </c>
       <c r="Q5">
-        <v>0.04633095548133178</v>
+        <v>0.05635548472940122</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.06911827399127944</v>
+        <v>0.07157356726276075</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.009750854928658364</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.001898044066896292</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04623272437002865</v>
+        <v>0.05628988292730669</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001835432494992266</v>
+        <v>0.02663998569534371</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.006795286756806496</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005002932404594483</v>
+        <v>0.02907864705958124</v>
       </c>
       <c r="E6">
-        <v>0.3374502054480216</v>
+        <v>0.2592514713256358</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1965241541867796</v>
+        <v>0.1616800671913459</v>
       </c>
       <c r="H6">
-        <v>0.03485317147387029</v>
+        <v>0.04974572538659951</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1153,34 +1153,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0231298474514455</v>
+        <v>0.04162897780336663</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02164350736664281</v>
       </c>
       <c r="M6">
-        <v>0.06829192784145859</v>
+        <v>0.07289734555966348</v>
       </c>
       <c r="N6">
-        <v>0.01321896828010706</v>
+        <v>0.03476709252170095</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01165902253182157</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.008944451578672482</v>
       </c>
       <c r="Q6">
-        <v>0.151370598649249</v>
+        <v>0.1304176016924338</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1701581942644737</v>
+        <v>0.143425360499828</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.008036127199859631</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1195,25 +1195,25 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.00223209534457359</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01316612998742762</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01099808812383458</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.0004282888270125547</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1371,91 +1371,91 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04040526437928207</v>
+        <v>0.05227602163694004</v>
       </c>
       <c r="E2">
-        <v>0.2180223385998209</v>
+        <v>0.1969731367167249</v>
       </c>
       <c r="F2">
-        <v>0.5014838223226561</v>
+        <v>0.4129633574871333</v>
       </c>
       <c r="G2">
-        <v>0.7868772394185017</v>
+        <v>0.6302548612520517</v>
       </c>
       <c r="H2">
-        <v>0.7868772394185017</v>
+        <v>0.6315165680841209</v>
       </c>
       <c r="I2">
-        <v>0.8124061170719665</v>
+        <v>0.6737723740467011</v>
       </c>
       <c r="J2">
-        <v>0.8124061170719665</v>
+        <v>0.6937973832244767</v>
       </c>
       <c r="K2">
-        <v>0.8124061170719665</v>
+        <v>0.6937973832244767</v>
       </c>
       <c r="L2">
-        <v>0.8124061170719665</v>
+        <v>0.6937973832244767</v>
       </c>
       <c r="M2">
-        <v>0.8124061170719665</v>
+        <v>0.6937973832244767</v>
       </c>
       <c r="N2">
-        <v>0.8124061170719665</v>
+        <v>0.7176299835119724</v>
       </c>
       <c r="O2">
-        <v>0.8703430689878112</v>
+        <v>0.7817147389153569</v>
       </c>
       <c r="P2">
-        <v>0.8710467848300174</v>
+        <v>0.8072491810088468</v>
       </c>
       <c r="Q2">
-        <v>0.8710467848300174</v>
+        <v>0.8072491810088468</v>
       </c>
       <c r="R2">
-        <v>0.8868853764397453</v>
+        <v>0.8429779479871571</v>
       </c>
       <c r="S2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="T2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="U2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="V2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="W2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="X2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="Y2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="Z2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="AA2">
-        <v>0.9569822463533451</v>
+        <v>0.9195916946350261</v>
       </c>
       <c r="AB2">
-        <v>0.9807103648413577</v>
+        <v>0.9606345719780446</v>
       </c>
       <c r="AC2">
-        <v>0.9807103648413577</v>
+        <v>0.9606345719780446</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>0.9986878416261945</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>0.9986878416261945</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>0.9986878416261945</v>
       </c>
       <c r="AG2">
         <v>0.9999999999999998</v>
@@ -1490,100 +1490,100 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3771699358292153</v>
+        <v>0.2963964809008053</v>
       </c>
       <c r="G3">
-        <v>0.3771699358292153</v>
+        <v>0.2993622144397089</v>
       </c>
       <c r="H3">
-        <v>0.7107158602031165</v>
+        <v>0.5643644035494009</v>
       </c>
       <c r="I3">
-        <v>0.7107158602031165</v>
+        <v>0.5740475408402381</v>
       </c>
       <c r="J3">
-        <v>0.7401284543005029</v>
+        <v>0.620178282882655</v>
       </c>
       <c r="K3">
-        <v>0.7401284543005029</v>
+        <v>0.620178282882655</v>
       </c>
       <c r="L3">
-        <v>0.8004334201785226</v>
+        <v>0.6885409128566577</v>
       </c>
       <c r="M3">
-        <v>0.8027275141035467</v>
+        <v>0.7151556571962822</v>
       </c>
       <c r="N3">
-        <v>0.8027275141035467</v>
+        <v>0.7151556571962822</v>
       </c>
       <c r="O3">
-        <v>0.8027275141035467</v>
+        <v>0.7151556571962822</v>
       </c>
       <c r="P3">
-        <v>0.8027275141035467</v>
+        <v>0.7310651744847201</v>
       </c>
       <c r="Q3">
-        <v>0.8978499775184924</v>
+        <v>0.8244844336096276</v>
       </c>
       <c r="R3">
-        <v>0.8978499775184924</v>
+        <v>0.8244844336096276</v>
       </c>
       <c r="S3">
-        <v>0.9327721910098673</v>
+        <v>0.8745802075952906</v>
       </c>
       <c r="T3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="U3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="V3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="W3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="X3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="Y3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="Z3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="AA3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="AB3">
-        <v>0.9496771421442873</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="AC3">
-        <v>0.9619250324763429</v>
+        <v>0.9454878023829545</v>
       </c>
       <c r="AD3">
-        <v>0.9619250324763429</v>
+        <v>0.9476353269210829</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1600,91 +1600,91 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3322796231914106</v>
+        <v>0.2690853829751593</v>
       </c>
       <c r="F4">
-        <v>0.3322796231914106</v>
+        <v>0.2690853829751593</v>
       </c>
       <c r="G4">
-        <v>0.5338404769237406</v>
+        <v>0.4421450602797018</v>
       </c>
       <c r="H4">
-        <v>0.5462499329170415</v>
+        <v>0.4762545583434617</v>
       </c>
       <c r="I4">
-        <v>0.5462499329170415</v>
+        <v>0.4861191783067716</v>
       </c>
       <c r="J4">
-        <v>0.5462499329170415</v>
+        <v>0.4861191783067716</v>
       </c>
       <c r="K4">
-        <v>0.6329250416008316</v>
+        <v>0.5747840530482897</v>
       </c>
       <c r="L4">
-        <v>0.6329250416008316</v>
+        <v>0.5747840530482897</v>
       </c>
       <c r="M4">
-        <v>0.7768499854798503</v>
+        <v>0.7055045242959332</v>
       </c>
       <c r="N4">
-        <v>0.7768499854798503</v>
+        <v>0.7055045242959332</v>
       </c>
       <c r="O4">
-        <v>0.7768499854798503</v>
+        <v>0.7055045242959332</v>
       </c>
       <c r="P4">
-        <v>0.7920273606605177</v>
+        <v>0.7416473293920801</v>
       </c>
       <c r="Q4">
-        <v>0.864884188079186</v>
+        <v>0.8201613266801981</v>
       </c>
       <c r="R4">
-        <v>0.864884188079186</v>
+        <v>0.8232493320555819</v>
       </c>
       <c r="S4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="T4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="U4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="V4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="W4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="X4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="Y4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="Z4">
-        <v>0.9915431376971553</v>
+        <v>0.9458805650009632</v>
       </c>
       <c r="AA4">
-        <v>0.9915431376971553</v>
+        <v>0.9458805650009632</v>
       </c>
       <c r="AB4">
-        <v>0.9915431376971553</v>
+        <v>0.9458805650009632</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9770864968827135</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9770864968827135</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9979554982019612</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9979554982019612</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9979554982019612</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1713,97 +1713,97 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1320388749966021</v>
+        <v>0.1135939084770893</v>
       </c>
       <c r="F5">
-        <v>0.1508719836017204</v>
+        <v>0.1515854728062371</v>
       </c>
       <c r="G5">
-        <v>0.4604283548491843</v>
+        <v>0.3837311059139205</v>
       </c>
       <c r="H5">
-        <v>0.648104009276731</v>
+        <v>0.5344809922170457</v>
       </c>
       <c r="I5">
-        <v>0.648104009276731</v>
+        <v>0.5457383190989332</v>
       </c>
       <c r="J5">
-        <v>0.6787450029353373</v>
+        <v>0.5916155576117267</v>
       </c>
       <c r="K5">
-        <v>0.7205354744823242</v>
+        <v>0.6449387654532576</v>
       </c>
       <c r="L5">
-        <v>0.7205354744823242</v>
+        <v>0.6449387654532576</v>
       </c>
       <c r="M5">
-        <v>0.7205354744823242</v>
+        <v>0.6673723657955132</v>
       </c>
       <c r="N5">
-        <v>0.7205354744823242</v>
+        <v>0.6673723657955132</v>
       </c>
       <c r="O5">
-        <v>0.7205354744823242</v>
+        <v>0.6678495485855021</v>
       </c>
       <c r="P5">
-        <v>0.836482613662368</v>
+        <v>0.7706968936328267</v>
       </c>
       <c r="Q5">
-        <v>0.8828135691436998</v>
+        <v>0.8270523783622279</v>
       </c>
       <c r="R5">
-        <v>0.8828135691436998</v>
+        <v>0.8270523783622279</v>
       </c>
       <c r="S5">
-        <v>0.9519318431349792</v>
+        <v>0.8986259456249887</v>
       </c>
       <c r="T5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="U5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="V5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="W5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="X5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="Y5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="Z5">
-        <v>0.9519318431349792</v>
+        <v>0.9102748446205433</v>
       </c>
       <c r="AA5">
-        <v>0.9519318431349792</v>
+        <v>0.9102748446205433</v>
       </c>
       <c r="AB5">
-        <v>0.9519318431349792</v>
+        <v>0.9102748446205433</v>
       </c>
       <c r="AC5">
-        <v>0.9981645675050079</v>
+        <v>0.9665647275478499</v>
       </c>
       <c r="AD5">
-        <v>0.9981645675050079</v>
+        <v>0.9665647275478499</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9932047132431937</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9932047132431937</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9932047132431937</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9932047132431937</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9932047132431937</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -1823,106 +1823,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005002932404594483</v>
+        <v>0.02907864705958124</v>
       </c>
       <c r="E6">
-        <v>0.3424531378526161</v>
+        <v>0.288330118385217</v>
       </c>
       <c r="F6">
-        <v>0.3424531378526161</v>
+        <v>0.288330118385217</v>
       </c>
       <c r="G6">
-        <v>0.5389772920393956</v>
+        <v>0.4500101855765629</v>
       </c>
       <c r="H6">
-        <v>0.5738304635132658</v>
+        <v>0.4997559109631624</v>
       </c>
       <c r="I6">
-        <v>0.5738304635132658</v>
+        <v>0.4997559109631624</v>
       </c>
       <c r="J6">
-        <v>0.5738304635132658</v>
+        <v>0.4997559109631624</v>
       </c>
       <c r="K6">
-        <v>0.5969603109647114</v>
+        <v>0.541384888766529</v>
       </c>
       <c r="L6">
-        <v>0.5969603109647114</v>
+        <v>0.5630283961331718</v>
       </c>
       <c r="M6">
-        <v>0.6652522388061699</v>
+        <v>0.6359257416928352</v>
       </c>
       <c r="N6">
-        <v>0.678471207086277</v>
+        <v>0.6706928342145362</v>
       </c>
       <c r="O6">
-        <v>0.678471207086277</v>
+        <v>0.6823518567463578</v>
       </c>
       <c r="P6">
-        <v>0.678471207086277</v>
+        <v>0.6912963083250303</v>
       </c>
       <c r="Q6">
-        <v>0.829841805735526</v>
+        <v>0.8217139100174641</v>
       </c>
       <c r="R6">
-        <v>0.829841805735526</v>
+        <v>0.8217139100174641</v>
       </c>
       <c r="S6">
-        <v>0.9999999999999998</v>
+        <v>0.9651392705172921</v>
       </c>
       <c r="T6">
-        <v>0.9999999999999998</v>
+        <v>0.9731753977171517</v>
       </c>
       <c r="U6">
-        <v>0.9999999999999998</v>
+        <v>0.9731753977171517</v>
       </c>
       <c r="V6">
-        <v>0.9999999999999998</v>
+        <v>0.9731753977171517</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999998</v>
+        <v>0.9731753977171517</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999998</v>
+        <v>0.9731753977171517</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999998</v>
+        <v>0.9754074930617253</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999998</v>
+        <v>0.9754074930617253</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999998</v>
+        <v>0.9885736230491529</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999998</v>
+        <v>0.9885736230491529</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999998</v>
+        <v>0.9995717111729875</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>0.9995717111729875</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1987,19 +1987,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.6302548612520517</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5014838223226561</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7107158602031165</v>
+        <v>0.5643644035494009</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2072,16 +2072,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5338404769237406</v>
+        <v>0.5747840530482897</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.648104009276731</v>
+        <v>0.5344809922170457</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2154,16 +2154,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5389772920393956</v>
+        <v>0.541384888766529</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -2246,19 +2246,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7868772394185017</v>
+        <v>0.7176299835119724</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2290,16 +2290,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7107158602031165</v>
+        <v>0.7151556571962822</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7768499854798503</v>
+        <v>0.7055045242959332</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2372,16 +2372,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7205354744823242</v>
+        <v>0.7706968936328267</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.829841805735526</v>
+        <v>0.8217139100174641</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -2505,19 +2505,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8124061170719665</v>
+        <v>0.8072491810088468</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2549,16 +2549,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8004334201785226</v>
+        <v>0.8244844336096276</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.864884188079186</v>
+        <v>0.8201613266801981</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -2631,16 +2631,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.836482613662368</v>
+        <v>0.8270523783622279</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.829841805735526</v>
+        <v>0.8217139100174641</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -2764,7 +2764,7 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9569822463533451</v>
+        <v>0.9152532003953405</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2808,16 +2808,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9327721910098673</v>
+        <v>0.9117097464081362</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9915431376971553</v>
+        <v>0.9412862438581445</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -2890,16 +2890,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9519318431349792</v>
+        <v>0.908376800553647</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999998</v>
+        <v>0.9651392705172921</v>
       </c>
       <c r="G6">
         <v>16</v>
